--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="141">
   <si>
     <t>tech_button_name</t>
   </si>
@@ -35,6 +35,9 @@
 — или узнать исторические факты о каждом здании.
 Выбирай, что ближе именно тебе.     
           </t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>Добро пожаловать в Усолье Строгановское — уникальный историко-архитектурный комплекс XVI–XIX веков, сформированный как центр солеваренного промысла Строгановых и отражающий их вклад в освоение Урала.
@@ -717,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -731,14 +734,14 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -790,7 +793,6 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1014,7 +1016,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.71"/>
+    <col customWidth="1" min="1" max="1" width="23.29"/>
     <col customWidth="1" min="2" max="2" width="40.29"/>
     <col customWidth="1" min="3" max="3" width="86.71"/>
     <col customWidth="1" min="4" max="4" width="47.29"/>
@@ -1043,3444 +1045,3497 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="7" t="s">
-        <v>12</v>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E19" s="19"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E20" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="D21" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E21" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E23" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="D31" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E31" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="33"/>
       <c r="B32" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
+        <v>108</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>56</v>
+      <c r="C33" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E34" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="C35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>117</v>
+      <c r="A36" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>120</v>
       </c>
+      <c r="D36" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="E36" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>124</v>
+      <c r="A38" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="D38" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="E38" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>130</v>
+      <c r="A40" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="7" t="s">
         <v>133</v>
       </c>
+      <c r="D40" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="E40" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="C41" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="7" t="s">
-        <v>136</v>
+      <c r="B42" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="6"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="6"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="C46" s="6"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="C47" s="6"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="C48" s="6"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="C49" s="6"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="C50" s="6"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="C51" s="6"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="C52" s="6"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="C53" s="6"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="C54" s="6"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="C55" s="6"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="C56" s="6"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="C57" s="6"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="C58" s="6"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="C59" s="6"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="C60" s="6"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="C61" s="6"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="C62" s="6"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="C63" s="6"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="C64" s="6"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="C65" s="6"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="C66" s="6"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="C67" s="6"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="C68" s="6"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="C69" s="6"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="C70" s="6"/>
+      <c r="C70" s="7"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="C71" s="6"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="C72" s="6"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="C73" s="6"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="C74" s="6"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="C75" s="6"/>
+      <c r="C75" s="7"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="C76" s="6"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="C77" s="6"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="C78" s="6"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="C79" s="6"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="C80" s="6"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="C81" s="6"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="C82" s="6"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="C83" s="6"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="C84" s="6"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="C85" s="6"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="C86" s="6"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="C87" s="6"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="C88" s="6"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="C89" s="6"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="C90" s="6"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="C91" s="6"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="C92" s="6"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="C93" s="6"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="C94" s="6"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="C95" s="6"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="C96" s="6"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="C97" s="6"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="C98" s="6"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="C99" s="6"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="C100" s="6"/>
+      <c r="C100" s="7"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="C101" s="6"/>
+      <c r="C101" s="7"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="C102" s="6"/>
+      <c r="C102" s="7"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="C103" s="6"/>
+      <c r="C103" s="7"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="C104" s="6"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="C105" s="6"/>
+      <c r="C105" s="7"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="C106" s="6"/>
+      <c r="C106" s="7"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="C107" s="6"/>
+      <c r="C107" s="7"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="C108" s="6"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="C109" s="6"/>
+      <c r="C109" s="7"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="C110" s="6"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="C111" s="6"/>
+      <c r="C111" s="7"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="C112" s="6"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="C113" s="6"/>
+      <c r="C113" s="7"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="C114" s="6"/>
+      <c r="C114" s="7"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="C115" s="6"/>
+      <c r="C115" s="7"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="C116" s="6"/>
+      <c r="C116" s="7"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="C117" s="6"/>
+      <c r="C117" s="7"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="C118" s="6"/>
+      <c r="C118" s="7"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="C119" s="6"/>
+      <c r="C119" s="7"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="C120" s="6"/>
+      <c r="C120" s="7"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="C121" s="6"/>
+      <c r="C121" s="7"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="C122" s="6"/>
+      <c r="C122" s="7"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="C123" s="6"/>
+      <c r="C123" s="7"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="C124" s="6"/>
+      <c r="C124" s="7"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="C125" s="6"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="C126" s="6"/>
+      <c r="C126" s="7"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="C127" s="6"/>
+      <c r="C127" s="7"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="C128" s="6"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="C129" s="6"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="C130" s="6"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="C131" s="6"/>
+      <c r="C131" s="7"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="C132" s="6"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="C133" s="6"/>
+      <c r="C133" s="7"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="C134" s="6"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="C135" s="6"/>
+      <c r="C135" s="7"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="C136" s="6"/>
+      <c r="C136" s="7"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="C137" s="6"/>
+      <c r="C137" s="7"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="C138" s="6"/>
+      <c r="C138" s="7"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="C139" s="6"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="C140" s="6"/>
+      <c r="C140" s="7"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="C141" s="6"/>
+      <c r="C141" s="7"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="6"/>
+      <c r="C142" s="7"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="C143" s="6"/>
+      <c r="C143" s="7"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="C144" s="6"/>
+      <c r="C144" s="7"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="6"/>
+      <c r="C145" s="7"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="6"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="6"/>
+      <c r="C147" s="7"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="6"/>
+      <c r="C148" s="7"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="6"/>
+      <c r="C149" s="7"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="6"/>
+      <c r="C150" s="7"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="6"/>
+      <c r="C151" s="7"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="C152" s="6"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="C153" s="6"/>
+      <c r="C153" s="7"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="C154" s="6"/>
+      <c r="C154" s="7"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="C155" s="6"/>
+      <c r="C155" s="7"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="C156" s="6"/>
+      <c r="C156" s="7"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="C157" s="6"/>
+      <c r="C157" s="7"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="C158" s="6"/>
+      <c r="C158" s="7"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="C159" s="6"/>
+      <c r="C159" s="7"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="C160" s="6"/>
+      <c r="C160" s="7"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="C161" s="6"/>
+      <c r="C161" s="7"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="C162" s="6"/>
+      <c r="C162" s="7"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="C163" s="6"/>
+      <c r="C163" s="7"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="C164" s="6"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="C165" s="6"/>
+      <c r="C165" s="7"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="C166" s="6"/>
+      <c r="C166" s="7"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="C167" s="6"/>
+      <c r="C167" s="7"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="C168" s="6"/>
+      <c r="C168" s="7"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="C169" s="6"/>
+      <c r="C169" s="7"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="C170" s="6"/>
+      <c r="C170" s="7"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="C171" s="6"/>
+      <c r="C171" s="7"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="C172" s="6"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="C173" s="6"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="C174" s="6"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="C175" s="6"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="C176" s="6"/>
+      <c r="C176" s="7"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="C177" s="6"/>
+      <c r="C177" s="7"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="C178" s="6"/>
+      <c r="C178" s="7"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="C179" s="6"/>
+      <c r="C179" s="7"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="C180" s="6"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="C181" s="6"/>
+      <c r="C181" s="7"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="C182" s="6"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="C183" s="6"/>
+      <c r="C183" s="7"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="C184" s="6"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="C185" s="6"/>
+      <c r="C185" s="7"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="C186" s="6"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="C187" s="6"/>
+      <c r="C187" s="7"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="C188" s="6"/>
+      <c r="C188" s="7"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="C189" s="6"/>
+      <c r="C189" s="7"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="C190" s="6"/>
+      <c r="C190" s="7"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="C191" s="6"/>
+      <c r="C191" s="7"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="C192" s="6"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="C193" s="6"/>
+      <c r="C193" s="7"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="C194" s="6"/>
+      <c r="C194" s="7"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="C195" s="6"/>
+      <c r="C195" s="7"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="C196" s="6"/>
+      <c r="C196" s="7"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="C197" s="6"/>
+      <c r="C197" s="7"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="C198" s="6"/>
+      <c r="C198" s="7"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="C199" s="6"/>
+      <c r="C199" s="7"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="C200" s="6"/>
+      <c r="C200" s="7"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="C201" s="6"/>
+      <c r="C201" s="7"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="C202" s="6"/>
+      <c r="C202" s="7"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="C203" s="6"/>
+      <c r="C203" s="7"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="C204" s="6"/>
+      <c r="C204" s="7"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="C205" s="6"/>
+      <c r="C205" s="7"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="C206" s="6"/>
+      <c r="C206" s="7"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="C207" s="6"/>
+      <c r="C207" s="7"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="C208" s="6"/>
+      <c r="C208" s="7"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="C209" s="6"/>
+      <c r="C209" s="7"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="C210" s="6"/>
+      <c r="C210" s="7"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="C211" s="6"/>
+      <c r="C211" s="7"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="C212" s="6"/>
+      <c r="C212" s="7"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="C213" s="6"/>
+      <c r="C213" s="7"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="C214" s="6"/>
+      <c r="C214" s="7"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="C215" s="6"/>
+      <c r="C215" s="7"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="C216" s="6"/>
+      <c r="C216" s="7"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="C217" s="6"/>
+      <c r="C217" s="7"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="C218" s="6"/>
+      <c r="C218" s="7"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="C219" s="6"/>
+      <c r="C219" s="7"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="C220" s="6"/>
+      <c r="C220" s="7"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="C221" s="6"/>
+      <c r="C221" s="7"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="C222" s="6"/>
+      <c r="C222" s="7"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="C223" s="6"/>
+      <c r="C223" s="7"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="C224" s="6"/>
+      <c r="C224" s="7"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="C225" s="6"/>
+      <c r="C225" s="7"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="C226" s="6"/>
+      <c r="C226" s="7"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="C227" s="6"/>
+      <c r="C227" s="7"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="C228" s="6"/>
+      <c r="C228" s="7"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="C229" s="6"/>
+      <c r="C229" s="7"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="C230" s="6"/>
+      <c r="C230" s="7"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="C231" s="6"/>
+      <c r="C231" s="7"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="C232" s="6"/>
+      <c r="C232" s="7"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="C233" s="6"/>
+      <c r="C233" s="7"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="C234" s="6"/>
+      <c r="C234" s="7"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="C235" s="6"/>
+      <c r="C235" s="7"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="C236" s="6"/>
+      <c r="C236" s="7"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="C237" s="6"/>
+      <c r="C237" s="7"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="C238" s="6"/>
+      <c r="C238" s="7"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="C239" s="6"/>
+      <c r="C239" s="7"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="C240" s="6"/>
+      <c r="C240" s="7"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="C241" s="6"/>
+      <c r="C241" s="7"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="C242" s="6"/>
+      <c r="C242" s="7"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="C243" s="6"/>
+      <c r="C243" s="7"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="C244" s="6"/>
+      <c r="C244" s="7"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="C245" s="6"/>
+      <c r="C245" s="7"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="C246" s="6"/>
+      <c r="C246" s="7"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="C247" s="6"/>
+      <c r="C247" s="7"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="C248" s="6"/>
+      <c r="C248" s="7"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="C249" s="6"/>
+      <c r="C249" s="7"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="C250" s="6"/>
+      <c r="C250" s="7"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="C251" s="6"/>
+      <c r="C251" s="7"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="C252" s="6"/>
+      <c r="C252" s="7"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="C253" s="6"/>
+      <c r="C253" s="7"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="C254" s="6"/>
+      <c r="C254" s="7"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="C255" s="6"/>
+      <c r="C255" s="7"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="C256" s="6"/>
+      <c r="C256" s="7"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="C257" s="6"/>
+      <c r="C257" s="7"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="C258" s="6"/>
+      <c r="C258" s="7"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="C259" s="6"/>
+      <c r="C259" s="7"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="C260" s="6"/>
+      <c r="C260" s="7"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="C261" s="6"/>
+      <c r="C261" s="7"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="C262" s="6"/>
+      <c r="C262" s="7"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="C263" s="6"/>
+      <c r="C263" s="7"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="C264" s="6"/>
+      <c r="C264" s="7"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="C265" s="6"/>
+      <c r="C265" s="7"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="C266" s="6"/>
+      <c r="C266" s="7"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="C267" s="6"/>
+      <c r="C267" s="7"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="C268" s="6"/>
+      <c r="C268" s="7"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="C269" s="6"/>
+      <c r="C269" s="7"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="C270" s="6"/>
+      <c r="C270" s="7"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="C271" s="6"/>
+      <c r="C271" s="7"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="C272" s="6"/>
+      <c r="C272" s="7"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="C273" s="6"/>
+      <c r="C273" s="7"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="C274" s="6"/>
+      <c r="C274" s="7"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="C275" s="6"/>
+      <c r="C275" s="7"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="C276" s="6"/>
+      <c r="C276" s="7"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="C277" s="6"/>
+      <c r="C277" s="7"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="C278" s="6"/>
+      <c r="C278" s="7"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="C279" s="6"/>
+      <c r="C279" s="7"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="C280" s="6"/>
+      <c r="C280" s="7"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="C281" s="6"/>
+      <c r="C281" s="7"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="C282" s="6"/>
+      <c r="C282" s="7"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="C283" s="6"/>
+      <c r="C283" s="7"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="C284" s="6"/>
+      <c r="C284" s="7"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="C285" s="6"/>
+      <c r="C285" s="7"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="C286" s="6"/>
+      <c r="C286" s="7"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="C287" s="6"/>
+      <c r="C287" s="7"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="C288" s="6"/>
+      <c r="C288" s="7"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="C289" s="6"/>
+      <c r="C289" s="7"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="C290" s="6"/>
+      <c r="C290" s="7"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="C291" s="6"/>
+      <c r="C291" s="7"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="C292" s="6"/>
+      <c r="C292" s="7"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="C293" s="6"/>
+      <c r="C293" s="7"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="C294" s="6"/>
+      <c r="C294" s="7"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="C295" s="6"/>
+      <c r="C295" s="7"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="C296" s="6"/>
+      <c r="C296" s="7"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="C297" s="6"/>
+      <c r="C297" s="7"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="C298" s="6"/>
+      <c r="C298" s="7"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="C299" s="6"/>
+      <c r="C299" s="7"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="C300" s="6"/>
+      <c r="C300" s="7"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="C301" s="6"/>
+      <c r="C301" s="7"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="C302" s="6"/>
+      <c r="C302" s="7"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="C303" s="6"/>
+      <c r="C303" s="7"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="C304" s="6"/>
+      <c r="C304" s="7"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="C305" s="6"/>
+      <c r="C305" s="7"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="C306" s="6"/>
+      <c r="C306" s="7"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="C307" s="6"/>
+      <c r="C307" s="7"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="C308" s="6"/>
+      <c r="C308" s="7"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="C309" s="6"/>
+      <c r="C309" s="7"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="C310" s="6"/>
+      <c r="C310" s="7"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="C311" s="6"/>
+      <c r="C311" s="7"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="C312" s="6"/>
+      <c r="C312" s="7"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="C313" s="6"/>
+      <c r="C313" s="7"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="C314" s="6"/>
+      <c r="C314" s="7"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="C315" s="6"/>
+      <c r="C315" s="7"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="C316" s="6"/>
+      <c r="C316" s="7"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="C317" s="6"/>
+      <c r="C317" s="7"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="C318" s="6"/>
+      <c r="C318" s="7"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="C319" s="6"/>
+      <c r="C319" s="7"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="C320" s="6"/>
+      <c r="C320" s="7"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="C321" s="6"/>
+      <c r="C321" s="7"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="C322" s="6"/>
+      <c r="C322" s="7"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="C323" s="6"/>
+      <c r="C323" s="7"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="C324" s="6"/>
+      <c r="C324" s="7"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="C325" s="6"/>
+      <c r="C325" s="7"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="C326" s="6"/>
+      <c r="C326" s="7"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="C327" s="6"/>
+      <c r="C327" s="7"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="C328" s="6"/>
+      <c r="C328" s="7"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="C329" s="6"/>
+      <c r="C329" s="7"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="C330" s="6"/>
+      <c r="C330" s="7"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="C331" s="6"/>
+      <c r="C331" s="7"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="C332" s="6"/>
+      <c r="C332" s="7"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="C333" s="6"/>
+      <c r="C333" s="7"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="C334" s="6"/>
+      <c r="C334" s="7"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="C335" s="6"/>
+      <c r="C335" s="7"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="C336" s="6"/>
+      <c r="C336" s="7"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="C337" s="6"/>
+      <c r="C337" s="7"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="C338" s="6"/>
+      <c r="C338" s="7"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="C339" s="6"/>
+      <c r="C339" s="7"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="C340" s="6"/>
+      <c r="C340" s="7"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="C341" s="6"/>
+      <c r="C341" s="7"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="C342" s="6"/>
+      <c r="C342" s="7"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="C343" s="6"/>
+      <c r="C343" s="7"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="C344" s="6"/>
+      <c r="C344" s="7"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="C345" s="6"/>
+      <c r="C345" s="7"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="C346" s="6"/>
+      <c r="C346" s="7"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="C347" s="6"/>
+      <c r="C347" s="7"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="C348" s="6"/>
+      <c r="C348" s="7"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="C349" s="6"/>
+      <c r="C349" s="7"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="C350" s="6"/>
+      <c r="C350" s="7"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="C351" s="6"/>
+      <c r="C351" s="7"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="C352" s="6"/>
+      <c r="C352" s="7"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="C353" s="6"/>
+      <c r="C353" s="7"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="C354" s="6"/>
+      <c r="C354" s="7"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="C355" s="6"/>
+      <c r="C355" s="7"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="C356" s="6"/>
+      <c r="C356" s="7"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="C357" s="6"/>
+      <c r="C357" s="7"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="C358" s="6"/>
+      <c r="C358" s="7"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="C359" s="6"/>
+      <c r="C359" s="7"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="C360" s="6"/>
+      <c r="C360" s="7"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="C361" s="6"/>
+      <c r="C361" s="7"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="C362" s="6"/>
+      <c r="C362" s="7"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="C363" s="6"/>
+      <c r="C363" s="7"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="C364" s="6"/>
+      <c r="C364" s="7"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="C365" s="6"/>
+      <c r="C365" s="7"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="C366" s="6"/>
+      <c r="C366" s="7"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="C367" s="6"/>
+      <c r="C367" s="7"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="C368" s="6"/>
+      <c r="C368" s="7"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="C369" s="6"/>
+      <c r="C369" s="7"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="C370" s="6"/>
+      <c r="C370" s="7"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="C371" s="6"/>
+      <c r="C371" s="7"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="C372" s="6"/>
+      <c r="C372" s="7"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="C373" s="6"/>
+      <c r="C373" s="7"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="C374" s="6"/>
+      <c r="C374" s="7"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="C375" s="6"/>
+      <c r="C375" s="7"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="C376" s="6"/>
+      <c r="C376" s="7"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="C377" s="6"/>
+      <c r="C377" s="7"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="C378" s="6"/>
+      <c r="C378" s="7"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="C379" s="6"/>
+      <c r="C379" s="7"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="C380" s="6"/>
+      <c r="C380" s="7"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="C381" s="6"/>
+      <c r="C381" s="7"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="C382" s="6"/>
+      <c r="C382" s="7"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="C383" s="6"/>
+      <c r="C383" s="7"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="C384" s="6"/>
+      <c r="C384" s="7"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="C385" s="6"/>
+      <c r="C385" s="7"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="C386" s="6"/>
+      <c r="C386" s="7"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="C387" s="6"/>
+      <c r="C387" s="7"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="C388" s="6"/>
+      <c r="C388" s="7"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="C389" s="6"/>
+      <c r="C389" s="7"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="C390" s="6"/>
+      <c r="C390" s="7"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="C391" s="6"/>
+      <c r="C391" s="7"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="C392" s="6"/>
+      <c r="C392" s="7"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="C393" s="6"/>
+      <c r="C393" s="7"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="C394" s="6"/>
+      <c r="C394" s="7"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="C395" s="6"/>
+      <c r="C395" s="7"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="C396" s="6"/>
+      <c r="C396" s="7"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="C397" s="6"/>
+      <c r="C397" s="7"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="C398" s="6"/>
+      <c r="C398" s="7"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="C399" s="6"/>
+      <c r="C399" s="7"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="C400" s="6"/>
+      <c r="C400" s="7"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="C401" s="6"/>
+      <c r="C401" s="7"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="C402" s="6"/>
+      <c r="C402" s="7"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="C403" s="6"/>
+      <c r="C403" s="7"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="C404" s="6"/>
+      <c r="C404" s="7"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="C405" s="6"/>
+      <c r="C405" s="7"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="C406" s="6"/>
+      <c r="C406" s="7"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="C407" s="6"/>
+      <c r="C407" s="7"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="C408" s="6"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="C409" s="6"/>
+      <c r="C409" s="7"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="C410" s="6"/>
+      <c r="C410" s="7"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="C411" s="6"/>
+      <c r="C411" s="7"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="C412" s="6"/>
+      <c r="C412" s="7"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="C413" s="6"/>
+      <c r="C413" s="7"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="C414" s="6"/>
+      <c r="C414" s="7"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="C415" s="6"/>
+      <c r="C415" s="7"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="C416" s="6"/>
+      <c r="C416" s="7"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="C417" s="6"/>
+      <c r="C417" s="7"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="C418" s="6"/>
+      <c r="C418" s="7"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="C419" s="6"/>
+      <c r="C419" s="7"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="C420" s="6"/>
+      <c r="C420" s="7"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="C421" s="6"/>
+      <c r="C421" s="7"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="C422" s="6"/>
+      <c r="C422" s="7"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="C423" s="6"/>
+      <c r="C423" s="7"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="C424" s="6"/>
+      <c r="C424" s="7"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="C425" s="6"/>
+      <c r="C425" s="7"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="C426" s="6"/>
+      <c r="C426" s="7"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="C427" s="6"/>
+      <c r="C427" s="7"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="C428" s="6"/>
+      <c r="C428" s="7"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="C429" s="6"/>
+      <c r="C429" s="7"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="C430" s="6"/>
+      <c r="C430" s="7"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="C431" s="6"/>
+      <c r="C431" s="7"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="C432" s="6"/>
+      <c r="C432" s="7"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="C433" s="6"/>
+      <c r="C433" s="7"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="C434" s="6"/>
+      <c r="C434" s="7"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="C435" s="6"/>
+      <c r="C435" s="7"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="C436" s="6"/>
+      <c r="C436" s="7"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="C437" s="6"/>
+      <c r="C437" s="7"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="C438" s="6"/>
+      <c r="C438" s="7"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="C439" s="6"/>
+      <c r="C439" s="7"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="C440" s="6"/>
+      <c r="C440" s="7"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="C441" s="6"/>
+      <c r="C441" s="7"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="C442" s="6"/>
+      <c r="C442" s="7"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="C443" s="6"/>
+      <c r="C443" s="7"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="C444" s="6"/>
+      <c r="C444" s="7"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="C445" s="6"/>
+      <c r="C445" s="7"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="C446" s="6"/>
+      <c r="C446" s="7"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="C447" s="6"/>
+      <c r="C447" s="7"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="C448" s="6"/>
+      <c r="C448" s="7"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="C449" s="6"/>
+      <c r="C449" s="7"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="C450" s="6"/>
+      <c r="C450" s="7"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="C451" s="6"/>
+      <c r="C451" s="7"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="C452" s="6"/>
+      <c r="C452" s="7"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="C453" s="6"/>
+      <c r="C453" s="7"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="C454" s="6"/>
+      <c r="C454" s="7"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="C455" s="6"/>
+      <c r="C455" s="7"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="C456" s="6"/>
+      <c r="C456" s="7"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="C457" s="6"/>
+      <c r="C457" s="7"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="C458" s="6"/>
+      <c r="C458" s="7"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="C459" s="6"/>
+      <c r="C459" s="7"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="C460" s="6"/>
+      <c r="C460" s="7"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="C461" s="6"/>
+      <c r="C461" s="7"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="C462" s="6"/>
+      <c r="C462" s="7"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="C463" s="6"/>
+      <c r="C463" s="7"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="C464" s="6"/>
+      <c r="C464" s="7"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="C465" s="6"/>
+      <c r="C465" s="7"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="C466" s="6"/>
+      <c r="C466" s="7"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="C467" s="6"/>
+      <c r="C467" s="7"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="C468" s="6"/>
+      <c r="C468" s="7"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="C469" s="6"/>
+      <c r="C469" s="7"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="C470" s="6"/>
+      <c r="C470" s="7"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="C471" s="6"/>
+      <c r="C471" s="7"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="C472" s="6"/>
+      <c r="C472" s="7"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="C473" s="6"/>
+      <c r="C473" s="7"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="C474" s="6"/>
+      <c r="C474" s="7"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="C475" s="6"/>
+      <c r="C475" s="7"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="C476" s="6"/>
+      <c r="C476" s="7"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="C477" s="6"/>
+      <c r="C477" s="7"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="C478" s="6"/>
+      <c r="C478" s="7"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="C479" s="6"/>
+      <c r="C479" s="7"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="C480" s="6"/>
+      <c r="C480" s="7"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="C481" s="6"/>
+      <c r="C481" s="7"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="C482" s="6"/>
+      <c r="C482" s="7"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="C483" s="6"/>
+      <c r="C483" s="7"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="C484" s="6"/>
+      <c r="C484" s="7"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="C485" s="6"/>
+      <c r="C485" s="7"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="C486" s="6"/>
+      <c r="C486" s="7"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="C487" s="6"/>
+      <c r="C487" s="7"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="C488" s="6"/>
+      <c r="C488" s="7"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="C489" s="6"/>
+      <c r="C489" s="7"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="C490" s="6"/>
+      <c r="C490" s="7"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="C491" s="6"/>
+      <c r="C491" s="7"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="C492" s="6"/>
+      <c r="C492" s="7"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="C493" s="6"/>
+      <c r="C493" s="7"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="C494" s="6"/>
+      <c r="C494" s="7"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="C495" s="6"/>
+      <c r="C495" s="7"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="C496" s="6"/>
+      <c r="C496" s="7"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="C497" s="6"/>
+      <c r="C497" s="7"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="C498" s="6"/>
+      <c r="C498" s="7"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="C499" s="6"/>
+      <c r="C499" s="7"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="C500" s="6"/>
+      <c r="C500" s="7"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="C501" s="6"/>
+      <c r="C501" s="7"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="C502" s="6"/>
+      <c r="C502" s="7"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="C503" s="6"/>
+      <c r="C503" s="7"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="C504" s="6"/>
+      <c r="C504" s="7"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="C505" s="6"/>
+      <c r="C505" s="7"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="C506" s="6"/>
+      <c r="C506" s="7"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="C507" s="6"/>
+      <c r="C507" s="7"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="C508" s="6"/>
+      <c r="C508" s="7"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="C509" s="6"/>
+      <c r="C509" s="7"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="C510" s="6"/>
+      <c r="C510" s="7"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="C511" s="6"/>
+      <c r="C511" s="7"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="C512" s="6"/>
+      <c r="C512" s="7"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="C513" s="6"/>
+      <c r="C513" s="7"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="C514" s="6"/>
+      <c r="C514" s="7"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="C515" s="6"/>
+      <c r="C515" s="7"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="C516" s="6"/>
+      <c r="C516" s="7"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="C517" s="6"/>
+      <c r="C517" s="7"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="C518" s="6"/>
+      <c r="C518" s="7"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="C519" s="6"/>
+      <c r="C519" s="7"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="C520" s="6"/>
+      <c r="C520" s="7"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="C521" s="6"/>
+      <c r="C521" s="7"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="C522" s="6"/>
+      <c r="C522" s="7"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="C523" s="6"/>
+      <c r="C523" s="7"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="C524" s="6"/>
+      <c r="C524" s="7"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="C525" s="6"/>
+      <c r="C525" s="7"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="C526" s="6"/>
+      <c r="C526" s="7"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="C527" s="6"/>
+      <c r="C527" s="7"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="C528" s="6"/>
+      <c r="C528" s="7"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="C529" s="6"/>
+      <c r="C529" s="7"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="C530" s="6"/>
+      <c r="C530" s="7"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="C531" s="6"/>
+      <c r="C531" s="7"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="C532" s="6"/>
+      <c r="C532" s="7"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="C533" s="6"/>
+      <c r="C533" s="7"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="C534" s="6"/>
+      <c r="C534" s="7"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="C535" s="6"/>
+      <c r="C535" s="7"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="C536" s="6"/>
+      <c r="C536" s="7"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="C537" s="6"/>
+      <c r="C537" s="7"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="C538" s="6"/>
+      <c r="C538" s="7"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="C539" s="6"/>
+      <c r="C539" s="7"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="C540" s="6"/>
+      <c r="C540" s="7"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="C541" s="6"/>
+      <c r="C541" s="7"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="C542" s="6"/>
+      <c r="C542" s="7"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="C543" s="6"/>
+      <c r="C543" s="7"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="C544" s="6"/>
+      <c r="C544" s="7"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="C545" s="6"/>
+      <c r="C545" s="7"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="C546" s="6"/>
+      <c r="C546" s="7"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="C547" s="6"/>
+      <c r="C547" s="7"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="C548" s="6"/>
+      <c r="C548" s="7"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="C549" s="6"/>
+      <c r="C549" s="7"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="C550" s="6"/>
+      <c r="C550" s="7"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="C551" s="6"/>
+      <c r="C551" s="7"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="C552" s="6"/>
+      <c r="C552" s="7"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="C553" s="6"/>
+      <c r="C553" s="7"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="C554" s="6"/>
+      <c r="C554" s="7"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="C555" s="6"/>
+      <c r="C555" s="7"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="C556" s="6"/>
+      <c r="C556" s="7"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="C557" s="6"/>
+      <c r="C557" s="7"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="C558" s="6"/>
+      <c r="C558" s="7"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="C559" s="6"/>
+      <c r="C559" s="7"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="C560" s="6"/>
+      <c r="C560" s="7"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="C561" s="6"/>
+      <c r="C561" s="7"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="C562" s="6"/>
+      <c r="C562" s="7"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="C563" s="6"/>
+      <c r="C563" s="7"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="C564" s="6"/>
+      <c r="C564" s="7"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="C565" s="6"/>
+      <c r="C565" s="7"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="C566" s="6"/>
+      <c r="C566" s="7"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="C567" s="6"/>
+      <c r="C567" s="7"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="C568" s="6"/>
+      <c r="C568" s="7"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="C569" s="6"/>
+      <c r="C569" s="7"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="C570" s="6"/>
+      <c r="C570" s="7"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="C571" s="6"/>
+      <c r="C571" s="7"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="C572" s="6"/>
+      <c r="C572" s="7"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="C573" s="6"/>
+      <c r="C573" s="7"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="C574" s="6"/>
+      <c r="C574" s="7"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="C575" s="6"/>
+      <c r="C575" s="7"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="C576" s="6"/>
+      <c r="C576" s="7"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="C577" s="6"/>
+      <c r="C577" s="7"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="C578" s="6"/>
+      <c r="C578" s="7"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="C579" s="6"/>
+      <c r="C579" s="7"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="C580" s="6"/>
+      <c r="C580" s="7"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="C581" s="6"/>
+      <c r="C581" s="7"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="C582" s="6"/>
+      <c r="C582" s="7"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="C583" s="6"/>
+      <c r="C583" s="7"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="C584" s="6"/>
+      <c r="C584" s="7"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="C585" s="6"/>
+      <c r="C585" s="7"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="C586" s="6"/>
+      <c r="C586" s="7"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="C587" s="6"/>
+      <c r="C587" s="7"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="C588" s="6"/>
+      <c r="C588" s="7"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="C589" s="6"/>
+      <c r="C589" s="7"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="C590" s="6"/>
+      <c r="C590" s="7"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="C591" s="6"/>
+      <c r="C591" s="7"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="C592" s="6"/>
+      <c r="C592" s="7"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="C593" s="6"/>
+      <c r="C593" s="7"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="C594" s="6"/>
+      <c r="C594" s="7"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="C595" s="6"/>
+      <c r="C595" s="7"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="C596" s="6"/>
+      <c r="C596" s="7"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="C597" s="6"/>
+      <c r="C597" s="7"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="C598" s="6"/>
+      <c r="C598" s="7"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="C599" s="6"/>
+      <c r="C599" s="7"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="C600" s="6"/>
+      <c r="C600" s="7"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="C601" s="6"/>
+      <c r="C601" s="7"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="C602" s="6"/>
+      <c r="C602" s="7"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="C603" s="6"/>
+      <c r="C603" s="7"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="C604" s="6"/>
+      <c r="C604" s="7"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="C605" s="6"/>
+      <c r="C605" s="7"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="C606" s="6"/>
+      <c r="C606" s="7"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="C607" s="6"/>
+      <c r="C607" s="7"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="C608" s="6"/>
+      <c r="C608" s="7"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="C609" s="6"/>
+      <c r="C609" s="7"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="C610" s="6"/>
+      <c r="C610" s="7"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="C611" s="6"/>
+      <c r="C611" s="7"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="C612" s="6"/>
+      <c r="C612" s="7"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="C613" s="6"/>
+      <c r="C613" s="7"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="C614" s="6"/>
+      <c r="C614" s="7"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="C615" s="6"/>
+      <c r="C615" s="7"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="C616" s="6"/>
+      <c r="C616" s="7"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="C617" s="6"/>
+      <c r="C617" s="7"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="C618" s="6"/>
+      <c r="C618" s="7"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="C619" s="6"/>
+      <c r="C619" s="7"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="C620" s="6"/>
+      <c r="C620" s="7"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="C621" s="6"/>
+      <c r="C621" s="7"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="C622" s="6"/>
+      <c r="C622" s="7"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="C623" s="6"/>
+      <c r="C623" s="7"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="C624" s="6"/>
+      <c r="C624" s="7"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="C625" s="6"/>
+      <c r="C625" s="7"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="C626" s="6"/>
+      <c r="C626" s="7"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="C627" s="6"/>
+      <c r="C627" s="7"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="C628" s="6"/>
+      <c r="C628" s="7"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="C629" s="6"/>
+      <c r="C629" s="7"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="C630" s="6"/>
+      <c r="C630" s="7"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="C631" s="6"/>
+      <c r="C631" s="7"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="C632" s="6"/>
+      <c r="C632" s="7"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="C633" s="6"/>
+      <c r="C633" s="7"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="C634" s="6"/>
+      <c r="C634" s="7"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="C635" s="6"/>
+      <c r="C635" s="7"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="C636" s="6"/>
+      <c r="C636" s="7"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="C637" s="6"/>
+      <c r="C637" s="7"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="C638" s="6"/>
+      <c r="C638" s="7"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="C639" s="6"/>
+      <c r="C639" s="7"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="C640" s="6"/>
+      <c r="C640" s="7"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="C641" s="6"/>
+      <c r="C641" s="7"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="C642" s="6"/>
+      <c r="C642" s="7"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="C643" s="6"/>
+      <c r="C643" s="7"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="C644" s="6"/>
+      <c r="C644" s="7"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="C645" s="6"/>
+      <c r="C645" s="7"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="C646" s="6"/>
+      <c r="C646" s="7"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="C647" s="6"/>
+      <c r="C647" s="7"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="C648" s="6"/>
+      <c r="C648" s="7"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="C649" s="6"/>
+      <c r="C649" s="7"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="C650" s="6"/>
+      <c r="C650" s="7"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="C651" s="6"/>
+      <c r="C651" s="7"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="C652" s="6"/>
+      <c r="C652" s="7"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="C653" s="6"/>
+      <c r="C653" s="7"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="C654" s="6"/>
+      <c r="C654" s="7"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="C655" s="6"/>
+      <c r="C655" s="7"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="C656" s="6"/>
+      <c r="C656" s="7"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="C657" s="6"/>
+      <c r="C657" s="7"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="C658" s="6"/>
+      <c r="C658" s="7"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="C659" s="6"/>
+      <c r="C659" s="7"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="C660" s="6"/>
+      <c r="C660" s="7"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="C661" s="6"/>
+      <c r="C661" s="7"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="C662" s="6"/>
+      <c r="C662" s="7"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="C663" s="6"/>
+      <c r="C663" s="7"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="C664" s="6"/>
+      <c r="C664" s="7"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="C665" s="6"/>
+      <c r="C665" s="7"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="C666" s="6"/>
+      <c r="C666" s="7"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="C667" s="6"/>
+      <c r="C667" s="7"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="C668" s="6"/>
+      <c r="C668" s="7"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="C669" s="6"/>
+      <c r="C669" s="7"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="C670" s="6"/>
+      <c r="C670" s="7"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="C671" s="6"/>
+      <c r="C671" s="7"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="C672" s="6"/>
+      <c r="C672" s="7"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="C673" s="6"/>
+      <c r="C673" s="7"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="C674" s="6"/>
+      <c r="C674" s="7"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="C675" s="6"/>
+      <c r="C675" s="7"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="C676" s="6"/>
+      <c r="C676" s="7"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="C677" s="6"/>
+      <c r="C677" s="7"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="C678" s="6"/>
+      <c r="C678" s="7"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="C679" s="6"/>
+      <c r="C679" s="7"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="C680" s="6"/>
+      <c r="C680" s="7"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="C681" s="6"/>
+      <c r="C681" s="7"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="C682" s="6"/>
+      <c r="C682" s="7"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="C683" s="6"/>
+      <c r="C683" s="7"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="C684" s="6"/>
+      <c r="C684" s="7"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="C685" s="6"/>
+      <c r="C685" s="7"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="C686" s="6"/>
+      <c r="C686" s="7"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="C687" s="6"/>
+      <c r="C687" s="7"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="C688" s="6"/>
+      <c r="C688" s="7"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="C689" s="6"/>
+      <c r="C689" s="7"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="C690" s="6"/>
+      <c r="C690" s="7"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="C691" s="6"/>
+      <c r="C691" s="7"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="C692" s="6"/>
+      <c r="C692" s="7"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="C693" s="6"/>
+      <c r="C693" s="7"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="C694" s="6"/>
+      <c r="C694" s="7"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="C695" s="6"/>
+      <c r="C695" s="7"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="C696" s="6"/>
+      <c r="C696" s="7"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="C697" s="6"/>
+      <c r="C697" s="7"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="C698" s="6"/>
+      <c r="C698" s="7"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="C699" s="6"/>
+      <c r="C699" s="7"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="C700" s="6"/>
+      <c r="C700" s="7"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="C701" s="6"/>
+      <c r="C701" s="7"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="C702" s="6"/>
+      <c r="C702" s="7"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="C703" s="6"/>
+      <c r="C703" s="7"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="C704" s="6"/>
+      <c r="C704" s="7"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="C705" s="6"/>
+      <c r="C705" s="7"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="C706" s="6"/>
+      <c r="C706" s="7"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="C707" s="6"/>
+      <c r="C707" s="7"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="C708" s="6"/>
+      <c r="C708" s="7"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="C709" s="6"/>
+      <c r="C709" s="7"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="C710" s="6"/>
+      <c r="C710" s="7"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="C711" s="6"/>
+      <c r="C711" s="7"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="C712" s="6"/>
+      <c r="C712" s="7"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="C713" s="6"/>
+      <c r="C713" s="7"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="C714" s="6"/>
+      <c r="C714" s="7"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="C715" s="6"/>
+      <c r="C715" s="7"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="C716" s="6"/>
+      <c r="C716" s="7"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="C717" s="6"/>
+      <c r="C717" s="7"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="C718" s="6"/>
+      <c r="C718" s="7"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="C719" s="6"/>
+      <c r="C719" s="7"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="C720" s="6"/>
+      <c r="C720" s="7"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="C721" s="6"/>
+      <c r="C721" s="7"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="C722" s="6"/>
+      <c r="C722" s="7"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="C723" s="6"/>
+      <c r="C723" s="7"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="C724" s="6"/>
+      <c r="C724" s="7"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="C725" s="6"/>
+      <c r="C725" s="7"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="C726" s="6"/>
+      <c r="C726" s="7"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="C727" s="6"/>
+      <c r="C727" s="7"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="C728" s="6"/>
+      <c r="C728" s="7"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="C729" s="6"/>
+      <c r="C729" s="7"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="C730" s="6"/>
+      <c r="C730" s="7"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="C731" s="6"/>
+      <c r="C731" s="7"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="C732" s="6"/>
+      <c r="C732" s="7"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="C733" s="6"/>
+      <c r="C733" s="7"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="C734" s="6"/>
+      <c r="C734" s="7"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="C735" s="6"/>
+      <c r="C735" s="7"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="C736" s="6"/>
+      <c r="C736" s="7"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="C737" s="6"/>
+      <c r="C737" s="7"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="C738" s="6"/>
+      <c r="C738" s="7"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="C739" s="6"/>
+      <c r="C739" s="7"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="C740" s="6"/>
+      <c r="C740" s="7"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="C741" s="6"/>
+      <c r="C741" s="7"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="C742" s="6"/>
+      <c r="C742" s="7"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="C743" s="6"/>
+      <c r="C743" s="7"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="C744" s="6"/>
+      <c r="C744" s="7"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="C745" s="6"/>
+      <c r="C745" s="7"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="C746" s="6"/>
+      <c r="C746" s="7"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="C747" s="6"/>
+      <c r="C747" s="7"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="C748" s="6"/>
+      <c r="C748" s="7"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="C749" s="6"/>
+      <c r="C749" s="7"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="C750" s="6"/>
+      <c r="C750" s="7"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="C751" s="6"/>
+      <c r="C751" s="7"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="C752" s="6"/>
+      <c r="C752" s="7"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="C753" s="6"/>
+      <c r="C753" s="7"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="C754" s="6"/>
+      <c r="C754" s="7"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="C755" s="6"/>
+      <c r="C755" s="7"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="C756" s="6"/>
+      <c r="C756" s="7"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="C757" s="6"/>
+      <c r="C757" s="7"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="C758" s="6"/>
+      <c r="C758" s="7"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="C759" s="6"/>
+      <c r="C759" s="7"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="C760" s="6"/>
+      <c r="C760" s="7"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="C761" s="6"/>
+      <c r="C761" s="7"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="C762" s="6"/>
+      <c r="C762" s="7"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="C763" s="6"/>
+      <c r="C763" s="7"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="C764" s="6"/>
+      <c r="C764" s="7"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="C765" s="6"/>
+      <c r="C765" s="7"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="C766" s="6"/>
+      <c r="C766" s="7"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="C767" s="6"/>
+      <c r="C767" s="7"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="C768" s="6"/>
+      <c r="C768" s="7"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="C769" s="6"/>
+      <c r="C769" s="7"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="C770" s="6"/>
+      <c r="C770" s="7"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="C771" s="6"/>
+      <c r="C771" s="7"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="C772" s="6"/>
+      <c r="C772" s="7"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="C773" s="6"/>
+      <c r="C773" s="7"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="C774" s="6"/>
+      <c r="C774" s="7"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="C775" s="6"/>
+      <c r="C775" s="7"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="C776" s="6"/>
+      <c r="C776" s="7"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="C777" s="6"/>
+      <c r="C777" s="7"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="C778" s="6"/>
+      <c r="C778" s="7"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="C779" s="6"/>
+      <c r="C779" s="7"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="C780" s="6"/>
+      <c r="C780" s="7"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="C781" s="6"/>
+      <c r="C781" s="7"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="C782" s="6"/>
+      <c r="C782" s="7"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="C783" s="6"/>
+      <c r="C783" s="7"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="C784" s="6"/>
+      <c r="C784" s="7"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="C785" s="6"/>
+      <c r="C785" s="7"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="C786" s="6"/>
+      <c r="C786" s="7"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="C787" s="6"/>
+      <c r="C787" s="7"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="C788" s="6"/>
+      <c r="C788" s="7"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="C789" s="6"/>
+      <c r="C789" s="7"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="C790" s="6"/>
+      <c r="C790" s="7"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="C791" s="6"/>
+      <c r="C791" s="7"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="C792" s="6"/>
+      <c r="C792" s="7"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="C793" s="6"/>
+      <c r="C793" s="7"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="C794" s="6"/>
+      <c r="C794" s="7"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="C795" s="6"/>
+      <c r="C795" s="7"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="C796" s="6"/>
+      <c r="C796" s="7"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="C797" s="6"/>
+      <c r="C797" s="7"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="C798" s="6"/>
+      <c r="C798" s="7"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="C799" s="6"/>
+      <c r="C799" s="7"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="C800" s="6"/>
+      <c r="C800" s="7"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="C801" s="6"/>
+      <c r="C801" s="7"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="C802" s="6"/>
+      <c r="C802" s="7"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="C803" s="6"/>
+      <c r="C803" s="7"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="C804" s="6"/>
+      <c r="C804" s="7"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="C805" s="6"/>
+      <c r="C805" s="7"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="C806" s="6"/>
+      <c r="C806" s="7"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="C807" s="6"/>
+      <c r="C807" s="7"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="C808" s="6"/>
+      <c r="C808" s="7"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="C809" s="6"/>
+      <c r="C809" s="7"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="C810" s="6"/>
+      <c r="C810" s="7"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="C811" s="6"/>
+      <c r="C811" s="7"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="C812" s="6"/>
+      <c r="C812" s="7"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="C813" s="6"/>
+      <c r="C813" s="7"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="C814" s="6"/>
+      <c r="C814" s="7"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="C815" s="6"/>
+      <c r="C815" s="7"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="C816" s="6"/>
+      <c r="C816" s="7"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="C817" s="6"/>
+      <c r="C817" s="7"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="C818" s="6"/>
+      <c r="C818" s="7"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="C819" s="6"/>
+      <c r="C819" s="7"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="C820" s="6"/>
+      <c r="C820" s="7"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="C821" s="6"/>
+      <c r="C821" s="7"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="C822" s="6"/>
+      <c r="C822" s="7"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="C823" s="6"/>
+      <c r="C823" s="7"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="C824" s="6"/>
+      <c r="C824" s="7"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="C825" s="6"/>
+      <c r="C825" s="7"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="C826" s="6"/>
+      <c r="C826" s="7"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="C827" s="6"/>
+      <c r="C827" s="7"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="C828" s="6"/>
+      <c r="C828" s="7"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="C829" s="6"/>
+      <c r="C829" s="7"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="C830" s="6"/>
+      <c r="C830" s="7"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="C831" s="6"/>
+      <c r="C831" s="7"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="C832" s="6"/>
+      <c r="C832" s="7"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="C833" s="6"/>
+      <c r="C833" s="7"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="C834" s="6"/>
+      <c r="C834" s="7"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="C835" s="6"/>
+      <c r="C835" s="7"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="C836" s="6"/>
+      <c r="C836" s="7"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="C837" s="6"/>
+      <c r="C837" s="7"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="C838" s="6"/>
+      <c r="C838" s="7"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="C839" s="6"/>
+      <c r="C839" s="7"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="C840" s="6"/>
+      <c r="C840" s="7"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="C841" s="6"/>
+      <c r="C841" s="7"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="C842" s="6"/>
+      <c r="C842" s="7"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="C843" s="6"/>
+      <c r="C843" s="7"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="C844" s="6"/>
+      <c r="C844" s="7"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="C845" s="6"/>
+      <c r="C845" s="7"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="C846" s="6"/>
+      <c r="C846" s="7"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="C847" s="6"/>
+      <c r="C847" s="7"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="C848" s="6"/>
+      <c r="C848" s="7"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="C849" s="6"/>
+      <c r="C849" s="7"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="C850" s="6"/>
+      <c r="C850" s="7"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="C851" s="6"/>
+      <c r="C851" s="7"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="C852" s="6"/>
+      <c r="C852" s="7"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="C853" s="6"/>
+      <c r="C853" s="7"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="C854" s="6"/>
+      <c r="C854" s="7"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="C855" s="6"/>
+      <c r="C855" s="7"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="C856" s="6"/>
+      <c r="C856" s="7"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="C857" s="6"/>
+      <c r="C857" s="7"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="C858" s="6"/>
+      <c r="C858" s="7"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="C859" s="6"/>
+      <c r="C859" s="7"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="C860" s="6"/>
+      <c r="C860" s="7"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="C861" s="6"/>
+      <c r="C861" s="7"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="C862" s="6"/>
+      <c r="C862" s="7"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="C863" s="6"/>
+      <c r="C863" s="7"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="C864" s="6"/>
+      <c r="C864" s="7"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="C865" s="6"/>
+      <c r="C865" s="7"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="C866" s="6"/>
+      <c r="C866" s="7"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="C867" s="6"/>
+      <c r="C867" s="7"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="C868" s="6"/>
+      <c r="C868" s="7"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="C869" s="6"/>
+      <c r="C869" s="7"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="C870" s="6"/>
+      <c r="C870" s="7"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="C871" s="6"/>
+      <c r="C871" s="7"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="C872" s="6"/>
+      <c r="C872" s="7"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="C873" s="6"/>
+      <c r="C873" s="7"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="C874" s="6"/>
+      <c r="C874" s="7"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="C875" s="6"/>
+      <c r="C875" s="7"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="C876" s="6"/>
+      <c r="C876" s="7"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="C877" s="6"/>
+      <c r="C877" s="7"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="C878" s="6"/>
+      <c r="C878" s="7"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="C879" s="6"/>
+      <c r="C879" s="7"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="C880" s="6"/>
+      <c r="C880" s="7"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="C881" s="6"/>
+      <c r="C881" s="7"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="C882" s="6"/>
+      <c r="C882" s="7"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="C883" s="6"/>
+      <c r="C883" s="7"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="C884" s="6"/>
+      <c r="C884" s="7"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="C885" s="6"/>
+      <c r="C885" s="7"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="C886" s="6"/>
+      <c r="C886" s="7"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="C887" s="6"/>
+      <c r="C887" s="7"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="C888" s="6"/>
+      <c r="C888" s="7"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="C889" s="6"/>
+      <c r="C889" s="7"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="C890" s="6"/>
+      <c r="C890" s="7"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="C891" s="6"/>
+      <c r="C891" s="7"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="C892" s="6"/>
+      <c r="C892" s="7"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="C893" s="6"/>
+      <c r="C893" s="7"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="C894" s="6"/>
+      <c r="C894" s="7"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="C895" s="6"/>
+      <c r="C895" s="7"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="C896" s="6"/>
+      <c r="C896" s="7"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="C897" s="6"/>
+      <c r="C897" s="7"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="C898" s="6"/>
+      <c r="C898" s="7"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="C899" s="6"/>
+      <c r="C899" s="7"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="C900" s="6"/>
+      <c r="C900" s="7"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="C901" s="6"/>
+      <c r="C901" s="7"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="C902" s="6"/>
+      <c r="C902" s="7"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="C903" s="6"/>
+      <c r="C903" s="7"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="C904" s="6"/>
+      <c r="C904" s="7"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="C905" s="6"/>
+      <c r="C905" s="7"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="C906" s="6"/>
+      <c r="C906" s="7"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="C907" s="6"/>
+      <c r="C907" s="7"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="C908" s="6"/>
+      <c r="C908" s="7"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="C909" s="6"/>
+      <c r="C909" s="7"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="C910" s="6"/>
+      <c r="C910" s="7"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="C911" s="6"/>
+      <c r="C911" s="7"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="C912" s="6"/>
+      <c r="C912" s="7"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="C913" s="6"/>
+      <c r="C913" s="7"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="C914" s="6"/>
+      <c r="C914" s="7"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="C915" s="6"/>
+      <c r="C915" s="7"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="C916" s="6"/>
+      <c r="C916" s="7"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="C917" s="6"/>
+      <c r="C917" s="7"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="C918" s="6"/>
+      <c r="C918" s="7"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="C919" s="6"/>
+      <c r="C919" s="7"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="C920" s="6"/>
+      <c r="C920" s="7"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="C921" s="6"/>
+      <c r="C921" s="7"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="C922" s="6"/>
+      <c r="C922" s="7"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="C923" s="6"/>
+      <c r="C923" s="7"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="C924" s="6"/>
+      <c r="C924" s="7"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="C925" s="6"/>
+      <c r="C925" s="7"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="C926" s="6"/>
+      <c r="C926" s="7"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="C927" s="6"/>
+      <c r="C927" s="7"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="C928" s="6"/>
+      <c r="C928" s="7"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="C929" s="6"/>
+      <c r="C929" s="7"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="C930" s="6"/>
+      <c r="C930" s="7"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="C931" s="6"/>
+      <c r="C931" s="7"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="C932" s="6"/>
+      <c r="C932" s="7"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="C933" s="6"/>
+      <c r="C933" s="7"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="C934" s="6"/>
+      <c r="C934" s="7"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="C935" s="6"/>
+      <c r="C935" s="7"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="C936" s="6"/>
+      <c r="C936" s="7"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="C937" s="6"/>
+      <c r="C937" s="7"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="C938" s="6"/>
+      <c r="C938" s="7"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="C939" s="6"/>
+      <c r="C939" s="7"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="C940" s="6"/>
+      <c r="C940" s="7"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="C941" s="6"/>
+      <c r="C941" s="7"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="C942" s="6"/>
+      <c r="C942" s="7"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="C943" s="6"/>
+      <c r="C943" s="7"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="C944" s="6"/>
+      <c r="C944" s="7"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="C945" s="6"/>
+      <c r="C945" s="7"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="C946" s="6"/>
+      <c r="C946" s="7"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="C947" s="6"/>
+      <c r="C947" s="7"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="C948" s="6"/>
+      <c r="C948" s="7"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="C949" s="6"/>
+      <c r="C949" s="7"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="C950" s="6"/>
+      <c r="C950" s="7"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="C951" s="6"/>
+      <c r="C951" s="7"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="C952" s="6"/>
+      <c r="C952" s="7"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="C953" s="6"/>
+      <c r="C953" s="7"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="C954" s="6"/>
+      <c r="C954" s="7"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="C955" s="6"/>
+      <c r="C955" s="7"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="C956" s="6"/>
+      <c r="C956" s="7"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="C957" s="6"/>
+      <c r="C957" s="7"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="C958" s="6"/>
+      <c r="C958" s="7"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="C959" s="6"/>
+      <c r="C959" s="7"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="C960" s="6"/>
+      <c r="C960" s="7"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="C961" s="6"/>
+      <c r="C961" s="7"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="C962" s="6"/>
+      <c r="C962" s="7"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="C963" s="6"/>
+      <c r="C963" s="7"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="C964" s="6"/>
+      <c r="C964" s="7"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="C965" s="6"/>
+      <c r="C965" s="7"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="C966" s="6"/>
+      <c r="C966" s="7"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="C967" s="6"/>
+      <c r="C967" s="7"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="C968" s="6"/>
+      <c r="C968" s="7"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="C969" s="6"/>
+      <c r="C969" s="7"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="C970" s="6"/>
+      <c r="C970" s="7"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="C971" s="6"/>
+      <c r="C971" s="7"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="C972" s="6"/>
+      <c r="C972" s="7"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="C973" s="6"/>
+      <c r="C973" s="7"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="C974" s="6"/>
+      <c r="C974" s="7"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="C975" s="6"/>
+      <c r="C975" s="7"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="C976" s="6"/>
+      <c r="C976" s="7"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="C977" s="6"/>
+      <c r="C977" s="7"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="C978" s="6"/>
+      <c r="C978" s="7"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="C979" s="6"/>
+      <c r="C979" s="7"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="C980" s="6"/>
+      <c r="C980" s="7"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="C981" s="6"/>
+      <c r="C981" s="7"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="C982" s="6"/>
+      <c r="C982" s="7"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="C983" s="6"/>
+      <c r="C983" s="7"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="C984" s="6"/>
+      <c r="C984" s="7"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
-      <c r="C985" s="6"/>
+      <c r="C985" s="7"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="C986" s="6"/>
+      <c r="C986" s="7"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="C987" s="6"/>
+      <c r="C987" s="7"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
-      <c r="C988" s="6"/>
+      <c r="C988" s="7"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
-      <c r="C989" s="6"/>
+      <c r="C989" s="7"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="C990" s="6"/>
+      <c r="C990" s="7"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="C991" s="6"/>
+      <c r="C991" s="7"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="C992" s="6"/>
+      <c r="C992" s="7"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
-      <c r="C993" s="6"/>
+      <c r="C993" s="7"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="C994" s="6"/>
+      <c r="C994" s="7"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="C995" s="6"/>
+      <c r="C995" s="7"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="C996" s="6"/>
+      <c r="C996" s="7"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="C997" s="6"/>
+      <c r="C997" s="7"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
-      <c r="C998" s="6"/>
+      <c r="C998" s="7"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
-      <c r="C999" s="6"/>
+      <c r="C999" s="7"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
-      <c r="C1000" s="6"/>
+      <c r="C1000" s="7"/>
     </row>
     <row r="1001" ht="14.25" customHeight="1">
-      <c r="C1001" s="6"/>
+      <c r="C1001" s="7"/>
     </row>
     <row r="1002" ht="14.25" customHeight="1">
-      <c r="C1002" s="6"/>
+      <c r="C1002" s="7"/>
     </row>
     <row r="1003" ht="14.25" customHeight="1">
-      <c r="C1003" s="6"/>
+      <c r="C1003" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C9144-1FDC-4DDA-B9A9-A3E62D4DA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -486,38 +495,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -525,7 +538,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -547,7 +560,13 @@
     </fill>
   </fills>
   <borders count="22">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -561,58 +580,87 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -624,19 +672,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -651,37 +708,56 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -696,14 +772,18 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -712,108 +792,103 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1003,28 +1078,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.29"/>
-    <col customWidth="1" min="2" max="2" width="40.29"/>
-    <col customWidth="1" min="3" max="3" width="86.71"/>
-    <col customWidth="1" min="4" max="4" width="47.29"/>
-    <col customWidth="1" min="5" max="5" width="41.86"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1184,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1203,7 +1280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1220,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1237,7 +1314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
@@ -1254,7 +1331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>52</v>
       </c>
@@ -1265,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>54</v>
       </c>
@@ -1282,7 +1359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
         <v>59</v>
@@ -1295,7 +1372,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>61</v>
       </c>
@@ -1312,7 +1389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>65</v>
       </c>
@@ -1329,7 +1406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>69</v>
@@ -1342,7 +1419,7 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>71</v>
       </c>
@@ -1359,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>75</v>
       </c>
@@ -1376,7 +1453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
@@ -1393,7 +1470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -1410,7 +1487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>88</v>
       </c>
@@ -1421,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
@@ -1438,7 +1515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>94</v>
       </c>
@@ -1455,7 +1532,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>99</v>
       </c>
@@ -1472,7 +1549,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>103</v>
       </c>
@@ -1489,7 +1566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="34" t="s">
         <v>107</v>
@@ -1502,7 +1579,7 @@
       </c>
       <c r="E32" s="36"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>109</v>
       </c>
@@ -1519,7 +1596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>112</v>
       </c>
@@ -1536,7 +1613,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>116</v>
       </c>
@@ -1547,7 +1624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
@@ -1564,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>122</v>
       </c>
@@ -1578,7 +1655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>125</v>
       </c>
@@ -1595,7 +1672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>129</v>
       </c>
@@ -1606,7 +1683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>131</v>
       </c>
@@ -1623,7 +1700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>135</v>
       </c>
@@ -1634,7 +1711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>137</v>
       </c>
@@ -1645,7 +1722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>139</v>
       </c>
@@ -1657,2893 +1734,2891 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="7"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="7"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="7"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="7"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="7"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="7"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="7"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="7"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="7"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="7"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="7"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="7"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="7"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="7"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="7"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="7"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="7"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="7"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="7"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="7"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="7"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="7"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="7"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="7"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C130" s="7"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="7"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C132" s="7"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="7"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C134" s="7"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C135" s="7"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C136" s="7"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C137" s="7"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C138" s="7"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C139" s="7"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C140" s="7"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C141" s="7"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C142" s="7"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="7"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C144" s="7"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C145" s="7"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C146" s="7"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C147" s="7"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C148" s="7"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C149" s="7"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C150" s="7"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C151" s="7"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C152" s="7"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C153" s="7"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C154" s="7"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C155" s="7"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C156" s="7"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C157" s="7"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="7"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C159" s="7"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C160" s="7"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C161" s="7"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C162" s="7"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C163" s="7"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C164" s="7"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C165" s="7"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C166" s="7"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C167" s="7"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C168" s="7"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C169" s="7"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C170" s="7"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C171" s="7"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C172" s="7"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C173" s="7"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C174" s="7"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C175" s="7"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C176" s="7"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C177" s="7"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C178" s="7"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C179" s="7"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C180" s="7"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="7"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="7"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C184" s="7"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C185" s="7"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C186" s="7"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C187" s="7"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C188" s="7"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C189" s="7"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C190" s="7"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C191" s="7"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C192" s="7"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C193" s="7"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C194" s="7"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C195" s="7"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C196" s="7"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C197" s="7"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C198" s="7"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C199" s="7"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C200" s="7"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C201" s="7"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C202" s="7"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C203" s="7"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C204" s="7"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C205" s="7"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C206" s="7"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C207" s="7"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C208" s="7"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C209" s="7"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C210" s="7"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C211" s="7"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C212" s="7"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C213" s="7"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C214" s="7"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C215" s="7"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C216" s="7"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C217" s="7"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C218" s="7"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C219" s="7"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C220" s="7"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C221" s="7"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C222" s="7"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C223" s="7"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C224" s="7"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C225" s="7"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C226" s="7"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C227" s="7"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C228" s="7"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C229" s="7"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C230" s="7"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C231" s="7"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C232" s="7"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C233" s="7"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C234" s="7"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C235" s="7"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C236" s="7"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C237" s="7"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C238" s="7"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C239" s="7"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C240" s="7"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C241" s="7"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C242" s="7"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C243" s="7"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C244" s="7"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C245" s="7"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C246" s="7"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C247" s="7"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C248" s="7"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C249" s="7"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C250" s="7"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C251" s="7"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C252" s="7"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C253" s="7"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C254" s="7"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C255" s="7"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C256" s="7"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C257" s="7"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C258" s="7"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C259" s="7"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C260" s="7"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C261" s="7"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C262" s="7"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C263" s="7"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C264" s="7"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C265" s="7"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C266" s="7"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C267" s="7"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C268" s="7"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C269" s="7"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C270" s="7"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C271" s="7"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C272" s="7"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C273" s="7"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C274" s="7"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C275" s="7"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C276" s="7"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C277" s="7"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C278" s="7"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C279" s="7"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C280" s="7"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C281" s="7"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C282" s="7"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C283" s="7"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C284" s="7"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C285" s="7"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C286" s="7"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C287" s="7"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C288" s="7"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C289" s="7"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C290" s="7"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C291" s="7"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C292" s="7"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C293" s="7"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C294" s="7"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C295" s="7"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C296" s="7"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C297" s="7"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C298" s="7"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C299" s="7"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C300" s="7"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C301" s="7"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="7"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C303" s="7"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C304" s="7"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="7"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C306" s="7"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C307" s="7"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C308" s="7"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C309" s="7"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C310" s="7"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="7"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="7"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="7"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="7"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="7"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="7"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="7"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="7"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="7"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="7"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="7"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="7"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="7"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="7"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="7"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="7"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="7"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="7"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="7"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="7"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="7"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="7"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="7"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="7"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="7"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="7"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C337" s="7"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C338" s="7"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C339" s="7"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C340" s="7"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="7"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="7"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="7"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="7"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="7"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C346" s="7"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C347" s="7"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C348" s="7"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C349" s="7"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C350" s="7"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C351" s="7"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C352" s="7"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C353" s="7"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C354" s="7"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C355" s="7"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C356" s="7"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C357" s="7"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C358" s="7"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C359" s="7"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C360" s="7"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C361" s="7"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C362" s="7"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C363" s="7"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C364" s="7"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C365" s="7"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C366" s="7"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="7"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C368" s="7"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C369" s="7"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C370" s="7"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C371" s="7"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C372" s="7"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C373" s="7"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C374" s="7"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C375" s="7"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C376" s="7"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C377" s="7"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C378" s="7"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C379" s="7"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C380" s="7"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C381" s="7"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C382" s="7"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C383" s="7"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C384" s="7"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C385" s="7"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="7"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="7"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="7"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="7"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="7"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="7"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="7"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="7"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="7"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="7"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="7"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="7"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="7"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="7"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="7"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="7"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="7"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="7"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="7"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="7"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="7"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="7"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="7"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="7"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="7"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="7"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="7"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="7"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="7"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="7"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="7"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="7"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C418" s="7"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C419" s="7"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C420" s="7"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C421" s="7"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C422" s="7"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C423" s="7"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C424" s="7"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="7"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="7"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="7"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="7"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="7"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C430" s="7"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C431" s="7"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C432" s="7"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C433" s="7"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C434" s="7"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C435" s="7"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C436" s="7"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C437" s="7"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C438" s="7"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="7"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="7"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="7"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C442" s="7"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C443" s="7"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C444" s="7"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C445" s="7"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C446" s="7"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C447" s="7"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C448" s="7"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C449" s="7"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C450" s="7"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="7"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="7"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="7"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C454" s="7"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C455" s="7"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C456" s="7"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C457" s="7"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C458" s="7"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C459" s="7"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C460" s="7"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C461" s="7"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C462" s="7"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C463" s="7"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C464" s="7"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C465" s="7"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C466" s="7"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C467" s="7"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C468" s="7"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C469" s="7"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C470" s="7"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C471" s="7"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C472" s="7"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C473" s="7"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C474" s="7"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C475" s="7"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C476" s="7"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C477" s="7"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C478" s="7"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C479" s="7"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C480" s="7"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C481" s="7"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C482" s="7"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C483" s="7"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C484" s="7"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C485" s="7"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C486" s="7"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C487" s="7"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C488" s="7"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C489" s="7"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C490" s="7"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C491" s="7"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C492" s="7"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C493" s="7"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C494" s="7"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="7"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="7"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="7"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="7"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="7"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="7"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C501" s="7"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C502" s="7"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C503" s="7"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C504" s="7"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C505" s="7"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C506" s="7"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C507" s="7"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C508" s="7"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C509" s="7"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C510" s="7"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C511" s="7"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C512" s="7"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C513" s="7"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C514" s="7"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C515" s="7"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C516" s="7"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C517" s="7"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C518" s="7"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C519" s="7"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C520" s="7"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C521" s="7"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C522" s="7"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C523" s="7"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C524" s="7"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C525" s="7"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C526" s="7"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C527" s="7"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C528" s="7"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C529" s="7"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C530" s="7"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C531" s="7"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C532" s="7"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C533" s="7"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C534" s="7"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C535" s="7"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C536" s="7"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C537" s="7"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C538" s="7"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C539" s="7"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C540" s="7"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C541" s="7"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C542" s="7"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C543" s="7"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C544" s="7"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C545" s="7"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C546" s="7"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C547" s="7"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C548" s="7"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C549" s="7"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C550" s="7"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C551" s="7"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C552" s="7"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C553" s="7"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C554" s="7"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C555" s="7"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C556" s="7"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C557" s="7"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C558" s="7"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C559" s="7"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C560" s="7"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C561" s="7"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C562" s="7"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C563" s="7"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C564" s="7"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C565" s="7"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C566" s="7"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C567" s="7"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C568" s="7"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C569" s="7"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C570" s="7"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C571" s="7"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C572" s="7"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C573" s="7"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C574" s="7"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C575" s="7"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C576" s="7"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C577" s="7"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C578" s="7"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C579" s="7"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C580" s="7"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C581" s="7"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C582" s="7"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C583" s="7"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C584" s="7"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C585" s="7"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C586" s="7"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C587" s="7"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C588" s="7"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C589" s="7"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C590" s="7"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C591" s="7"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C592" s="7"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C593" s="7"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C594" s="7"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C595" s="7"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C596" s="7"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C597" s="7"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C598" s="7"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C599" s="7"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C600" s="7"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C601" s="7"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C602" s="7"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C603" s="7"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C604" s="7"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C605" s="7"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C606" s="7"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C607" s="7"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C608" s="7"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C609" s="7"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C610" s="7"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C611" s="7"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C612" s="7"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C613" s="7"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C614" s="7"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C615" s="7"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C616" s="7"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C617" s="7"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C618" s="7"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C619" s="7"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C620" s="7"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C621" s="7"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C622" s="7"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C623" s="7"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C624" s="7"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C625" s="7"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C626" s="7"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C627" s="7"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C628" s="7"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C629" s="7"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C630" s="7"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C631" s="7"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C632" s="7"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C633" s="7"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C634" s="7"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C635" s="7"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C636" s="7"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C637" s="7"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C638" s="7"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C639" s="7"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C640" s="7"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C641" s="7"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C642" s="7"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C643" s="7"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C644" s="7"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C645" s="7"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C646" s="7"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C647" s="7"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C648" s="7"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C649" s="7"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C650" s="7"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C651" s="7"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C652" s="7"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C653" s="7"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C654" s="7"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C655" s="7"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C656" s="7"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C657" s="7"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C658" s="7"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C659" s="7"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C660" s="7"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C661" s="7"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C662" s="7"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C663" s="7"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C664" s="7"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C665" s="7"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C666" s="7"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C667" s="7"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C668" s="7"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C669" s="7"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C670" s="7"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C671" s="7"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C672" s="7"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C673" s="7"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C674" s="7"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C675" s="7"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C676" s="7"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C677" s="7"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C678" s="7"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C679" s="7"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C680" s="7"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C681" s="7"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C682" s="7"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C683" s="7"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C684" s="7"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C685" s="7"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C686" s="7"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C687" s="7"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C688" s="7"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C689" s="7"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C690" s="7"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C691" s="7"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C692" s="7"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C693" s="7"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C694" s="7"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C695" s="7"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C696" s="7"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C697" s="7"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C698" s="7"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C699" s="7"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C700" s="7"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C701" s="7"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C702" s="7"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C703" s="7"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C704" s="7"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C705" s="7"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C706" s="7"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C707" s="7"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C708" s="7"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C709" s="7"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C710" s="7"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C711" s="7"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C712" s="7"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C713" s="7"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C714" s="7"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C715" s="7"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C716" s="7"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C717" s="7"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C718" s="7"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C719" s="7"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C720" s="7"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C721" s="7"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C722" s="7"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C723" s="7"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C724" s="7"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C725" s="7"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C726" s="7"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C727" s="7"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C728" s="7"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C729" s="7"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C730" s="7"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C731" s="7"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C732" s="7"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C733" s="7"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C734" s="7"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C735" s="7"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C736" s="7"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C737" s="7"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C738" s="7"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C739" s="7"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C740" s="7"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C741" s="7"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C742" s="7"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C743" s="7"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C744" s="7"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C745" s="7"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C746" s="7"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C747" s="7"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C748" s="7"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C749" s="7"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C750" s="7"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C751" s="7"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C752" s="7"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C753" s="7"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C754" s="7"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C755" s="7"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C756" s="7"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C757" s="7"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C758" s="7"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C759" s="7"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C760" s="7"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C761" s="7"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C762" s="7"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C763" s="7"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C764" s="7"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C765" s="7"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C766" s="7"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C767" s="7"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C768" s="7"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C769" s="7"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C770" s="7"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C771" s="7"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C772" s="7"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C773" s="7"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C774" s="7"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C775" s="7"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C776" s="7"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C777" s="7"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C778" s="7"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C779" s="7"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C780" s="7"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C781" s="7"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C782" s="7"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C783" s="7"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C784" s="7"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C785" s="7"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C786" s="7"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C787" s="7"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C788" s="7"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C789" s="7"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C790" s="7"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C791" s="7"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C792" s="7"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C793" s="7"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C794" s="7"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C795" s="7"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C796" s="7"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C797" s="7"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C798" s="7"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C799" s="7"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C800" s="7"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C801" s="7"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C802" s="7"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C803" s="7"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C804" s="7"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C805" s="7"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C806" s="7"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C807" s="7"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C808" s="7"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C809" s="7"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C810" s="7"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C811" s="7"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C812" s="7"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C813" s="7"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C814" s="7"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C815" s="7"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C816" s="7"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C817" s="7"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C818" s="7"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C819" s="7"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C820" s="7"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C821" s="7"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C822" s="7"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C823" s="7"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C824" s="7"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C825" s="7"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C826" s="7"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C827" s="7"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C828" s="7"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C829" s="7"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C830" s="7"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C831" s="7"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C832" s="7"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C833" s="7"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C834" s="7"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C835" s="7"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C836" s="7"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C837" s="7"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C838" s="7"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C839" s="7"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C840" s="7"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C841" s="7"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C842" s="7"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C843" s="7"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C844" s="7"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C845" s="7"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C846" s="7"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C847" s="7"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C848" s="7"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C849" s="7"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C850" s="7"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C851" s="7"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C852" s="7"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C853" s="7"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C854" s="7"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C855" s="7"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C856" s="7"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C857" s="7"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C858" s="7"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C859" s="7"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C860" s="7"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C861" s="7"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C862" s="7"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C863" s="7"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C864" s="7"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C865" s="7"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C866" s="7"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C867" s="7"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C868" s="7"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C869" s="7"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C870" s="7"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C871" s="7"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C872" s="7"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C873" s="7"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C874" s="7"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C875" s="7"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C876" s="7"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C877" s="7"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C878" s="7"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C879" s="7"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C880" s="7"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C881" s="7"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C882" s="7"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C883" s="7"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C884" s="7"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C885" s="7"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C886" s="7"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C887" s="7"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C888" s="7"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C889" s="7"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C890" s="7"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C891" s="7"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C892" s="7"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C893" s="7"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C894" s="7"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C895" s="7"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C896" s="7"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C897" s="7"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C898" s="7"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C899" s="7"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C900" s="7"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C901" s="7"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C902" s="7"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C903" s="7"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C904" s="7"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C905" s="7"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C906" s="7"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C907" s="7"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C908" s="7"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C909" s="7"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C910" s="7"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C911" s="7"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C912" s="7"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C913" s="7"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C914" s="7"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C915" s="7"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C916" s="7"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C917" s="7"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C918" s="7"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C919" s="7"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C920" s="7"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C921" s="7"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C922" s="7"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C923" s="7"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C924" s="7"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C925" s="7"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C926" s="7"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C927" s="7"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C928" s="7"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C929" s="7"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C930" s="7"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C931" s="7"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C932" s="7"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C933" s="7"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C934" s="7"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C935" s="7"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C936" s="7"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C937" s="7"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C938" s="7"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C939" s="7"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C940" s="7"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C941" s="7"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C942" s="7"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C943" s="7"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C944" s="7"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C945" s="7"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C946" s="7"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C947" s="7"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C948" s="7"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C949" s="7"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C950" s="7"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C951" s="7"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C952" s="7"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C953" s="7"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C954" s="7"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C955" s="7"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C956" s="7"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C957" s="7"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C958" s="7"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C959" s="7"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C960" s="7"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C961" s="7"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C962" s="7"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C963" s="7"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C964" s="7"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C965" s="7"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C966" s="7"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C967" s="7"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C968" s="7"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C969" s="7"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C970" s="7"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C971" s="7"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C972" s="7"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C973" s="7"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C974" s="7"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C975" s="7"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C976" s="7"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C977" s="7"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C978" s="7"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C979" s="7"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C980" s="7"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C981" s="7"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C982" s="7"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C983" s="7"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C984" s="7"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C985" s="7"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C986" s="7"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C987" s="7"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C988" s="7"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C989" s="7"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C990" s="7"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C991" s="7"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C992" s="7"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C993" s="7"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C994" s="7"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C995" s="7"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C996" s="7"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C997" s="7"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C998" s="7"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C999" s="7"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1000" s="7"/>
     </row>
-    <row r="1001" ht="14.25" customHeight="1">
+    <row r="1001" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1001" s="7"/>
     </row>
-    <row r="1002" ht="14.25" customHeight="1">
+    <row r="1002" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1002" s="7"/>
     </row>
-    <row r="1003" ht="14.25" customHeight="1">
+    <row r="1003" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C41"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C9144-1FDC-4DDA-B9A9-A3E62D4DA416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AAB9AD-9ADA-4D05-B582-40BAB5DD15B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>На карте указаны два маршрута и объекты Усолья Строгановского, сориентируйся на местности и давай начинать!</t>
   </si>
   <si>
-    <t>btn_</t>
-  </si>
-  <si>
     <t>Посмотреть карту</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>Назад</t>
+  </si>
+  <si>
+    <t>btn_hello</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
@@ -1162,10 +1162,10 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5" t="s">
@@ -1186,61 +1186,61 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
@@ -1248,95 +1248,95 @@
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>6</v>
@@ -1344,28 +1344,28 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>6</v>
@@ -1374,45 +1374,45 @@
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="C20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>6</v>
@@ -1421,78 +1421,78 @@
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="E24" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>6</v>
@@ -1500,79 +1500,79 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="D29" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="E29" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E30" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="E31" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>108</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>6</v>
@@ -1581,44 +1581,44 @@
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>111</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>6</v>
@@ -1626,30 +1626,30 @@
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>6</v>
@@ -1657,27 +1657,27 @@
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>6</v>
@@ -1685,27 +1685,27 @@
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>135</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>136</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>6</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>6</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="5" t="s">

--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AAB9AD-9ADA-4D05-B582-40BAB5DD15B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320FE7A-C1C1-4586-8B44-616AB409C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,15 +37,6 @@
     <t>Группы</t>
   </si>
   <si>
-    <t xml:space="preserve">Привет!
-Перед тобой три пути:
-— неспешно прогуляться по территории Усолья Строгановых
-— пройти увлекательный квест
-— или узнать исторические факты о каждом здании.
-Выбирай, что ближе именно тебе.     
-          </t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -72,8 +63,339 @@
     <t>Посмотреть анкету</t>
   </si>
   <si>
-    <t xml:space="preserve">1.  Впиши свою желаемую зарплату:  __руб.__ коп.                           
- 2. Сколько саженей ты готов идти до места работы?
+    <t>btn_start</t>
+  </si>
+  <si>
+    <t>Я понял, где я</t>
+  </si>
+  <si>
+    <t>btn_spaso_preobrazhenskij_monastyr</t>
+  </si>
+  <si>
+    <t>Спасо-Преображенский женский монастырь</t>
+  </si>
+  <si>
+    <t>Спасо-Преображенский женский монастырь в Усолье был основан в XIX веке как подворье Соликамского Троицкого монастыря, став самостоятельной обителью в 1902 году. Монастырь играл важную роль в духовной жизни региона, занимаясь просветительской и благотворительной деятельностью. После закрытия в советские годы он возродился в 1990-х и сегодня является действующим монастырём, сохраняющим традиции православия на Урале.</t>
+  </si>
+  <si>
+    <t>группа зданий вокруг Соборной площади</t>
+  </si>
+  <si>
+    <t>btn_spaso_preobrazhenskij_sobor</t>
+  </si>
+  <si>
+    <t>Спасо-Преображенский собор</t>
+  </si>
+  <si>
+    <t>Каменный Спасо-Преображенский собор в Усолье возведен на месте бывшей деревянной Казанской церкви. Согласно записи в «Летописи о церквах Нового Усолья», в 1724 году по инициативе и по счету барона Сергея Григорьевича Строганова, в знаках благодарности и в честь присвоения Роду Строгановых титулов баронов Петром I, началось строительство каменного храма.</t>
+  </si>
+  <si>
+    <t>Spaso-Preobrazhenskiy sobor.jpg</t>
+  </si>
+  <si>
+    <t>btn_palaty_stroganovyh</t>
+  </si>
+  <si>
+    <t>Палаты Строгановых</t>
+  </si>
+  <si>
+    <t>palaty stroganovykh.jpeg</t>
+  </si>
+  <si>
+    <t>Задание 5</t>
+  </si>
+  <si>
+    <t>Здешние стены хранят не только историю, но и искусство местных зодчих. Подойди к фасаду Строгановских палат и внимательно рассмотри остатки лепнины на стенах — над окнами, в углах, на карнизах. Найди повторяющийся элемент узора, похожий на букву русского алфавита, и определи её порядковый номер.</t>
+  </si>
+  <si>
+    <t>btn_usadiba_golicyna</t>
+  </si>
+  <si>
+    <t>Усадьба Голицына</t>
+  </si>
+  <si>
+    <t>Усадьба Голицына - памятник архитектуры начала XIX века, расположена на правом берегу Камы, севернее Спасо-Преображенского собора. Это единственная дошедшая до наших дней малоизменённая провинциальная усадьба в Пермском крае, которая является еще и одной из редких в России. Первоначально построенная как загородный дом князя Голицына, она служила резиденцией для управляющих и чиновников Усольско-Лёнвенских соляных промыслов. Архитектура дома основана на «Образцовых проектах фасадов жилых домов», разработанных Государственным строительным комитетом в 1809–1812 годах.</t>
+  </si>
+  <si>
+    <t>btn_incon_mother_of_good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимирской иконы Божией Матери </t>
+  </si>
+  <si>
+    <t>Церковь Владимирской иконы Божией Матери (Рубежская) построена в 1752 г. в Рубежской слободе Нового Усолья. В 1757 г. на средства Строгановых и князя Шаховского храм начал возводиться в камне. Главный храм посвящён иконе Владимирской Божией Матери, зимний придел освящён в 1765 г. во имя Стефана Пермского. В начале ХХ в. церковь была обнесена железной кованой оградой на каменных столбах. Закрыта в 1940-х гг.</t>
+  </si>
+  <si>
+    <t>Vladimirskoy ikony Bozhiyey Materi.jpeg</t>
+  </si>
+  <si>
+    <t>btn_kolokolinya_s_torgovymi_ryadami</t>
+  </si>
+  <si>
+    <t>Колокольня с торговыми рядами</t>
+  </si>
+  <si>
+    <t>btn_dom_abamelek-lazareva</t>
+  </si>
+  <si>
+    <t>Дом Абамелек-Лазарева</t>
+  </si>
+  <si>
+    <t>Dom Abamelek-Lazareva.jpg</t>
+  </si>
+  <si>
+    <t>btn_dom_bragina</t>
+  </si>
+  <si>
+    <t>Дом Брагина</t>
+  </si>
+  <si>
+    <t>Dom Bragina.JPG</t>
+  </si>
+  <si>
+    <t>Задание 4</t>
+  </si>
+  <si>
+    <t>В Нижних промыслах соль проходила путь от рассола до кристалла: через башню, варницу, ларь и амбар. Но в каком порядке? Расставь здания в правильной последовательности: как шла соль по технологической цепи. Подсказки: Амбар — не первый и не второй. Соляной ларь стоит сразу после Рассольной башни. Варница находится перед Амбаром, но не на втором месте. Какое здание было третьим?</t>
+  </si>
+  <si>
+    <t>btn_ambar_pripasnoj_u_posada</t>
+  </si>
+  <si>
+    <t>Амбар припасной у посада</t>
+  </si>
+  <si>
+    <t>Ambar pripasnoy u posada.JPG</t>
+  </si>
+  <si>
+    <t>группа зданий амбары и кузницы</t>
+  </si>
+  <si>
+    <t>Задание 3</t>
+  </si>
+  <si>
+    <t>btn_pripasnoj_ambar_u_lazarevyh</t>
+  </si>
+  <si>
+    <t>Припасной амбар у Лазаревых</t>
+  </si>
+  <si>
+    <t>Припасной амбар у Лазаревых возведён в эпоху расцвета солеваренного дела на Урале. Изначально служил промысловым складом, сохранив утилитарную функцию даже после остановки заводов. В XX веке здание адаптировали под хозяйственные нужды без радикальных изменений — лишь с возможным добавлением внутренних перегородок. Архитектурная ценность: эталонный памятник промышленного классицизма уральской школы.</t>
+  </si>
+  <si>
+    <t>btn_ambar_golicynyh</t>
+  </si>
+  <si>
+    <t>Амбар Голицына</t>
+  </si>
+  <si>
+    <t>Амбар Голицыных: промышленный симбиоз уральского классицизма (1826-1835) Возникнув на пустоши у лазаревских складов, это сооружение эволюционировало от "снастно-припасного магазина" до стратегического хлебного хранилища. Меняющиеся названия на исторических планах ("хлебной амбар князей Голицыных", "здание запаса") отражают его двойную функцию: центр продовольственного обеспечения рабочих, а так жен инструмент социального регулирования (натуральная оплата и демпинг цен на хлеб). Постройка возведена в стиле промышленного классицизма, где утилитарность форм сочетается с монументальной выразительностью.</t>
+  </si>
+  <si>
+    <t>Задание 2</t>
+  </si>
+  <si>
+    <t>На соляных промыслах расстояния были большими: от амбара — к кузнице, от кузницы — к варнице, от варницы — к скважине. Каждый день соляной мастер проходил немало, и всё — по делу. Представь, что тебе нужно пройти от амбара до кузницы, чтобы получить молот и наковальню. Сосчитай шаги, но знай: в старину одна сажень приравнивалась примерно к трём шагам. Сколько саженей от амбара до кузницы.</t>
+  </si>
+  <si>
+    <t>btn_magazin_materialinyj</t>
+  </si>
+  <si>
+    <t>Магазин материальный</t>
+  </si>
+  <si>
+    <t>magazin_materialinyj.jpg</t>
+  </si>
+  <si>
+    <t>btn_kuznica_stroganovyh</t>
+  </si>
+  <si>
+    <t>Кузница Строгановых</t>
+  </si>
+  <si>
+    <t>Kuznitsa Stroganovykh.jpg</t>
+  </si>
+  <si>
+    <t>btn_kuznica_golicynyh</t>
+  </si>
+  <si>
+    <t>Кузница Голицыных</t>
+  </si>
+  <si>
+    <t>Кузница Голицинв построена после пожара 1804 года среди первых каменных промысловых зданий Усолья. Вместе с соседними кузницами Шаховской и Лазарева образовала производственный комплекс у материального магазина Строгановых.
+Одно из первых кирпичных кузнечных сооружений, которое сохраняла производственную функцию до конца XIX века, но в следующем веке утратила сове назначение. Ранее ошибочно считалось столярной мастерской.</t>
+  </si>
+  <si>
+    <t>Kuznitsa Golitsynykh.jpg</t>
+  </si>
+  <si>
+    <t>btn_varnica_nikoliskaya</t>
+  </si>
+  <si>
+    <t>Варница Никольская</t>
+  </si>
+  <si>
+    <t>Никольская варница Голицыных, каменный солеваренный комплекс, возведённый до 1826 года, объединял три уникальных производства под одной крышей: Никольскую, Петро-Павловскую, Елизаветскую. Каждая варница располагала собственным циреном (солеварочной "сковородой"). Вероятно, это была "чёрная" варница — последний сохранившийся на Урале образец каменной солеварни.</t>
+  </si>
+  <si>
+    <t>группа зданий мастерская и варница</t>
+  </si>
+  <si>
+    <t>Задание 6</t>
+  </si>
+  <si>
+    <t>У Строгановых был порядок, но не всегда — достаток. В середине XVIII века они столкнулись с финансовыми трудностями и были вынуждены продать доли своих промыслов. Так на соляных варнях появились новые семьи — и каждая внесла свое имя в историю. Найди на стендах информацию о семьях, владевших Нижними соляными промыслами к началу XIX века. Подсчитай, сколько семей упоминается как владельцы в этот период.</t>
+  </si>
+  <si>
+    <t>btn_mastreskaya_pri_promyslah_golicynyh</t>
+  </si>
+  <si>
+    <t>Мастреская при промыслах Голицыных</t>
+  </si>
+  <si>
+    <t>Мастерские при промыслах Голицыных в Усолье были важным центром промышленности, где производили соль, металлические изделия и другие товары. Каменные здания были возведены в 1820 годах. Эти мастерские обеспечивали работой местных жителей и способствовали экономическому развитию региона. Голицыны, как владельцы промыслов, внедряли передовые для своего времени технологии, что повышало эффективность производства. Сегодня сохранившиеся постройки напоминают о значительном вкладе семьи Голицыных в историю Усолья.</t>
+  </si>
+  <si>
+    <t>Masterskaya pri promyslakh Golitsynykh.jpg</t>
+  </si>
+  <si>
+    <t>btn_korpus_varochnyh_shuvalovyh</t>
+  </si>
+  <si>
+    <t>Корпус варочных Шуваловых</t>
+  </si>
+  <si>
+    <t>Korpus varochnykh Shuvalovykh.jpg</t>
+  </si>
+  <si>
+    <t>группа зданий вокруг Покровской часовни-ротонды</t>
+  </si>
+  <si>
+    <t>btn_korpus_parovoj_mashiny_shuvalovyh</t>
+  </si>
+  <si>
+    <t>Корпус паровой машины Шуваловых</t>
+  </si>
+  <si>
+    <t>Korpus parovoy mashiny Shuvalovykh.jpg</t>
+  </si>
+  <si>
+    <t>btn_korpus_parovoj_mashiny_strogonovyh</t>
+  </si>
+  <si>
+    <t>Корпус паровой машины Строгоновых</t>
+  </si>
+  <si>
+    <t>Korpus parovoy mashiny Stroganovykh.jpg</t>
+  </si>
+  <si>
+    <t>Задание 7</t>
+  </si>
+  <si>
+    <t>Технический прогресс не стоял на месте. Найди корпус паровой машины Строгановых — одно из первых промышленных зданий, где на смену ручному труду пришла сила пара. Рассмотри цвет стен снаружи. Какой цвет преобладает в облике этого здания?</t>
+  </si>
+  <si>
+    <t>btn_ambar_pripasnoj</t>
+  </si>
+  <si>
+    <t>Амбар припасной</t>
+  </si>
+  <si>
+    <t>btn_pokrovskaya_chasovnya_rotonda</t>
+  </si>
+  <si>
+    <t>Покровская часовня-ротонда</t>
+  </si>
+  <si>
+    <t>Pokrovskaya chasovnya-rotonda.jpg</t>
+  </si>
+  <si>
+    <t>Задание 8</t>
+  </si>
+  <si>
+    <t>btn_Nikolskaya_tserkov</t>
+  </si>
+  <si>
+    <t>Никольская церковь</t>
+  </si>
+  <si>
+    <t>btn_pravila_kvesta</t>
+  </si>
+  <si>
+    <t>Правила квеста</t>
+  </si>
+  <si>
+    <t>btn_yakoria_Usolia</t>
+  </si>
+  <si>
+    <t>Каменные якоря Усолья</t>
+  </si>
+  <si>
+    <t>Задание 1</t>
+  </si>
+  <si>
+    <t>btn_sirin</t>
+  </si>
+  <si>
+    <t>Сирин</t>
+  </si>
+  <si>
+    <t>sirin.jpg</t>
+  </si>
+  <si>
+    <t>Усолье Строгановское</t>
+  </si>
+  <si>
+    <t>https://vk.com/stroganovland</t>
+  </si>
+  <si>
+    <t>информация о боте</t>
+  </si>
+  <si>
+    <t>btn_back</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>btn_hello</t>
+  </si>
+  <si>
+    <t>Varnitsa Nikolskaya.jpg</t>
+  </si>
+  <si>
+    <t>Nikolskaya tserkov.jpeg</t>
+  </si>
+  <si>
+    <t>Kamennyye yakorya Usolya.jpg</t>
+  </si>
+  <si>
+    <t>Spaso-Preobrazhenskiy zhenskiy monastyr.jpg</t>
+  </si>
+  <si>
+    <t>Golitsyns barn.jpeg</t>
+  </si>
+  <si>
+    <t>Pripasnoy ambar u Lazarevykh.jpg</t>
+  </si>
+  <si>
+    <t>kolokolnya.jpeg</t>
+  </si>
+  <si>
+    <t>Usadba Golitsyna.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привет!
+Перед тобой три пути:
+— неспешно прогуляться по территории Усолья Строгановых
+— пройти увлекательный квест
+— или узнать исторические факты о каждом здании.
+Выбирай, что ближе именно тебе. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Впиши свою желаемую зарплату: __руб.__ коп. 
+2. Сколько саженей ты готов идти до места работы?
 3. Чего ты никогда не допустишь на рабочем месте?
 4. В какой отдел ты хотел бы устроиться?
 5. Сколько часов в день ты готов посвятить работе?
@@ -83,347 +405,57 @@
 </t>
   </si>
   <si>
-    <t>btn_start</t>
-  </si>
-  <si>
-    <t>Я понял, где я</t>
-  </si>
-  <si>
-    <t>btn_spaso_preobrazhenskij_monastyr</t>
-  </si>
-  <si>
-    <t>Спасо-Преображенский женский монастырь</t>
-  </si>
-  <si>
-    <t>Спасо-Преображенский женский монастырь в Усолье был основан в XIX веке как подворье Соликамского Троицкого монастыря, став самостоятельной обителью в 1902 году. Монастырь играл важную роль в духовной жизни региона, занимаясь просветительской и благотворительной деятельностью. После закрытия в советские годы он возродился в 1990-х и сегодня является действующим монастырём, сохраняющим традиции православия на Урале.</t>
-  </si>
-  <si>
-    <t>Spaso-Preobrazhenskiy zhenskiy monastyr'.jpg</t>
-  </si>
-  <si>
-    <t>группа зданий вокруг Соборной площади</t>
-  </si>
-  <si>
-    <t>btn_spaso_preobrazhenskij_sobor</t>
-  </si>
-  <si>
-    <t>Спасо-Преображенский собор</t>
-  </si>
-  <si>
-    <t>Каменный Спасо-Преображенский собор в Усолье возведен на месте бывшей деревянной Казанской церкви. Согласно записи в «Летописи о церквах Нового Усолья», в 1724 году по инициативе и по счету барона Сергея Григорьевича Строганова, в знаках благодарности и в честь присвоения Роду Строгановых титулов баронов Петром I, началось строительство каменного храма.</t>
-  </si>
-  <si>
-    <t>Spaso-Preobrazhenskiy sobor.jpg</t>
-  </si>
-  <si>
-    <t>btn_palaty_stroganovyh</t>
-  </si>
-  <si>
-    <t>Палаты Строгановых</t>
-  </si>
-  <si>
-    <t>Палаты Строгоновых - или каменная канцелярия являлись местом организации всей административной работы солеваренного производства. Здание возведено в 1724 году. Архитектура постройки относится к типичным для московского зодчества конца XVII - начала XVIII веков.</t>
-  </si>
-  <si>
-    <t>palaty stroganovykh.jpeg</t>
-  </si>
-  <si>
-    <t>Задание 5</t>
-  </si>
-  <si>
-    <t>Здешние стены хранят не только историю, но и искусство местных зодчих. Подойди к фасаду Строгановских палат и внимательно рассмотри остатки лепнины на стенах — над окнами, в углах, на карнизах. Найди повторяющийся элемент узора, похожий на букву русского алфавита, и определи её порядковый номер.</t>
-  </si>
-  <si>
-    <t>btn_usadiba_golicyna</t>
-  </si>
-  <si>
-    <t>Усадьба Голицына</t>
-  </si>
-  <si>
-    <t>Усадьба Голицына - памятник архитектуры начала XIX века, расположена на правом берегу Камы, севернее Спасо-Преображенского собора. Это единственная дошедшая до наших дней малоизменённая провинциальная усадьба в Пермском крае, которая является еще и одной из редких в России. Первоначально построенная как загородный дом князя Голицына, она служила резиденцией для управляющих и чиновников Усольско-Лёнвенских соляных промыслов. Архитектура дома основана на «Образцовых проектах фасадов жилых домов», разработанных Государственным строительным комитетом в 1809–1812 годах.</t>
-  </si>
-  <si>
-    <t>Usad'ba Golitsyna.JPG</t>
-  </si>
-  <si>
-    <t>btn_incon_mother_of_good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимирской иконы Божией Матери </t>
-  </si>
-  <si>
-    <t>Церковь Владимирской иконы Божией Матери (Рубежская) построена в 1752 г. в Рубежской слободе Нового Усолья. В 1757 г. на средства Строгановых и князя Шаховского храм начал возводиться в камне. Главный храм посвящён иконе Владимирской Божией Матери, зимний придел освящён в 1765 г. во имя Стефана Пермского. В начале ХХ в. церковь была обнесена железной кованой оградой на каменных столбах. Закрыта в 1940-х гг.</t>
-  </si>
-  <si>
-    <t>Vladimirskoy ikony Bozhiyey Materi.jpeg</t>
-  </si>
-  <si>
-    <t>btn_kolokolinya_s_torgovymi_ryadami</t>
-  </si>
-  <si>
-    <t>Колокольня с торговыми рядами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колокольня Спасо-Преображенского собора, построенная в 1730 году силами соликамских мастеров Рязанцева, Котельникова и Кожина за 120 рублей. Высота постройки составляет около 50 метров. Изначально колькольня была шестиярусной и увенчанной высоким шпилем с флюгером, который погиб при пожаре 1842 года. Архитектура отличается декоративными полуокнами в арочных проёмах, а раньше фасады украшала полихромная роспись, не дошедшая до наших дней.
-В 1832–1835 годах нижний ярус был обстроен каменными торговыми рядами.  Сегодня со стороны реки Камы стены оживляют современные фрески — легализованные граффити. </t>
-  </si>
-  <si>
-    <t>kolokol'nya.jpeg</t>
-  </si>
-  <si>
-    <t>btn_dom_abamelek-lazareva</t>
-  </si>
-  <si>
-    <t>Дом Абамелек-Лазарева</t>
-  </si>
-  <si>
-    <t>В 1778 году миллионер Иван Лазаревич Лазарев купил у Строгановых владения в Соликамском уезде Пермской губернии, включая Чёрмозский завод, Усольские, Лёнвенские и Чусовские соляные промыслы. Громадные владения обошлись Лазаревым в 450000 рублей. В начале 19 века Лазаревы породнились с княжеским родом Амабелек. Династия развивала свои владения и активно занималась каменным строительством как в Усолье, так и в Чёрмозе.</t>
-  </si>
-  <si>
-    <t>Dom Abamelek-Lazareva.jpg</t>
-  </si>
-  <si>
-    <t>btn_dom_bragina</t>
-  </si>
-  <si>
-    <t>Дом Брагина</t>
-  </si>
-  <si>
-    <t>Здание, возведённое в начале XIX века, представляет собой пример сдержанного позднего классицизма. Его лаконичный облик, почти лишённый декора, — следствие многочисленных перестроек.
+    <t>Колокольня Спасо-Преображенского собора, построенная в 1730 году силами соликамских мастеров Рязанцева, Котельникова и Кожина за 120 рублей. Высота постройки составляет около 50 метров. Изначально колькольня была шестиярусной и увенчанной высоким шпилем с флюгером, который погиб при пожаре 1842 года. Архитектура отличается декоративными полуокнами в арочных проёмах, а раньше фасады украшала полихромная роспись, не дошедшая до наших дней.
+В 1832–1835 годах нижний ярус был обстроен каменными торговыми рядами. Сегодня со стороны реки Камы стены оживляют современные фрески — легализованные граффити.</t>
+  </si>
+  <si>
+    <t>В 1778 году миллионер Иван Лазаревич Лазарев купил у Строгановых владения в Соликамском уезде Пермской губернии, включая Чёрмозский завод, Усольские, Лёнвенские и Чусовские соляные промыслы. Громадные владения обошлись Лазаревым в 450000 рублей. В начале 19 века Лазаревы породнились с княжеским родом Амабелек. Род Абамелек-Лазаревых владел не только уральскими соляными промыслами, но и железорудными предприятиями, а также знаменитым "Палаццо Абамелек" в Риме (ныне — резиденция посла России в Италии).</t>
+  </si>
+  <si>
+    <t>Построен в 1830-е годы для купца Алексея Брагина (или Брагиных), который разбогател на соляном промысле. Позже перешел к Абамелек-Лазаревым.
+Это единственный «готический» особняк в Пермском крае. Его лаконичный облик, почти лишённый декора, — следствие многочисленных перестроек.
 Нижний этаж изначально был коммерческим: здесь размещались магазины с отдельными входами и анфиладным расположением помещений. Верхний этаж с плоскими сводчатыми перекрытиями использовался для общественной жизни — здесь собирались члены усольского «Общества семейных вечеров».</t>
   </si>
   <si>
-    <t>Dom Bragina.JPG</t>
-  </si>
-  <si>
-    <t>Задание 4</t>
-  </si>
-  <si>
-    <t>В Нижних промыслах соль проходила путь от рассола до кристалла: через башню, варницу, ларь и амбар. Но в каком порядке? Расставь здания в правильной последовательности: как шла соль по технологической цепи. Подсказки: Амбар — не первый и не второй. Соляной ларь стоит сразу после Рассольной башни. Варница находится перед Амбаром, но не на втором месте. Какое здание было третьим?</t>
-  </si>
-  <si>
-    <t>btn_ambar_pripasnoj_u_posada</t>
-  </si>
-  <si>
-    <t>Амбар припасной у посада</t>
-  </si>
-  <si>
-    <t>Амбар «Припасной у посада» — кирпичное строение, возведённое не позднее 1826 года на месте деревянных складов силами Строгановых.  В конце XIX века его расширили кирпичной пристройкой (увеличив объём втрое), а в 1890-х — добавили деревянное крыло с востока. 
+    <t>Амбар «Припасной у посада» — кирпичное строение, возведённое не позднее 1826 года на месте деревянных складов силами Строгановых. В конце XIX века его расширили кирпичной пристройкой (увеличив объём втрое), а в 1890-х — добавили деревянное крыло с востока. 
 Выдержанный в стиле уральского промышленного классицизма, с жёлтой исторической окраской.</t>
   </si>
   <si>
-    <t>Ambar pripasnoy u posada.JPG</t>
-  </si>
-  <si>
-    <t>группа зданий амбары и кузницы</t>
-  </si>
-  <si>
-    <t>Задание 3</t>
-  </si>
-  <si>
-    <t>Кузницу Строгановы построили после большой беды в 1809 году.  Ребус подскажет тебе, что здесь произошло, а проверить свой ответ ты сможешь, прочитав информацию со стенда.</t>
-  </si>
-  <si>
-    <t>btn_pripasnoj_ambar_u_lazarevyh</t>
-  </si>
-  <si>
-    <t>Припасной амбар у Лазаревых</t>
-  </si>
-  <si>
-    <t>Припасной амбар у Лазаревых возведён в эпоху расцвета солеваренного дела на Урале. Изначально служил промысловым складом, сохранив утилитарную функцию даже после остановки заводов. В XX веке здание адаптировали под хозяйственные нужды без радикальных изменений — лишь с возможным добавлением внутренних перегородок. Архитектурная ценность: эталонный памятник промышленного классицизма уральской школы.</t>
-  </si>
-  <si>
-    <t>pripasnoj_ambar_u_lazarevyh.jpg</t>
-  </si>
-  <si>
-    <t>btn_ambar_golicynyh</t>
-  </si>
-  <si>
-    <t>Амбар Голицына</t>
-  </si>
-  <si>
-    <t>Амбар Голицыных: промышленный симбиоз уральского классицизма (1826-1835) Возникнув на пустоши у лазаревских складов, это сооружение эволюционировало от "снастно-припасного магазина" до стратегического хлебного хранилища. Меняющиеся названия на исторических планах ("хлебной амбар князей Голицыных", "здание запаса") отражают его двойную функцию: центр продовольственного обеспечения рабочих, а так жен инструмент социального регулирования (натуральная оплата и демпинг цен на хлеб). Постройка возведена в стиле промышленного классицизма, где утилитарность форм сочетается с монументальной выразительностью.</t>
-  </si>
-  <si>
-    <t>Golitsyn's barn.jpeg</t>
-  </si>
-  <si>
-    <t>Задание 2</t>
-  </si>
-  <si>
-    <t>На соляных промыслах расстояния были большими: от амбара — к кузнице, от кузницы — к варнице, от варницы — к скважине. Каждый день соляной мастер проходил немало, и всё — по делу. Представь, что тебе нужно пройти от амбара до кузницы, чтобы получить молот и наковальню. Сосчитай шаги, но знай: в старину одна сажень приравнивалась примерно к трём шагам. Сколько саженей от амбара до кузницы.</t>
-  </si>
-  <si>
-    <t>btn_magazin_materialinyj</t>
-  </si>
-  <si>
-    <t>Магазин материальный</t>
-  </si>
-  <si>
-    <t>Материальный магазин возведен в 1810 году на месте сгоревшего годом ранее деревянного хлебного и снастного магазина. Строганов  после очередного подара возвел каменный «материальный магазеин». Назначение здания почти не менялось. В 1842-1845 годах его называли «графа Строганова бывший припасной амбар», «хлебоприпасный магазин».
+    <t>Кузницу Строгановы построили после большой беды в 1809 году. Ребус подскажет тебе, что здесь произошло, а проверить свой ответ ты сможешь, прочитав информацию со стенда.</t>
+  </si>
+  <si>
+    <t>Материальный магазин возведен в 1810 году на месте сгоревшего годом ранее деревянного хлебного и снастного магазина. Строганов после очередного подара возвел каменный «материальный магазеин». Назначение здания почти не менялось. В 1842-1845 годах его называли «графа Строганова бывший припасной амбар», «хлебоприпасный магазин».
 В небольшом ризалите (выступающей части здания) находилась караульная изба.
-По первоначальному замыслу здание состояло из двух
-равновеликих и прямоугольных
-в плане помещений. В настоящее время здание
-не используется и находится в руинисованном состоянии.</t>
-  </si>
-  <si>
-    <t>magazin_materialinyj.jpg</t>
-  </si>
-  <si>
-    <t>btn_kuznica_stroganovyh</t>
-  </si>
-  <si>
-    <t>Кузница Строгановых</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кузница Строгановых в Усолье построена после пожара 1804 года, являтся одним из старейших промышленных сооружений XVII–XVIII веков, входившее в комплекс солеваренного промысла Строгановых. Здесь изготавливали и ремонтировали инструменты, котлы и металлические детали, необходимые для солеварения. </t>
-  </si>
-  <si>
-    <t>Kuznitsa Stroganovykh.jpg</t>
-  </si>
-  <si>
-    <t>btn_kuznica_golicynyh</t>
-  </si>
-  <si>
-    <t>Кузница Голицыных</t>
-  </si>
-  <si>
-    <t>Кузница Голицинв построена после пожара 1804 года среди первых каменных промысловых зданий Усолья. Вместе с соседними кузницами Шаховской и Лазарева образовала производственный комплекс у материального магазина Строгановых.
-Одно из первых кирпичных кузнечных сооружений, которое сохраняла производственную функцию до конца XIX века, но в следующем веке утратила сове назначение. Ранее ошибочно считалось столярной мастерской.</t>
-  </si>
-  <si>
-    <t>Kuznitsa Golitsynykh.jpg</t>
-  </si>
-  <si>
-    <t>btn_varnica_nikoliskaya</t>
-  </si>
-  <si>
-    <t>Варница Никольская</t>
-  </si>
-  <si>
-    <t>Никольская варница Голицыных, каменный солеваренный комплекс, возведённый до 1826 года, объединял три уникальных производства под одной крышей: Никольскую, Петро-Павловскую, Елизаветскую. Каждая варница располагала собственным циреном (солеварочной "сковородой"). Вероятно, это была "чёрная" варница — последний сохранившийся на Урале образец каменной солеварни.</t>
-  </si>
-  <si>
-    <t>Varnitsa Nikol'skaya.jpg</t>
-  </si>
-  <si>
-    <t>группа зданий мастерская и варница</t>
-  </si>
-  <si>
-    <t>Задание 6</t>
-  </si>
-  <si>
-    <t>У Строгановых был порядок, но не всегда — достаток. В середине XVIII века они столкнулись с финансовыми трудностями и были вынуждены продать доли своих промыслов. Так на соляных варнях появились новые семьи — и каждая внесла свое имя в историю. Найди на стендах информацию о семьях, владевших Нижними соляными промыслами к началу XIX века. Подсчитай, сколько семей упоминается как владельцы в этот период.</t>
-  </si>
-  <si>
-    <t>btn_mastreskaya_pri_promyslah_golicynyh</t>
-  </si>
-  <si>
-    <t>Мастреская при промыслах Голицыных</t>
-  </si>
-  <si>
-    <t>Мастерские при промыслах Голицыных в Усолье были важным центром промышленности, где производили соль, металлические изделия и другие товары. Каменные здания были возведены в 1820 годах. Эти мастерские обеспечивали работой местных жителей и способствовали экономическому развитию региона. Голицыны, как владельцы промыслов, внедряли передовые для своего времени технологии, что повышало эффективность производства. Сегодня сохранившиеся постройки напоминают о значительном вкладе семьи Голицыных в историю Усолья.</t>
-  </si>
-  <si>
-    <t>Masterskaya pri promyslakh Golitsynykh.jpg</t>
-  </si>
-  <si>
-    <t>btn_korpus_varochnyh_shuvalovyh</t>
-  </si>
-  <si>
-    <t>Корпус варочных Шуваловых</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корпус варочных Шуваловых в Усолье — это памятник промышленной архитектуры конца XVIII века, связанный с солеваренным промыслом, который контролировали Шуваловы. Здание использовалось для выпаривания соли из рассола и является частью исторического комплекса Усольских солеваренных заводов. </t>
-  </si>
-  <si>
-    <t>Korpus varochnykh Shuvalovykh.jpg</t>
-  </si>
-  <si>
-    <t>группа зданий вокруг Покровской часовни-ротонды</t>
-  </si>
-  <si>
-    <t>btn_korpus_parovoj_mashiny_shuvalovyh</t>
-  </si>
-  <si>
-    <t>Корпус паровой машины Шуваловых</t>
-  </si>
-  <si>
-    <t>Корпус паровой машины Шуваловых
-Построен в 1836 году- первая промышленная паровая установка в Усолье. Машина английского
+По первоначальному замыслу здание состояло из двух равновеликих и прямоугольных в плане помещений.</t>
+  </si>
+  <si>
+    <t>Кузница Строгановых в Усолье построена после пожара 1804 года, являтся одним из старейших промышленных сооружений XVII–XVIII веков, входившее в комплекс солеваренного промысла Строгановых. Здесь изготавливали и ремонтировали инструменты, котлы и металлические детали, необходимые для солеварения.</t>
+  </si>
+  <si>
+    <t>Корпус варочных Шуваловых — это памятник промышленной архитектуры конца XVIII века. Здание использовалось для выпаривания соли из рассола и является частью исторического комплекса Усольских солеваренных заводов.</t>
+  </si>
+  <si>
+    <t>Построен в 1836 году- первая промышленная паровая установка в Усолье. Машина английского
 производства качала рассол вместо лошадей. Сохранились оригинальные кирпичные арки, которые гасили вибрации.</t>
   </si>
   <si>
-    <t>Korpus parovoy mashiny Shuvalovykh.jpg</t>
-  </si>
-  <si>
-    <t>btn_korpus_parovoj_mashiny_strogonovyh</t>
-  </si>
-  <si>
-    <t>Корпус паровой машины Строгоновых</t>
-  </si>
-  <si>
-    <t>Корпус паровой машины Строгановых
-Введен в 1806 году.Здесь была установлена паровая машина Джеймса Уатта, заменившая 50
+    <t>Введен в 1806 году.Здесь была установлена паровая машина Джеймса Уатта, заменившая 50
 работников. Устройство подавало рассол на высоту 15 метров через систему труб. Один из первых промышленных паровых агрегатов в России.</t>
   </si>
   <si>
-    <t>Korpus parovoy mashiny Stroganovykh.jpg</t>
-  </si>
-  <si>
-    <t>Задание 7</t>
-  </si>
-  <si>
-    <t>Технический прогресс не стоял на месте. Найди корпус паровой машины Строгановых — одно из первых промышленных зданий, где на смену ручному труду пришла сила пара. Рассмотри цвет стен снаружи. Какой цвет преобладает в облике этого здания?</t>
-  </si>
-  <si>
-    <t>btn_ambar_pripasnoj</t>
-  </si>
-  <si>
-    <t>Амбар припасной</t>
-  </si>
-  <si>
-    <t>Амбар
-припасной построенный в 1780-хгодах соляной склад вмещал до 50 тысяч пудов "белого золота". Его
-двухъярусные подвалы с особой вентиляцией и двухметровыми стенами надежнозащищали ценный груз. Это был настоящий соляной банк XVIII века, обеспечивавший
-сохранность стратегических запасов промыслов.</t>
-  </si>
-  <si>
-    <t>btn_pokrovskaya_chasovnya_rotonda</t>
-  </si>
-  <si>
-    <t>Покровская часовня-ротонда</t>
-  </si>
-  <si>
-    <t>Возведена в 1813-1820 годах бароном Г.А. Строгановым в память о войне 1812 года. Храм построен в классическом стиле с дорическими портиками и уникальной двухъярусной колокольней. Архитектурный проект приписывается выдающимся зодчим – Воронихину.</t>
-  </si>
-  <si>
-    <t>Pokrovskaya chasovnya-rotonda.jpg</t>
-  </si>
-  <si>
-    <t>Задание 8</t>
-  </si>
-  <si>
-    <t>Иван IV дал грамоту для развития земель Усолья: Строгановы построили промыслы, а на благословенной земле вскоре выросла часовня — знак покрова над трудом соляных мастеров. Найди Покровскую часовню-ротонду неподалеку от корпусов паровых машин.  Рассмотри здание и посчитай, сколько у него граней. Вспомни Назови имя, в котором столько же букв, сколько граней ты насчитал.</t>
-  </si>
-  <si>
-    <t>btn_Nikolskaya_tserkov</t>
-  </si>
-  <si>
-    <t>Никольская церковь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никольская церковь в Усолье авторство проекта церкви традиционно связывают с архитектором А.Н. Воронихиным. Церковь Святителя Николая Чудотворца была заложена в 1813 и освящена в 1820 году как памятник Отечественной войне 1812 года (о чем свидетельствовала мемориальная доска в алтаре). Ее архитектура отличается необычными для храма решениями: просторный зал с великолепной акустикой и иконостас в форме триумфальной арки. Внутреннее убранство создавали усольский живописец И.С. Дощенико и других. Для отделки использовались: искусственный мрамор, золоченая бронза, полудрагоценные камни. </t>
-  </si>
-  <si>
-    <t>Nikol'skaya tserkov'.jpeg</t>
-  </si>
-  <si>
-    <t>btn_pravila_kvesta</t>
-  </si>
-  <si>
-    <t>Правила квеста</t>
+    <t>Cоляной склад вмещал до 50 тысяч пудов "белого золота". Его двухъярусные подвалы с особой вентиляцией и двухметровыми стенами надежнозащищали ценный груз. Это был настоящий соляной банк XVIII века, обеспечивавший сохранность стратегических запасов промыслов.</t>
+  </si>
+  <si>
+    <t>Одна из самых фотографируемых достопримечательностей Усолья благодаря живописному виду на фоне Камы.
+Имеет форму ротонды (круглое сооружение с куполом и колоннами), что редко встречается в провинциальной храмовой архитектуре Урала.
+Изящные дорические колонны, купол с люкарнами (оконными проёмами) и лепной декор придают ей сходство с античными храмами.
+Возведена в 1813-1820 годах бароном Г.А. Строгановым в память о войне 1812 года.</t>
+  </si>
+  <si>
+    <t>Иван IV дал грамоту для развития земель Усолья: Строгановы построили промыслы, а на благословенной земле вскоре выросла часовня — знак покрова над трудом соляных мастеров. Найди Покровскую часовню-ротонду неподалеку от корпусов паровых машин. Рассмотри здание и посчитай, сколько у него граней. Вспомни Назови имя, в котором столько же букв, сколько граней ты насчитал.</t>
+  </si>
+  <si>
+    <t>Никольская церковь в Усолье авторство проекта церкви традиционно связывают с А.Н. Воронихиным - архитектором Казанского собора в Санкт-Петербурге. Церковь Святителя Николая Чудотворца была заложена в 1813 и освящена в 1820 году как памятник Отечественной войне 1812 года (о чем свидетельствовала мемориальная доска в алтаре). Ее архитектура отличается необычными для храма решениями: просторный зал с великолепной акустикой и иконостас в форме триумфальной арки. Внутреннее убранство создавали усольский живописец И.С. Дощенико и других. Для отделки использовались: искусственный мрамор, золоченая бронза, полудрагоценные камни.</t>
   </si>
   <si>
     <t xml:space="preserve">Правила прохождения квеста
@@ -433,74 +465,47 @@
 Держись тропы — всё важное видно снаружи.
 Заслужи звание подмастерья или стань мастером Строгановых!
 В добрый путь!
-(Юный друг, если тебе ещё нет 10 лет, пройди квест вместе со взрослым.)
 </t>
   </si>
   <si>
-    <t>btn_yakoria_Usolia</t>
-  </si>
-  <si>
-    <t>Каменные якоря Усолья</t>
-  </si>
-  <si>
-    <t>Каменные якоря Усолья это массивные каменные
-якоря XVIII-XIX веков лежат у берега Камы – они использовались для крепления соляных барж, перевозивших грузы по реке. Каждый якорь весом около 500 кг имеет
-отверстие для каната, которым его поднимали на борт. Эти камни – свидетельстворасцвета соляной торговли Строгановых и речного судоходства того времени.</t>
-  </si>
-  <si>
-    <t>Kamennyye yakorya Usol'ya.jpg</t>
-  </si>
-  <si>
-    <t>Задание 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Строгановы платят честно, но не по прейскуранту — каждому по труду и заслугам. Найди камни-якоря, которыми когда-то крепили баржи с солью. Посчитай, сколько таких камней ты видишь и к полученному числу прибавь свой возраст. Первая цифра суммы — рубли, вторая — копейки. Например: 7 камней + 15 лет = 22 → зарплата: 2 рубль 2 копеек. </t>
-  </si>
-  <si>
-    <t>btn_sirin</t>
-  </si>
-  <si>
-    <t>Сирин</t>
-  </si>
-  <si>
-    <t>Художница Жанна Заграбова создала для музея скульптурный образ сказочной Птицы Сирин,ставшей символом Усолья. Две фигуры теперь украшают берег Камы у «Дома
+    <t>Каменные якоря Усолья это массивные каменные якоря XVIII-XIX веков лежат у берега Камы – они использовались для крепления соляных барж, перевозивших грузы по реке. Каждый якорь весом около 500 кг имеет отверстие для каната, которым его поднимали на борт. Эти камни – свидетельстворасцвета соляной торговли Строгановых и речного судоходства того времени.</t>
+  </si>
+  <si>
+    <t>Строгановы платят честно, но не по прейскуранту — каждому по труду и заслугам. Найди камни-якоря, которыми когда-то крепили баржи с солью. Посчитай, сколько таких камней ты видишь и к полученному числу прибавь свой возраст. Первая цифра суммы — рубли, вторая — копейки. Например: 7 камней + 15 лет = 22 → зарплата: 2 рубль 2 копеек.</t>
+  </si>
+  <si>
+    <t>Художница Жанна Заграбова создала для музея скульптурный образ сказочной Птицы Сирин, ставшей символом Усолья. Две фигуры теперь украшают берег Камы у «Дома
 Абамелек-Лазаревых», превратившись в популярное место для фото. Идея установки скульптур принадлежит директору музея Станиславу Хоробрых, вдохновлённому
 питерским «Чижиком-Пыжиком».</t>
   </si>
   <si>
-    <t>sirin.jpg</t>
-  </si>
-  <si>
-    <t>Усолье Строгановское</t>
-  </si>
-  <si>
-    <t>https://vk.com/stroganovland</t>
-  </si>
-  <si>
-    <t>информация о боте</t>
-  </si>
-  <si>
-    <t>Чат бот и квест был созда во время Строгановской экспедиции котороая проводилась летом 2025 года. Больше, чем путешествие; Открывая Россию заново</t>
-  </si>
-  <si>
-    <t>btn_back</t>
-  </si>
-  <si>
-    <t>Назад</t>
-  </si>
-  <si>
-    <t>btn_hello</t>
+    <t>Чат-бот и квест были созданы во время Строгановской экспедиции. Экспедиция проводилась летом 2025 года в рамках проектов Открываем Россию заново и «Больше чем путешествие», наставниками выступили сообщество «Развиваем малые города Урала».
+Работа прошла при поддержке Фонда Мельниченко, ООО «ЕвроХим-Усольский калийный комбинат» в тесном сотрудничестве с Березниковским историко-художественным музеем, Центр культурных инициатив "Сирин" - организации, ведущей работу по популяризации историко-культурного наследия Верхнекамья.</t>
+  </si>
+  <si>
+    <t>Один из самых значимых историко-архитектурных памятников Пермского края, напрямую связанный с легендарной династией промышленников и меценатов.
+Первая каменная гражданская постройка на Урале (возведена в 1724 году).
+В этих стенах принимались решения, влиявшие на экономику всей России XVIII-XIX вв.
+Яркий пример русского барокко с элементами петровского зодчества.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,11 +534,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,18 +554,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -663,19 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -693,21 +692,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -760,21 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FF000000"/>
@@ -786,92 +755,111 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1088,12 +1076,12 @@
   <dimension ref="A1:E1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="86.6640625" customWidth="1"/>
     <col min="4" max="4" width="47.33203125" customWidth="1"/>
@@ -1101,7 +1089,7 @@
     <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,3507 +1106,3508 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="C12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C15" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C16" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="C17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C18" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="E18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C19" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="B20" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="C20" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="C22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C23" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="E23" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C24" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E24" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C25" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="D26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="B28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="C28" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E28" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B29" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C29" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="E29" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C30" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="E30" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="C31" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
+      <c r="E31" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C32" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C33" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="C34" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="E34" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C35" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="B36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="C36" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C37" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="C38" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="C39" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C40" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34" t="s">
+      <c r="C41" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="D41" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="36"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>6</v>
+      <c r="C42" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="5" t="s">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="7"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="7"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="7"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="7"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="7"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="7"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="7"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="7"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="7"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="7"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="7"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="7"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="7"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="7"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="7"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="7"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="7"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="7"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="7"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="7"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="7"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="7"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="7"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="7"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="7"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="7"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="7"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="7"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="7"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="7"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="7"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="7"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="7"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="7"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="7"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="7"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="7"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="7"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="7"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="7"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="7"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="7"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="7"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="7"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="7"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="7"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="7"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="7"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="7"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="7"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="7"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="7"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="7"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="7"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="7"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="7"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="7"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="7"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="7"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="7"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="7"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="7"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="7"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="7"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="7"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="7"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="7"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="7"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="7"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="7"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="7"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="7"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="7"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="7"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="7"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="7"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="7"/>
+      <c r="C120" s="5"/>
     </row>
     <row r="121" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="7"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="7"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="7"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="7"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="7"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="7"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="7"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="7"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="7"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="7"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="7"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="7"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="7"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="7"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="7"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="7"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="7"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="7"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="7"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="7"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="7"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="7"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="7"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="7"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="7"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="7"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="7"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="7"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="7"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="7"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="7"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="7"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="7"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="7"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="7"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="7"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="7"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="7"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="7"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="7"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="7"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="7"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="7"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="7"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="7"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="7"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="7"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="7"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="7"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="7"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="7"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="7"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="7"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="7"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="7"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="7"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="7"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="7"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="7"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C180" s="7"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="7"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="7"/>
+      <c r="C182" s="5"/>
     </row>
     <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="7"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="7"/>
+      <c r="C184" s="5"/>
     </row>
     <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C185" s="7"/>
+      <c r="C185" s="5"/>
     </row>
     <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C186" s="7"/>
+      <c r="C186" s="5"/>
     </row>
     <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C187" s="7"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="7"/>
+      <c r="C188" s="5"/>
     </row>
     <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C189" s="7"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C190" s="7"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C191" s="7"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C192" s="7"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="7"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C194" s="7"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C195" s="7"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C196" s="7"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="7"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C198" s="7"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="7"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C200" s="7"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C201" s="7"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="7"/>
+      <c r="C202" s="5"/>
     </row>
     <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C203" s="7"/>
+      <c r="C203" s="5"/>
     </row>
     <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C204" s="7"/>
+      <c r="C204" s="5"/>
     </row>
     <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C205" s="7"/>
+      <c r="C205" s="5"/>
     </row>
     <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C206" s="7"/>
+      <c r="C206" s="5"/>
     </row>
     <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C207" s="7"/>
+      <c r="C207" s="5"/>
     </row>
     <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C208" s="7"/>
+      <c r="C208" s="5"/>
     </row>
     <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="7"/>
+      <c r="C209" s="5"/>
     </row>
     <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C210" s="7"/>
+      <c r="C210" s="5"/>
     </row>
     <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="7"/>
+      <c r="C211" s="5"/>
     </row>
     <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C212" s="7"/>
+      <c r="C212" s="5"/>
     </row>
     <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C213" s="7"/>
+      <c r="C213" s="5"/>
     </row>
     <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="7"/>
+      <c r="C214" s="5"/>
     </row>
     <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="7"/>
+      <c r="C215" s="5"/>
     </row>
     <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="7"/>
+      <c r="C216" s="5"/>
     </row>
     <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C217" s="7"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C218" s="7"/>
+      <c r="C218" s="5"/>
     </row>
     <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C219" s="7"/>
+      <c r="C219" s="5"/>
     </row>
     <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C220" s="7"/>
+      <c r="C220" s="5"/>
     </row>
     <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C221" s="7"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C222" s="7"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C223" s="7"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C224" s="7"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C225" s="7"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C226" s="7"/>
+      <c r="C226" s="5"/>
     </row>
     <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C227" s="7"/>
+      <c r="C227" s="5"/>
     </row>
     <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C228" s="7"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C229" s="7"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C230" s="7"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C231" s="7"/>
+      <c r="C231" s="5"/>
     </row>
     <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="7"/>
+      <c r="C232" s="5"/>
     </row>
     <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C233" s="7"/>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C234" s="7"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C235" s="7"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C236" s="7"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C237" s="7"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C238" s="7"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C239" s="7"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C240" s="7"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C241" s="7"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C242" s="7"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C243" s="7"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C244" s="7"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C245" s="7"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C246" s="7"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C247" s="7"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C248" s="7"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C249" s="7"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C250" s="7"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C251" s="7"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C252" s="7"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C253" s="7"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C254" s="7"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C255" s="7"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C256" s="7"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C257" s="7"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C258" s="7"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C259" s="7"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C260" s="7"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C261" s="7"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C262" s="7"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C263" s="7"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C264" s="7"/>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C265" s="7"/>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C266" s="7"/>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C267" s="7"/>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="7"/>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C269" s="7"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C270" s="7"/>
+      <c r="C270" s="5"/>
     </row>
     <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C271" s="7"/>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C272" s="7"/>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C273" s="7"/>
+      <c r="C273" s="5"/>
     </row>
     <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C274" s="7"/>
+      <c r="C274" s="5"/>
     </row>
     <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C275" s="7"/>
+      <c r="C275" s="5"/>
     </row>
     <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C276" s="7"/>
+      <c r="C276" s="5"/>
     </row>
     <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C277" s="7"/>
+      <c r="C277" s="5"/>
     </row>
     <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C278" s="7"/>
+      <c r="C278" s="5"/>
     </row>
     <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C279" s="7"/>
+      <c r="C279" s="5"/>
     </row>
     <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C280" s="7"/>
+      <c r="C280" s="5"/>
     </row>
     <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C281" s="7"/>
+      <c r="C281" s="5"/>
     </row>
     <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C282" s="7"/>
+      <c r="C282" s="5"/>
     </row>
     <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C283" s="7"/>
+      <c r="C283" s="5"/>
     </row>
     <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C284" s="7"/>
+      <c r="C284" s="5"/>
     </row>
     <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C285" s="7"/>
+      <c r="C285" s="5"/>
     </row>
     <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C286" s="7"/>
+      <c r="C286" s="5"/>
     </row>
     <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C287" s="7"/>
+      <c r="C287" s="5"/>
     </row>
     <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C288" s="7"/>
+      <c r="C288" s="5"/>
     </row>
     <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C289" s="7"/>
+      <c r="C289" s="5"/>
     </row>
     <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C290" s="7"/>
+      <c r="C290" s="5"/>
     </row>
     <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C291" s="7"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C292" s="7"/>
+      <c r="C292" s="5"/>
     </row>
     <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C293" s="7"/>
+      <c r="C293" s="5"/>
     </row>
     <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C294" s="7"/>
+      <c r="C294" s="5"/>
     </row>
     <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C295" s="7"/>
+      <c r="C295" s="5"/>
     </row>
     <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C296" s="7"/>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C297" s="7"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C298" s="7"/>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C299" s="7"/>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C300" s="7"/>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C301" s="7"/>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C302" s="7"/>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C303" s="7"/>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C304" s="7"/>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C305" s="7"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C306" s="7"/>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C307" s="7"/>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C308" s="7"/>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C309" s="7"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C310" s="7"/>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C311" s="7"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C312" s="7"/>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C313" s="7"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C314" s="7"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C315" s="7"/>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C316" s="7"/>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C317" s="7"/>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C318" s="7"/>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C319" s="7"/>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C320" s="7"/>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C321" s="7"/>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C322" s="7"/>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C323" s="7"/>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C324" s="7"/>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C325" s="7"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C326" s="7"/>
+      <c r="C326" s="5"/>
     </row>
     <row r="327" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C327" s="7"/>
+      <c r="C327" s="5"/>
     </row>
     <row r="328" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C328" s="7"/>
+      <c r="C328" s="5"/>
     </row>
     <row r="329" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C329" s="7"/>
+      <c r="C329" s="5"/>
     </row>
     <row r="330" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C330" s="7"/>
+      <c r="C330" s="5"/>
     </row>
     <row r="331" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C331" s="7"/>
+      <c r="C331" s="5"/>
     </row>
     <row r="332" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C332" s="7"/>
+      <c r="C332" s="5"/>
     </row>
     <row r="333" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C333" s="7"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C334" s="7"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C335" s="7"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C336" s="7"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C337" s="7"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C338" s="7"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C339" s="7"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C340" s="7"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C341" s="7"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C342" s="7"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C343" s="7"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C344" s="7"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C345" s="7"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C346" s="7"/>
+      <c r="C346" s="5"/>
     </row>
     <row r="347" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C347" s="7"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C348" s="7"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C349" s="7"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C350" s="7"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C351" s="7"/>
+      <c r="C351" s="5"/>
     </row>
     <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C352" s="7"/>
+      <c r="C352" s="5"/>
     </row>
     <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C353" s="7"/>
+      <c r="C353" s="5"/>
     </row>
     <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C354" s="7"/>
+      <c r="C354" s="5"/>
     </row>
     <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C355" s="7"/>
+      <c r="C355" s="5"/>
     </row>
     <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C356" s="7"/>
+      <c r="C356" s="5"/>
     </row>
     <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C357" s="7"/>
+      <c r="C357" s="5"/>
     </row>
     <row r="358" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C358" s="7"/>
+      <c r="C358" s="5"/>
     </row>
     <row r="359" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C359" s="7"/>
+      <c r="C359" s="5"/>
     </row>
     <row r="360" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C360" s="7"/>
+      <c r="C360" s="5"/>
     </row>
     <row r="361" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C361" s="7"/>
+      <c r="C361" s="5"/>
     </row>
     <row r="362" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C362" s="7"/>
+      <c r="C362" s="5"/>
     </row>
     <row r="363" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C363" s="7"/>
+      <c r="C363" s="5"/>
     </row>
     <row r="364" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C364" s="7"/>
+      <c r="C364" s="5"/>
     </row>
     <row r="365" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C365" s="7"/>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C366" s="7"/>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C367" s="7"/>
+      <c r="C367" s="5"/>
     </row>
     <row r="368" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C368" s="7"/>
+      <c r="C368" s="5"/>
     </row>
     <row r="369" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C369" s="7"/>
+      <c r="C369" s="5"/>
     </row>
     <row r="370" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C370" s="7"/>
+      <c r="C370" s="5"/>
     </row>
     <row r="371" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C371" s="7"/>
+      <c r="C371" s="5"/>
     </row>
     <row r="372" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C372" s="7"/>
+      <c r="C372" s="5"/>
     </row>
     <row r="373" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C373" s="7"/>
+      <c r="C373" s="5"/>
     </row>
     <row r="374" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C374" s="7"/>
+      <c r="C374" s="5"/>
     </row>
     <row r="375" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C375" s="7"/>
+      <c r="C375" s="5"/>
     </row>
     <row r="376" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C376" s="7"/>
+      <c r="C376" s="5"/>
     </row>
     <row r="377" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C377" s="7"/>
+      <c r="C377" s="5"/>
     </row>
     <row r="378" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C378" s="7"/>
+      <c r="C378" s="5"/>
     </row>
     <row r="379" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C379" s="7"/>
+      <c r="C379" s="5"/>
     </row>
     <row r="380" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C380" s="7"/>
+      <c r="C380" s="5"/>
     </row>
     <row r="381" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C381" s="7"/>
+      <c r="C381" s="5"/>
     </row>
     <row r="382" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C382" s="7"/>
+      <c r="C382" s="5"/>
     </row>
     <row r="383" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C383" s="7"/>
+      <c r="C383" s="5"/>
     </row>
     <row r="384" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C384" s="7"/>
+      <c r="C384" s="5"/>
     </row>
     <row r="385" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C385" s="7"/>
+      <c r="C385" s="5"/>
     </row>
     <row r="386" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C386" s="7"/>
+      <c r="C386" s="5"/>
     </row>
     <row r="387" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C387" s="7"/>
+      <c r="C387" s="5"/>
     </row>
     <row r="388" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C388" s="7"/>
+      <c r="C388" s="5"/>
     </row>
     <row r="389" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C389" s="7"/>
+      <c r="C389" s="5"/>
     </row>
     <row r="390" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C390" s="7"/>
+      <c r="C390" s="5"/>
     </row>
     <row r="391" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C391" s="7"/>
+      <c r="C391" s="5"/>
     </row>
     <row r="392" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C392" s="7"/>
+      <c r="C392" s="5"/>
     </row>
     <row r="393" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C393" s="7"/>
+      <c r="C393" s="5"/>
     </row>
     <row r="394" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C394" s="7"/>
+      <c r="C394" s="5"/>
     </row>
     <row r="395" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C395" s="7"/>
+      <c r="C395" s="5"/>
     </row>
     <row r="396" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C396" s="7"/>
+      <c r="C396" s="5"/>
     </row>
     <row r="397" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C397" s="7"/>
+      <c r="C397" s="5"/>
     </row>
     <row r="398" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C398" s="7"/>
+      <c r="C398" s="5"/>
     </row>
     <row r="399" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C399" s="7"/>
+      <c r="C399" s="5"/>
     </row>
     <row r="400" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C400" s="7"/>
+      <c r="C400" s="5"/>
     </row>
     <row r="401" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C401" s="7"/>
+      <c r="C401" s="5"/>
     </row>
     <row r="402" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C402" s="7"/>
+      <c r="C402" s="5"/>
     </row>
     <row r="403" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C403" s="7"/>
+      <c r="C403" s="5"/>
     </row>
     <row r="404" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C404" s="7"/>
+      <c r="C404" s="5"/>
     </row>
     <row r="405" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C405" s="7"/>
+      <c r="C405" s="5"/>
     </row>
     <row r="406" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C406" s="7"/>
+      <c r="C406" s="5"/>
     </row>
     <row r="407" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C407" s="7"/>
+      <c r="C407" s="5"/>
     </row>
     <row r="408" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C408" s="7"/>
+      <c r="C408" s="5"/>
     </row>
     <row r="409" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C409" s="7"/>
+      <c r="C409" s="5"/>
     </row>
     <row r="410" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C410" s="7"/>
+      <c r="C410" s="5"/>
     </row>
     <row r="411" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C411" s="7"/>
+      <c r="C411" s="5"/>
     </row>
     <row r="412" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C412" s="7"/>
+      <c r="C412" s="5"/>
     </row>
     <row r="413" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C413" s="7"/>
+      <c r="C413" s="5"/>
     </row>
     <row r="414" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C414" s="7"/>
+      <c r="C414" s="5"/>
     </row>
     <row r="415" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C415" s="7"/>
+      <c r="C415" s="5"/>
     </row>
     <row r="416" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C416" s="7"/>
+      <c r="C416" s="5"/>
     </row>
     <row r="417" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C417" s="7"/>
+      <c r="C417" s="5"/>
     </row>
     <row r="418" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C418" s="7"/>
+      <c r="C418" s="5"/>
     </row>
     <row r="419" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C419" s="7"/>
+      <c r="C419" s="5"/>
     </row>
     <row r="420" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C420" s="7"/>
+      <c r="C420" s="5"/>
     </row>
     <row r="421" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C421" s="7"/>
+      <c r="C421" s="5"/>
     </row>
     <row r="422" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C422" s="7"/>
+      <c r="C422" s="5"/>
     </row>
     <row r="423" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C423" s="7"/>
+      <c r="C423" s="5"/>
     </row>
     <row r="424" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C424" s="7"/>
+      <c r="C424" s="5"/>
     </row>
     <row r="425" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C425" s="7"/>
+      <c r="C425" s="5"/>
     </row>
     <row r="426" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C426" s="7"/>
+      <c r="C426" s="5"/>
     </row>
     <row r="427" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C427" s="7"/>
+      <c r="C427" s="5"/>
     </row>
     <row r="428" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C428" s="7"/>
+      <c r="C428" s="5"/>
     </row>
     <row r="429" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C429" s="7"/>
+      <c r="C429" s="5"/>
     </row>
     <row r="430" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C430" s="7"/>
+      <c r="C430" s="5"/>
     </row>
     <row r="431" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C431" s="7"/>
+      <c r="C431" s="5"/>
     </row>
     <row r="432" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C432" s="7"/>
+      <c r="C432" s="5"/>
     </row>
     <row r="433" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C433" s="7"/>
+      <c r="C433" s="5"/>
     </row>
     <row r="434" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C434" s="7"/>
+      <c r="C434" s="5"/>
     </row>
     <row r="435" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C435" s="7"/>
+      <c r="C435" s="5"/>
     </row>
     <row r="436" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C436" s="7"/>
+      <c r="C436" s="5"/>
     </row>
     <row r="437" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C437" s="7"/>
+      <c r="C437" s="5"/>
     </row>
     <row r="438" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C438" s="7"/>
+      <c r="C438" s="5"/>
     </row>
     <row r="439" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C439" s="7"/>
+      <c r="C439" s="5"/>
     </row>
     <row r="440" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C440" s="7"/>
+      <c r="C440" s="5"/>
     </row>
     <row r="441" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C441" s="7"/>
+      <c r="C441" s="5"/>
     </row>
     <row r="442" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C442" s="7"/>
+      <c r="C442" s="5"/>
     </row>
     <row r="443" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C443" s="7"/>
+      <c r="C443" s="5"/>
     </row>
     <row r="444" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C444" s="7"/>
+      <c r="C444" s="5"/>
     </row>
     <row r="445" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C445" s="7"/>
+      <c r="C445" s="5"/>
     </row>
     <row r="446" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C446" s="7"/>
+      <c r="C446" s="5"/>
     </row>
     <row r="447" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C447" s="7"/>
+      <c r="C447" s="5"/>
     </row>
     <row r="448" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C448" s="7"/>
+      <c r="C448" s="5"/>
     </row>
     <row r="449" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C449" s="7"/>
+      <c r="C449" s="5"/>
     </row>
     <row r="450" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C450" s="7"/>
+      <c r="C450" s="5"/>
     </row>
     <row r="451" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C451" s="7"/>
+      <c r="C451" s="5"/>
     </row>
     <row r="452" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C452" s="7"/>
+      <c r="C452" s="5"/>
     </row>
     <row r="453" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C453" s="7"/>
+      <c r="C453" s="5"/>
     </row>
     <row r="454" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C454" s="7"/>
+      <c r="C454" s="5"/>
     </row>
     <row r="455" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C455" s="7"/>
+      <c r="C455" s="5"/>
     </row>
     <row r="456" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C456" s="7"/>
+      <c r="C456" s="5"/>
     </row>
     <row r="457" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C457" s="7"/>
+      <c r="C457" s="5"/>
     </row>
     <row r="458" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C458" s="7"/>
+      <c r="C458" s="5"/>
     </row>
     <row r="459" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C459" s="7"/>
+      <c r="C459" s="5"/>
     </row>
     <row r="460" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C460" s="7"/>
+      <c r="C460" s="5"/>
     </row>
     <row r="461" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C461" s="7"/>
+      <c r="C461" s="5"/>
     </row>
     <row r="462" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C462" s="7"/>
+      <c r="C462" s="5"/>
     </row>
     <row r="463" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C463" s="7"/>
+      <c r="C463" s="5"/>
     </row>
     <row r="464" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C464" s="7"/>
+      <c r="C464" s="5"/>
     </row>
     <row r="465" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C465" s="7"/>
+      <c r="C465" s="5"/>
     </row>
     <row r="466" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C466" s="7"/>
+      <c r="C466" s="5"/>
     </row>
     <row r="467" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C467" s="7"/>
+      <c r="C467" s="5"/>
     </row>
     <row r="468" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C468" s="7"/>
+      <c r="C468" s="5"/>
     </row>
     <row r="469" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C469" s="7"/>
+      <c r="C469" s="5"/>
     </row>
     <row r="470" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C470" s="7"/>
+      <c r="C470" s="5"/>
     </row>
     <row r="471" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C471" s="7"/>
+      <c r="C471" s="5"/>
     </row>
     <row r="472" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C472" s="7"/>
+      <c r="C472" s="5"/>
     </row>
     <row r="473" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C473" s="7"/>
+      <c r="C473" s="5"/>
     </row>
     <row r="474" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C474" s="7"/>
+      <c r="C474" s="5"/>
     </row>
     <row r="475" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C475" s="7"/>
+      <c r="C475" s="5"/>
     </row>
     <row r="476" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C476" s="7"/>
+      <c r="C476" s="5"/>
     </row>
     <row r="477" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C477" s="7"/>
+      <c r="C477" s="5"/>
     </row>
     <row r="478" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C478" s="7"/>
+      <c r="C478" s="5"/>
     </row>
     <row r="479" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C479" s="7"/>
+      <c r="C479" s="5"/>
     </row>
     <row r="480" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C480" s="7"/>
+      <c r="C480" s="5"/>
     </row>
     <row r="481" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C481" s="7"/>
+      <c r="C481" s="5"/>
     </row>
     <row r="482" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C482" s="7"/>
+      <c r="C482" s="5"/>
     </row>
     <row r="483" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C483" s="7"/>
+      <c r="C483" s="5"/>
     </row>
     <row r="484" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C484" s="7"/>
+      <c r="C484" s="5"/>
     </row>
     <row r="485" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C485" s="7"/>
+      <c r="C485" s="5"/>
     </row>
     <row r="486" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C486" s="7"/>
+      <c r="C486" s="5"/>
     </row>
     <row r="487" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C487" s="7"/>
+      <c r="C487" s="5"/>
     </row>
     <row r="488" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C488" s="7"/>
+      <c r="C488" s="5"/>
     </row>
     <row r="489" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C489" s="7"/>
+      <c r="C489" s="5"/>
     </row>
     <row r="490" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C490" s="7"/>
+      <c r="C490" s="5"/>
     </row>
     <row r="491" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C491" s="7"/>
+      <c r="C491" s="5"/>
     </row>
     <row r="492" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C492" s="7"/>
+      <c r="C492" s="5"/>
     </row>
     <row r="493" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C493" s="7"/>
+      <c r="C493" s="5"/>
     </row>
     <row r="494" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C494" s="7"/>
+      <c r="C494" s="5"/>
     </row>
     <row r="495" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C495" s="7"/>
+      <c r="C495" s="5"/>
     </row>
     <row r="496" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C496" s="7"/>
+      <c r="C496" s="5"/>
     </row>
     <row r="497" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C497" s="7"/>
+      <c r="C497" s="5"/>
     </row>
     <row r="498" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C498" s="7"/>
+      <c r="C498" s="5"/>
     </row>
     <row r="499" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C499" s="7"/>
+      <c r="C499" s="5"/>
     </row>
     <row r="500" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C500" s="7"/>
+      <c r="C500" s="5"/>
     </row>
     <row r="501" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C501" s="7"/>
+      <c r="C501" s="5"/>
     </row>
     <row r="502" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C502" s="7"/>
+      <c r="C502" s="5"/>
     </row>
     <row r="503" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C503" s="7"/>
+      <c r="C503" s="5"/>
     </row>
     <row r="504" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C504" s="7"/>
+      <c r="C504" s="5"/>
     </row>
     <row r="505" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C505" s="7"/>
+      <c r="C505" s="5"/>
     </row>
     <row r="506" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C506" s="7"/>
+      <c r="C506" s="5"/>
     </row>
     <row r="507" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C507" s="7"/>
+      <c r="C507" s="5"/>
     </row>
     <row r="508" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C508" s="7"/>
+      <c r="C508" s="5"/>
     </row>
     <row r="509" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C509" s="7"/>
+      <c r="C509" s="5"/>
     </row>
     <row r="510" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C510" s="7"/>
+      <c r="C510" s="5"/>
     </row>
     <row r="511" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C511" s="7"/>
+      <c r="C511" s="5"/>
     </row>
     <row r="512" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C512" s="7"/>
+      <c r="C512" s="5"/>
     </row>
     <row r="513" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C513" s="7"/>
+      <c r="C513" s="5"/>
     </row>
     <row r="514" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C514" s="7"/>
+      <c r="C514" s="5"/>
     </row>
     <row r="515" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C515" s="7"/>
+      <c r="C515" s="5"/>
     </row>
     <row r="516" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C516" s="7"/>
+      <c r="C516" s="5"/>
     </row>
     <row r="517" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C517" s="7"/>
+      <c r="C517" s="5"/>
     </row>
     <row r="518" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C518" s="7"/>
+      <c r="C518" s="5"/>
     </row>
     <row r="519" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C519" s="7"/>
+      <c r="C519" s="5"/>
     </row>
     <row r="520" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C520" s="7"/>
+      <c r="C520" s="5"/>
     </row>
     <row r="521" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C521" s="7"/>
+      <c r="C521" s="5"/>
     </row>
     <row r="522" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C522" s="7"/>
+      <c r="C522" s="5"/>
     </row>
     <row r="523" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C523" s="7"/>
+      <c r="C523" s="5"/>
     </row>
     <row r="524" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C524" s="7"/>
+      <c r="C524" s="5"/>
     </row>
     <row r="525" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C525" s="7"/>
+      <c r="C525" s="5"/>
     </row>
     <row r="526" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C526" s="7"/>
+      <c r="C526" s="5"/>
     </row>
     <row r="527" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C527" s="7"/>
+      <c r="C527" s="5"/>
     </row>
     <row r="528" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C528" s="7"/>
+      <c r="C528" s="5"/>
     </row>
     <row r="529" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C529" s="7"/>
+      <c r="C529" s="5"/>
     </row>
     <row r="530" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C530" s="7"/>
+      <c r="C530" s="5"/>
     </row>
     <row r="531" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C531" s="7"/>
+      <c r="C531" s="5"/>
     </row>
     <row r="532" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C532" s="7"/>
+      <c r="C532" s="5"/>
     </row>
     <row r="533" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C533" s="7"/>
+      <c r="C533" s="5"/>
     </row>
     <row r="534" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C534" s="7"/>
+      <c r="C534" s="5"/>
     </row>
     <row r="535" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C535" s="7"/>
+      <c r="C535" s="5"/>
     </row>
     <row r="536" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C536" s="7"/>
+      <c r="C536" s="5"/>
     </row>
     <row r="537" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C537" s="7"/>
+      <c r="C537" s="5"/>
     </row>
     <row r="538" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C538" s="7"/>
+      <c r="C538" s="5"/>
     </row>
     <row r="539" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C539" s="7"/>
+      <c r="C539" s="5"/>
     </row>
     <row r="540" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C540" s="7"/>
+      <c r="C540" s="5"/>
     </row>
     <row r="541" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C541" s="7"/>
+      <c r="C541" s="5"/>
     </row>
     <row r="542" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C542" s="7"/>
+      <c r="C542" s="5"/>
     </row>
     <row r="543" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C543" s="7"/>
+      <c r="C543" s="5"/>
     </row>
     <row r="544" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C544" s="7"/>
+      <c r="C544" s="5"/>
     </row>
     <row r="545" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C545" s="7"/>
+      <c r="C545" s="5"/>
     </row>
     <row r="546" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C546" s="7"/>
+      <c r="C546" s="5"/>
     </row>
     <row r="547" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C547" s="7"/>
+      <c r="C547" s="5"/>
     </row>
     <row r="548" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C548" s="7"/>
+      <c r="C548" s="5"/>
     </row>
     <row r="549" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C549" s="7"/>
+      <c r="C549" s="5"/>
     </row>
     <row r="550" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C550" s="7"/>
+      <c r="C550" s="5"/>
     </row>
     <row r="551" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C551" s="7"/>
+      <c r="C551" s="5"/>
     </row>
     <row r="552" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C552" s="7"/>
+      <c r="C552" s="5"/>
     </row>
     <row r="553" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C553" s="7"/>
+      <c r="C553" s="5"/>
     </row>
     <row r="554" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C554" s="7"/>
+      <c r="C554" s="5"/>
     </row>
     <row r="555" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C555" s="7"/>
+      <c r="C555" s="5"/>
     </row>
     <row r="556" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C556" s="7"/>
+      <c r="C556" s="5"/>
     </row>
     <row r="557" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C557" s="7"/>
+      <c r="C557" s="5"/>
     </row>
     <row r="558" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C558" s="7"/>
+      <c r="C558" s="5"/>
     </row>
     <row r="559" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C559" s="7"/>
+      <c r="C559" s="5"/>
     </row>
     <row r="560" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C560" s="7"/>
+      <c r="C560" s="5"/>
     </row>
     <row r="561" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C561" s="7"/>
+      <c r="C561" s="5"/>
     </row>
     <row r="562" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C562" s="7"/>
+      <c r="C562" s="5"/>
     </row>
     <row r="563" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C563" s="7"/>
+      <c r="C563" s="5"/>
     </row>
     <row r="564" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C564" s="7"/>
+      <c r="C564" s="5"/>
     </row>
     <row r="565" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C565" s="7"/>
+      <c r="C565" s="5"/>
     </row>
     <row r="566" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C566" s="7"/>
+      <c r="C566" s="5"/>
     </row>
     <row r="567" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C567" s="7"/>
+      <c r="C567" s="5"/>
     </row>
     <row r="568" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C568" s="7"/>
+      <c r="C568" s="5"/>
     </row>
     <row r="569" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C569" s="7"/>
+      <c r="C569" s="5"/>
     </row>
     <row r="570" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C570" s="7"/>
+      <c r="C570" s="5"/>
     </row>
     <row r="571" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C571" s="7"/>
+      <c r="C571" s="5"/>
     </row>
     <row r="572" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C572" s="7"/>
+      <c r="C572" s="5"/>
     </row>
     <row r="573" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C573" s="7"/>
+      <c r="C573" s="5"/>
     </row>
     <row r="574" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C574" s="7"/>
+      <c r="C574" s="5"/>
     </row>
     <row r="575" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C575" s="7"/>
+      <c r="C575" s="5"/>
     </row>
     <row r="576" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C576" s="7"/>
+      <c r="C576" s="5"/>
     </row>
     <row r="577" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C577" s="7"/>
+      <c r="C577" s="5"/>
     </row>
     <row r="578" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C578" s="7"/>
+      <c r="C578" s="5"/>
     </row>
     <row r="579" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C579" s="7"/>
+      <c r="C579" s="5"/>
     </row>
     <row r="580" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C580" s="7"/>
+      <c r="C580" s="5"/>
     </row>
     <row r="581" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C581" s="7"/>
+      <c r="C581" s="5"/>
     </row>
     <row r="582" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C582" s="7"/>
+      <c r="C582" s="5"/>
     </row>
     <row r="583" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C583" s="7"/>
+      <c r="C583" s="5"/>
     </row>
     <row r="584" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C584" s="7"/>
+      <c r="C584" s="5"/>
     </row>
     <row r="585" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C585" s="7"/>
+      <c r="C585" s="5"/>
     </row>
     <row r="586" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C586" s="7"/>
+      <c r="C586" s="5"/>
     </row>
     <row r="587" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C587" s="7"/>
+      <c r="C587" s="5"/>
     </row>
     <row r="588" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C588" s="7"/>
+      <c r="C588" s="5"/>
     </row>
     <row r="589" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C589" s="7"/>
+      <c r="C589" s="5"/>
     </row>
     <row r="590" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C590" s="7"/>
+      <c r="C590" s="5"/>
     </row>
     <row r="591" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C591" s="7"/>
+      <c r="C591" s="5"/>
     </row>
     <row r="592" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C592" s="7"/>
+      <c r="C592" s="5"/>
     </row>
     <row r="593" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C593" s="7"/>
+      <c r="C593" s="5"/>
     </row>
     <row r="594" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C594" s="7"/>
+      <c r="C594" s="5"/>
     </row>
     <row r="595" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C595" s="7"/>
+      <c r="C595" s="5"/>
     </row>
     <row r="596" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C596" s="7"/>
+      <c r="C596" s="5"/>
     </row>
     <row r="597" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C597" s="7"/>
+      <c r="C597" s="5"/>
     </row>
     <row r="598" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C598" s="7"/>
+      <c r="C598" s="5"/>
     </row>
     <row r="599" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C599" s="7"/>
+      <c r="C599" s="5"/>
     </row>
     <row r="600" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C600" s="7"/>
+      <c r="C600" s="5"/>
     </row>
     <row r="601" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C601" s="7"/>
+      <c r="C601" s="5"/>
     </row>
     <row r="602" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C602" s="7"/>
+      <c r="C602" s="5"/>
     </row>
     <row r="603" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C603" s="7"/>
+      <c r="C603" s="5"/>
     </row>
     <row r="604" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C604" s="7"/>
+      <c r="C604" s="5"/>
     </row>
     <row r="605" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C605" s="7"/>
+      <c r="C605" s="5"/>
     </row>
     <row r="606" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C606" s="7"/>
+      <c r="C606" s="5"/>
     </row>
     <row r="607" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C607" s="7"/>
+      <c r="C607" s="5"/>
     </row>
     <row r="608" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C608" s="7"/>
+      <c r="C608" s="5"/>
     </row>
     <row r="609" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C609" s="7"/>
+      <c r="C609" s="5"/>
     </row>
     <row r="610" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C610" s="7"/>
+      <c r="C610" s="5"/>
     </row>
     <row r="611" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C611" s="7"/>
+      <c r="C611" s="5"/>
     </row>
     <row r="612" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C612" s="7"/>
+      <c r="C612" s="5"/>
     </row>
     <row r="613" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C613" s="7"/>
+      <c r="C613" s="5"/>
     </row>
     <row r="614" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C614" s="7"/>
+      <c r="C614" s="5"/>
     </row>
     <row r="615" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C615" s="7"/>
+      <c r="C615" s="5"/>
     </row>
     <row r="616" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C616" s="7"/>
+      <c r="C616" s="5"/>
     </row>
     <row r="617" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C617" s="7"/>
+      <c r="C617" s="5"/>
     </row>
     <row r="618" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C618" s="7"/>
+      <c r="C618" s="5"/>
     </row>
     <row r="619" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C619" s="7"/>
+      <c r="C619" s="5"/>
     </row>
     <row r="620" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C620" s="7"/>
+      <c r="C620" s="5"/>
     </row>
     <row r="621" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C621" s="7"/>
+      <c r="C621" s="5"/>
     </row>
     <row r="622" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C622" s="7"/>
+      <c r="C622" s="5"/>
     </row>
     <row r="623" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C623" s="7"/>
+      <c r="C623" s="5"/>
     </row>
     <row r="624" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C624" s="7"/>
+      <c r="C624" s="5"/>
     </row>
     <row r="625" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C625" s="7"/>
+      <c r="C625" s="5"/>
     </row>
     <row r="626" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C626" s="7"/>
+      <c r="C626" s="5"/>
     </row>
     <row r="627" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C627" s="7"/>
+      <c r="C627" s="5"/>
     </row>
     <row r="628" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C628" s="7"/>
+      <c r="C628" s="5"/>
     </row>
     <row r="629" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C629" s="7"/>
+      <c r="C629" s="5"/>
     </row>
     <row r="630" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C630" s="7"/>
+      <c r="C630" s="5"/>
     </row>
     <row r="631" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C631" s="7"/>
+      <c r="C631" s="5"/>
     </row>
     <row r="632" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C632" s="7"/>
+      <c r="C632" s="5"/>
     </row>
     <row r="633" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C633" s="7"/>
+      <c r="C633" s="5"/>
     </row>
     <row r="634" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C634" s="7"/>
+      <c r="C634" s="5"/>
     </row>
     <row r="635" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C635" s="7"/>
+      <c r="C635" s="5"/>
     </row>
     <row r="636" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C636" s="7"/>
+      <c r="C636" s="5"/>
     </row>
     <row r="637" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C637" s="7"/>
+      <c r="C637" s="5"/>
     </row>
     <row r="638" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C638" s="7"/>
+      <c r="C638" s="5"/>
     </row>
     <row r="639" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C639" s="7"/>
+      <c r="C639" s="5"/>
     </row>
     <row r="640" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C640" s="7"/>
+      <c r="C640" s="5"/>
     </row>
     <row r="641" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C641" s="7"/>
+      <c r="C641" s="5"/>
     </row>
     <row r="642" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C642" s="7"/>
+      <c r="C642" s="5"/>
     </row>
     <row r="643" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C643" s="7"/>
+      <c r="C643" s="5"/>
     </row>
     <row r="644" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C644" s="7"/>
+      <c r="C644" s="5"/>
     </row>
     <row r="645" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C645" s="7"/>
+      <c r="C645" s="5"/>
     </row>
     <row r="646" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C646" s="7"/>
+      <c r="C646" s="5"/>
     </row>
     <row r="647" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C647" s="7"/>
+      <c r="C647" s="5"/>
     </row>
     <row r="648" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C648" s="7"/>
+      <c r="C648" s="5"/>
     </row>
     <row r="649" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C649" s="7"/>
+      <c r="C649" s="5"/>
     </row>
     <row r="650" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C650" s="7"/>
+      <c r="C650" s="5"/>
     </row>
     <row r="651" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C651" s="7"/>
+      <c r="C651" s="5"/>
     </row>
     <row r="652" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C652" s="7"/>
+      <c r="C652" s="5"/>
     </row>
     <row r="653" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C653" s="7"/>
+      <c r="C653" s="5"/>
     </row>
     <row r="654" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C654" s="7"/>
+      <c r="C654" s="5"/>
     </row>
     <row r="655" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C655" s="7"/>
+      <c r="C655" s="5"/>
     </row>
     <row r="656" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C656" s="7"/>
+      <c r="C656" s="5"/>
     </row>
     <row r="657" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C657" s="7"/>
+      <c r="C657" s="5"/>
     </row>
     <row r="658" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C658" s="7"/>
+      <c r="C658" s="5"/>
     </row>
     <row r="659" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C659" s="7"/>
+      <c r="C659" s="5"/>
     </row>
     <row r="660" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C660" s="7"/>
+      <c r="C660" s="5"/>
     </row>
     <row r="661" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C661" s="7"/>
+      <c r="C661" s="5"/>
     </row>
     <row r="662" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C662" s="7"/>
+      <c r="C662" s="5"/>
     </row>
     <row r="663" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C663" s="7"/>
+      <c r="C663" s="5"/>
     </row>
     <row r="664" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C664" s="7"/>
+      <c r="C664" s="5"/>
     </row>
     <row r="665" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C665" s="7"/>
+      <c r="C665" s="5"/>
     </row>
     <row r="666" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C666" s="7"/>
+      <c r="C666" s="5"/>
     </row>
     <row r="667" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C667" s="7"/>
+      <c r="C667" s="5"/>
     </row>
     <row r="668" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C668" s="7"/>
+      <c r="C668" s="5"/>
     </row>
     <row r="669" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C669" s="7"/>
+      <c r="C669" s="5"/>
     </row>
     <row r="670" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C670" s="7"/>
+      <c r="C670" s="5"/>
     </row>
     <row r="671" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C671" s="7"/>
+      <c r="C671" s="5"/>
     </row>
     <row r="672" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C672" s="7"/>
+      <c r="C672" s="5"/>
     </row>
     <row r="673" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C673" s="7"/>
+      <c r="C673" s="5"/>
     </row>
     <row r="674" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C674" s="7"/>
+      <c r="C674" s="5"/>
     </row>
     <row r="675" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C675" s="7"/>
+      <c r="C675" s="5"/>
     </row>
     <row r="676" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C676" s="7"/>
+      <c r="C676" s="5"/>
     </row>
     <row r="677" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C677" s="7"/>
+      <c r="C677" s="5"/>
     </row>
     <row r="678" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C678" s="7"/>
+      <c r="C678" s="5"/>
     </row>
     <row r="679" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C679" s="7"/>
+      <c r="C679" s="5"/>
     </row>
     <row r="680" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C680" s="7"/>
+      <c r="C680" s="5"/>
     </row>
     <row r="681" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C681" s="7"/>
+      <c r="C681" s="5"/>
     </row>
     <row r="682" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C682" s="7"/>
+      <c r="C682" s="5"/>
     </row>
     <row r="683" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C683" s="7"/>
+      <c r="C683" s="5"/>
     </row>
     <row r="684" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C684" s="7"/>
+      <c r="C684" s="5"/>
     </row>
     <row r="685" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C685" s="7"/>
+      <c r="C685" s="5"/>
     </row>
     <row r="686" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C686" s="7"/>
+      <c r="C686" s="5"/>
     </row>
     <row r="687" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C687" s="7"/>
+      <c r="C687" s="5"/>
     </row>
     <row r="688" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C688" s="7"/>
+      <c r="C688" s="5"/>
     </row>
     <row r="689" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C689" s="7"/>
+      <c r="C689" s="5"/>
     </row>
     <row r="690" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C690" s="7"/>
+      <c r="C690" s="5"/>
     </row>
     <row r="691" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C691" s="7"/>
+      <c r="C691" s="5"/>
     </row>
     <row r="692" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C692" s="7"/>
+      <c r="C692" s="5"/>
     </row>
     <row r="693" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C693" s="7"/>
+      <c r="C693" s="5"/>
     </row>
     <row r="694" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C694" s="7"/>
+      <c r="C694" s="5"/>
     </row>
     <row r="695" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C695" s="7"/>
+      <c r="C695" s="5"/>
     </row>
     <row r="696" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C696" s="7"/>
+      <c r="C696" s="5"/>
     </row>
     <row r="697" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C697" s="7"/>
+      <c r="C697" s="5"/>
     </row>
     <row r="698" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C698" s="7"/>
+      <c r="C698" s="5"/>
     </row>
     <row r="699" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C699" s="7"/>
+      <c r="C699" s="5"/>
     </row>
     <row r="700" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C700" s="7"/>
+      <c r="C700" s="5"/>
     </row>
     <row r="701" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C701" s="7"/>
+      <c r="C701" s="5"/>
     </row>
     <row r="702" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C702" s="7"/>
+      <c r="C702" s="5"/>
     </row>
     <row r="703" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C703" s="7"/>
+      <c r="C703" s="5"/>
     </row>
     <row r="704" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C704" s="7"/>
+      <c r="C704" s="5"/>
     </row>
     <row r="705" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C705" s="7"/>
+      <c r="C705" s="5"/>
     </row>
     <row r="706" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C706" s="7"/>
+      <c r="C706" s="5"/>
     </row>
     <row r="707" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C707" s="7"/>
+      <c r="C707" s="5"/>
     </row>
     <row r="708" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C708" s="7"/>
+      <c r="C708" s="5"/>
     </row>
     <row r="709" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C709" s="7"/>
+      <c r="C709" s="5"/>
     </row>
     <row r="710" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C710" s="7"/>
+      <c r="C710" s="5"/>
     </row>
     <row r="711" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C711" s="7"/>
+      <c r="C711" s="5"/>
     </row>
     <row r="712" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C712" s="7"/>
+      <c r="C712" s="5"/>
     </row>
     <row r="713" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C713" s="7"/>
+      <c r="C713" s="5"/>
     </row>
     <row r="714" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C714" s="7"/>
+      <c r="C714" s="5"/>
     </row>
     <row r="715" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C715" s="7"/>
+      <c r="C715" s="5"/>
     </row>
     <row r="716" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C716" s="7"/>
+      <c r="C716" s="5"/>
     </row>
     <row r="717" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C717" s="7"/>
+      <c r="C717" s="5"/>
     </row>
     <row r="718" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C718" s="7"/>
+      <c r="C718" s="5"/>
     </row>
     <row r="719" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C719" s="7"/>
+      <c r="C719" s="5"/>
     </row>
     <row r="720" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C720" s="7"/>
+      <c r="C720" s="5"/>
     </row>
     <row r="721" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C721" s="7"/>
+      <c r="C721" s="5"/>
     </row>
     <row r="722" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C722" s="7"/>
+      <c r="C722" s="5"/>
     </row>
     <row r="723" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C723" s="7"/>
+      <c r="C723" s="5"/>
     </row>
     <row r="724" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C724" s="7"/>
+      <c r="C724" s="5"/>
     </row>
     <row r="725" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C725" s="7"/>
+      <c r="C725" s="5"/>
     </row>
     <row r="726" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C726" s="7"/>
+      <c r="C726" s="5"/>
     </row>
     <row r="727" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C727" s="7"/>
+      <c r="C727" s="5"/>
     </row>
     <row r="728" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C728" s="7"/>
+      <c r="C728" s="5"/>
     </row>
     <row r="729" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C729" s="7"/>
+      <c r="C729" s="5"/>
     </row>
     <row r="730" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C730" s="7"/>
+      <c r="C730" s="5"/>
     </row>
     <row r="731" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C731" s="7"/>
+      <c r="C731" s="5"/>
     </row>
     <row r="732" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C732" s="7"/>
+      <c r="C732" s="5"/>
     </row>
     <row r="733" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C733" s="7"/>
+      <c r="C733" s="5"/>
     </row>
     <row r="734" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C734" s="7"/>
+      <c r="C734" s="5"/>
     </row>
     <row r="735" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C735" s="7"/>
+      <c r="C735" s="5"/>
     </row>
     <row r="736" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C736" s="7"/>
+      <c r="C736" s="5"/>
     </row>
     <row r="737" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C737" s="7"/>
+      <c r="C737" s="5"/>
     </row>
     <row r="738" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C738" s="7"/>
+      <c r="C738" s="5"/>
     </row>
     <row r="739" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C739" s="7"/>
+      <c r="C739" s="5"/>
     </row>
     <row r="740" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C740" s="7"/>
+      <c r="C740" s="5"/>
     </row>
     <row r="741" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C741" s="7"/>
+      <c r="C741" s="5"/>
     </row>
     <row r="742" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C742" s="7"/>
+      <c r="C742" s="5"/>
     </row>
     <row r="743" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C743" s="7"/>
+      <c r="C743" s="5"/>
     </row>
     <row r="744" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C744" s="7"/>
+      <c r="C744" s="5"/>
     </row>
     <row r="745" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C745" s="7"/>
+      <c r="C745" s="5"/>
     </row>
     <row r="746" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C746" s="7"/>
+      <c r="C746" s="5"/>
     </row>
     <row r="747" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C747" s="7"/>
+      <c r="C747" s="5"/>
     </row>
     <row r="748" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C748" s="7"/>
+      <c r="C748" s="5"/>
     </row>
     <row r="749" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C749" s="7"/>
+      <c r="C749" s="5"/>
     </row>
     <row r="750" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C750" s="7"/>
+      <c r="C750" s="5"/>
     </row>
     <row r="751" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C751" s="7"/>
+      <c r="C751" s="5"/>
     </row>
     <row r="752" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C752" s="7"/>
+      <c r="C752" s="5"/>
     </row>
     <row r="753" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C753" s="7"/>
+      <c r="C753" s="5"/>
     </row>
     <row r="754" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C754" s="7"/>
+      <c r="C754" s="5"/>
     </row>
     <row r="755" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C755" s="7"/>
+      <c r="C755" s="5"/>
     </row>
     <row r="756" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C756" s="7"/>
+      <c r="C756" s="5"/>
     </row>
     <row r="757" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C757" s="7"/>
+      <c r="C757" s="5"/>
     </row>
     <row r="758" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C758" s="7"/>
+      <c r="C758" s="5"/>
     </row>
     <row r="759" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C759" s="7"/>
+      <c r="C759" s="5"/>
     </row>
     <row r="760" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C760" s="7"/>
+      <c r="C760" s="5"/>
     </row>
     <row r="761" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C761" s="7"/>
+      <c r="C761" s="5"/>
     </row>
     <row r="762" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C762" s="7"/>
+      <c r="C762" s="5"/>
     </row>
     <row r="763" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C763" s="7"/>
+      <c r="C763" s="5"/>
     </row>
     <row r="764" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C764" s="7"/>
+      <c r="C764" s="5"/>
     </row>
     <row r="765" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C765" s="7"/>
+      <c r="C765" s="5"/>
     </row>
     <row r="766" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C766" s="7"/>
+      <c r="C766" s="5"/>
     </row>
     <row r="767" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C767" s="7"/>
+      <c r="C767" s="5"/>
     </row>
     <row r="768" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C768" s="7"/>
+      <c r="C768" s="5"/>
     </row>
     <row r="769" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C769" s="7"/>
+      <c r="C769" s="5"/>
     </row>
     <row r="770" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C770" s="7"/>
+      <c r="C770" s="5"/>
     </row>
     <row r="771" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C771" s="7"/>
+      <c r="C771" s="5"/>
     </row>
     <row r="772" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C772" s="7"/>
+      <c r="C772" s="5"/>
     </row>
     <row r="773" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C773" s="7"/>
+      <c r="C773" s="5"/>
     </row>
     <row r="774" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C774" s="7"/>
+      <c r="C774" s="5"/>
     </row>
     <row r="775" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C775" s="7"/>
+      <c r="C775" s="5"/>
     </row>
     <row r="776" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C776" s="7"/>
+      <c r="C776" s="5"/>
     </row>
     <row r="777" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C777" s="7"/>
+      <c r="C777" s="5"/>
     </row>
     <row r="778" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C778" s="7"/>
+      <c r="C778" s="5"/>
     </row>
     <row r="779" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C779" s="7"/>
+      <c r="C779" s="5"/>
     </row>
     <row r="780" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C780" s="7"/>
+      <c r="C780" s="5"/>
     </row>
     <row r="781" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C781" s="7"/>
+      <c r="C781" s="5"/>
     </row>
     <row r="782" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C782" s="7"/>
+      <c r="C782" s="5"/>
     </row>
     <row r="783" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C783" s="7"/>
+      <c r="C783" s="5"/>
     </row>
     <row r="784" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C784" s="7"/>
+      <c r="C784" s="5"/>
     </row>
     <row r="785" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C785" s="7"/>
+      <c r="C785" s="5"/>
     </row>
     <row r="786" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C786" s="7"/>
+      <c r="C786" s="5"/>
     </row>
     <row r="787" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C787" s="7"/>
+      <c r="C787" s="5"/>
     </row>
     <row r="788" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C788" s="7"/>
+      <c r="C788" s="5"/>
     </row>
     <row r="789" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C789" s="7"/>
+      <c r="C789" s="5"/>
     </row>
     <row r="790" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C790" s="7"/>
+      <c r="C790" s="5"/>
     </row>
     <row r="791" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C791" s="7"/>
+      <c r="C791" s="5"/>
     </row>
     <row r="792" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C792" s="7"/>
+      <c r="C792" s="5"/>
     </row>
     <row r="793" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C793" s="7"/>
+      <c r="C793" s="5"/>
     </row>
     <row r="794" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C794" s="7"/>
+      <c r="C794" s="5"/>
     </row>
     <row r="795" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C795" s="7"/>
+      <c r="C795" s="5"/>
     </row>
     <row r="796" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C796" s="7"/>
+      <c r="C796" s="5"/>
     </row>
     <row r="797" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C797" s="7"/>
+      <c r="C797" s="5"/>
     </row>
     <row r="798" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C798" s="7"/>
+      <c r="C798" s="5"/>
     </row>
     <row r="799" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C799" s="7"/>
+      <c r="C799" s="5"/>
     </row>
     <row r="800" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C800" s="7"/>
+      <c r="C800" s="5"/>
     </row>
     <row r="801" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C801" s="7"/>
+      <c r="C801" s="5"/>
     </row>
     <row r="802" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C802" s="7"/>
+      <c r="C802" s="5"/>
     </row>
     <row r="803" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C803" s="7"/>
+      <c r="C803" s="5"/>
     </row>
     <row r="804" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C804" s="7"/>
+      <c r="C804" s="5"/>
     </row>
     <row r="805" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C805" s="7"/>
+      <c r="C805" s="5"/>
     </row>
     <row r="806" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C806" s="7"/>
+      <c r="C806" s="5"/>
     </row>
     <row r="807" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C807" s="7"/>
+      <c r="C807" s="5"/>
     </row>
     <row r="808" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C808" s="7"/>
+      <c r="C808" s="5"/>
     </row>
     <row r="809" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C809" s="7"/>
+      <c r="C809" s="5"/>
     </row>
     <row r="810" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C810" s="7"/>
+      <c r="C810" s="5"/>
     </row>
     <row r="811" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C811" s="7"/>
+      <c r="C811" s="5"/>
     </row>
     <row r="812" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C812" s="7"/>
+      <c r="C812" s="5"/>
     </row>
     <row r="813" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C813" s="7"/>
+      <c r="C813" s="5"/>
     </row>
     <row r="814" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C814" s="7"/>
+      <c r="C814" s="5"/>
     </row>
     <row r="815" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C815" s="7"/>
+      <c r="C815" s="5"/>
     </row>
     <row r="816" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C816" s="7"/>
+      <c r="C816" s="5"/>
     </row>
     <row r="817" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C817" s="7"/>
+      <c r="C817" s="5"/>
     </row>
     <row r="818" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C818" s="7"/>
+      <c r="C818" s="5"/>
     </row>
     <row r="819" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C819" s="7"/>
+      <c r="C819" s="5"/>
     </row>
     <row r="820" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C820" s="7"/>
+      <c r="C820" s="5"/>
     </row>
     <row r="821" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C821" s="7"/>
+      <c r="C821" s="5"/>
     </row>
     <row r="822" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C822" s="7"/>
+      <c r="C822" s="5"/>
     </row>
     <row r="823" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C823" s="7"/>
+      <c r="C823" s="5"/>
     </row>
     <row r="824" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C824" s="7"/>
+      <c r="C824" s="5"/>
     </row>
     <row r="825" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C825" s="7"/>
+      <c r="C825" s="5"/>
     </row>
     <row r="826" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C826" s="7"/>
+      <c r="C826" s="5"/>
     </row>
     <row r="827" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C827" s="7"/>
+      <c r="C827" s="5"/>
     </row>
     <row r="828" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C828" s="7"/>
+      <c r="C828" s="5"/>
     </row>
     <row r="829" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C829" s="7"/>
+      <c r="C829" s="5"/>
     </row>
     <row r="830" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C830" s="7"/>
+      <c r="C830" s="5"/>
     </row>
     <row r="831" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C831" s="7"/>
+      <c r="C831" s="5"/>
     </row>
     <row r="832" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C832" s="7"/>
+      <c r="C832" s="5"/>
     </row>
     <row r="833" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C833" s="7"/>
+      <c r="C833" s="5"/>
     </row>
     <row r="834" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C834" s="7"/>
+      <c r="C834" s="5"/>
     </row>
     <row r="835" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C835" s="7"/>
+      <c r="C835" s="5"/>
     </row>
     <row r="836" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C836" s="7"/>
+      <c r="C836" s="5"/>
     </row>
     <row r="837" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C837" s="7"/>
+      <c r="C837" s="5"/>
     </row>
     <row r="838" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C838" s="7"/>
+      <c r="C838" s="5"/>
     </row>
     <row r="839" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C839" s="7"/>
+      <c r="C839" s="5"/>
     </row>
     <row r="840" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C840" s="7"/>
+      <c r="C840" s="5"/>
     </row>
     <row r="841" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C841" s="7"/>
+      <c r="C841" s="5"/>
     </row>
     <row r="842" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C842" s="7"/>
+      <c r="C842" s="5"/>
     </row>
     <row r="843" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C843" s="7"/>
+      <c r="C843" s="5"/>
     </row>
     <row r="844" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C844" s="7"/>
+      <c r="C844" s="5"/>
     </row>
     <row r="845" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C845" s="7"/>
+      <c r="C845" s="5"/>
     </row>
     <row r="846" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C846" s="7"/>
+      <c r="C846" s="5"/>
     </row>
     <row r="847" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C847" s="7"/>
+      <c r="C847" s="5"/>
     </row>
     <row r="848" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C848" s="7"/>
+      <c r="C848" s="5"/>
     </row>
     <row r="849" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C849" s="7"/>
+      <c r="C849" s="5"/>
     </row>
     <row r="850" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C850" s="7"/>
+      <c r="C850" s="5"/>
     </row>
     <row r="851" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C851" s="7"/>
+      <c r="C851" s="5"/>
     </row>
     <row r="852" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C852" s="7"/>
+      <c r="C852" s="5"/>
     </row>
     <row r="853" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C853" s="7"/>
+      <c r="C853" s="5"/>
     </row>
     <row r="854" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C854" s="7"/>
+      <c r="C854" s="5"/>
     </row>
     <row r="855" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C855" s="7"/>
+      <c r="C855" s="5"/>
     </row>
     <row r="856" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C856" s="7"/>
+      <c r="C856" s="5"/>
     </row>
     <row r="857" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C857" s="7"/>
+      <c r="C857" s="5"/>
     </row>
     <row r="858" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C858" s="7"/>
+      <c r="C858" s="5"/>
     </row>
     <row r="859" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C859" s="7"/>
+      <c r="C859" s="5"/>
     </row>
     <row r="860" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C860" s="7"/>
+      <c r="C860" s="5"/>
     </row>
     <row r="861" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C861" s="7"/>
+      <c r="C861" s="5"/>
     </row>
     <row r="862" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C862" s="7"/>
+      <c r="C862" s="5"/>
     </row>
     <row r="863" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C863" s="7"/>
+      <c r="C863" s="5"/>
     </row>
     <row r="864" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C864" s="7"/>
+      <c r="C864" s="5"/>
     </row>
     <row r="865" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C865" s="7"/>
+      <c r="C865" s="5"/>
     </row>
     <row r="866" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C866" s="7"/>
+      <c r="C866" s="5"/>
     </row>
     <row r="867" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C867" s="7"/>
+      <c r="C867" s="5"/>
     </row>
     <row r="868" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C868" s="7"/>
+      <c r="C868" s="5"/>
     </row>
     <row r="869" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C869" s="7"/>
+      <c r="C869" s="5"/>
     </row>
     <row r="870" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C870" s="7"/>
+      <c r="C870" s="5"/>
     </row>
     <row r="871" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C871" s="7"/>
+      <c r="C871" s="5"/>
     </row>
     <row r="872" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C872" s="7"/>
+      <c r="C872" s="5"/>
     </row>
     <row r="873" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C873" s="7"/>
+      <c r="C873" s="5"/>
     </row>
     <row r="874" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C874" s="7"/>
+      <c r="C874" s="5"/>
     </row>
     <row r="875" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C875" s="7"/>
+      <c r="C875" s="5"/>
     </row>
     <row r="876" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C876" s="7"/>
+      <c r="C876" s="5"/>
     </row>
     <row r="877" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C877" s="7"/>
+      <c r="C877" s="5"/>
     </row>
     <row r="878" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C878" s="7"/>
+      <c r="C878" s="5"/>
     </row>
     <row r="879" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C879" s="7"/>
+      <c r="C879" s="5"/>
     </row>
     <row r="880" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C880" s="7"/>
+      <c r="C880" s="5"/>
     </row>
     <row r="881" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C881" s="7"/>
+      <c r="C881" s="5"/>
     </row>
     <row r="882" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C882" s="7"/>
+      <c r="C882" s="5"/>
     </row>
     <row r="883" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C883" s="7"/>
+      <c r="C883" s="5"/>
     </row>
     <row r="884" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C884" s="7"/>
+      <c r="C884" s="5"/>
     </row>
     <row r="885" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C885" s="7"/>
+      <c r="C885" s="5"/>
     </row>
     <row r="886" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C886" s="7"/>
+      <c r="C886" s="5"/>
     </row>
     <row r="887" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C887" s="7"/>
+      <c r="C887" s="5"/>
     </row>
     <row r="888" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C888" s="7"/>
+      <c r="C888" s="5"/>
     </row>
     <row r="889" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C889" s="7"/>
+      <c r="C889" s="5"/>
     </row>
     <row r="890" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C890" s="7"/>
+      <c r="C890" s="5"/>
     </row>
     <row r="891" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C891" s="7"/>
+      <c r="C891" s="5"/>
     </row>
     <row r="892" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C892" s="7"/>
+      <c r="C892" s="5"/>
     </row>
     <row r="893" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C893" s="7"/>
+      <c r="C893" s="5"/>
     </row>
     <row r="894" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C894" s="7"/>
+      <c r="C894" s="5"/>
     </row>
     <row r="895" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C895" s="7"/>
+      <c r="C895" s="5"/>
     </row>
     <row r="896" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C896" s="7"/>
+      <c r="C896" s="5"/>
     </row>
     <row r="897" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C897" s="7"/>
+      <c r="C897" s="5"/>
     </row>
     <row r="898" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C898" s="7"/>
+      <c r="C898" s="5"/>
     </row>
     <row r="899" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C899" s="7"/>
+      <c r="C899" s="5"/>
     </row>
     <row r="900" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C900" s="7"/>
+      <c r="C900" s="5"/>
     </row>
     <row r="901" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C901" s="7"/>
+      <c r="C901" s="5"/>
     </row>
     <row r="902" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C902" s="7"/>
+      <c r="C902" s="5"/>
     </row>
     <row r="903" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C903" s="7"/>
+      <c r="C903" s="5"/>
     </row>
     <row r="904" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C904" s="7"/>
+      <c r="C904" s="5"/>
     </row>
     <row r="905" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C905" s="7"/>
+      <c r="C905" s="5"/>
     </row>
     <row r="906" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C906" s="7"/>
+      <c r="C906" s="5"/>
     </row>
     <row r="907" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C907" s="7"/>
+      <c r="C907" s="5"/>
     </row>
     <row r="908" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C908" s="7"/>
+      <c r="C908" s="5"/>
     </row>
     <row r="909" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C909" s="7"/>
+      <c r="C909" s="5"/>
     </row>
     <row r="910" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C910" s="7"/>
+      <c r="C910" s="5"/>
     </row>
     <row r="911" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C911" s="7"/>
+      <c r="C911" s="5"/>
     </row>
     <row r="912" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C912" s="7"/>
+      <c r="C912" s="5"/>
     </row>
     <row r="913" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C913" s="7"/>
+      <c r="C913" s="5"/>
     </row>
     <row r="914" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C914" s="7"/>
+      <c r="C914" s="5"/>
     </row>
     <row r="915" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C915" s="7"/>
+      <c r="C915" s="5"/>
     </row>
     <row r="916" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C916" s="7"/>
+      <c r="C916" s="5"/>
     </row>
     <row r="917" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C917" s="7"/>
+      <c r="C917" s="5"/>
     </row>
     <row r="918" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C918" s="7"/>
+      <c r="C918" s="5"/>
     </row>
     <row r="919" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C919" s="7"/>
+      <c r="C919" s="5"/>
     </row>
     <row r="920" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C920" s="7"/>
+      <c r="C920" s="5"/>
     </row>
     <row r="921" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C921" s="7"/>
+      <c r="C921" s="5"/>
     </row>
     <row r="922" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C922" s="7"/>
+      <c r="C922" s="5"/>
     </row>
     <row r="923" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C923" s="7"/>
+      <c r="C923" s="5"/>
     </row>
     <row r="924" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C924" s="7"/>
+      <c r="C924" s="5"/>
     </row>
     <row r="925" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C925" s="7"/>
+      <c r="C925" s="5"/>
     </row>
     <row r="926" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C926" s="7"/>
+      <c r="C926" s="5"/>
     </row>
     <row r="927" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C927" s="7"/>
+      <c r="C927" s="5"/>
     </row>
     <row r="928" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C928" s="7"/>
+      <c r="C928" s="5"/>
     </row>
     <row r="929" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C929" s="7"/>
+      <c r="C929" s="5"/>
     </row>
     <row r="930" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C930" s="7"/>
+      <c r="C930" s="5"/>
     </row>
     <row r="931" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C931" s="7"/>
+      <c r="C931" s="5"/>
     </row>
     <row r="932" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C932" s="7"/>
+      <c r="C932" s="5"/>
     </row>
     <row r="933" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C933" s="7"/>
+      <c r="C933" s="5"/>
     </row>
     <row r="934" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C934" s="7"/>
+      <c r="C934" s="5"/>
     </row>
     <row r="935" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C935" s="7"/>
+      <c r="C935" s="5"/>
     </row>
     <row r="936" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C936" s="7"/>
+      <c r="C936" s="5"/>
     </row>
     <row r="937" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C937" s="7"/>
+      <c r="C937" s="5"/>
     </row>
     <row r="938" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C938" s="7"/>
+      <c r="C938" s="5"/>
     </row>
     <row r="939" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C939" s="7"/>
+      <c r="C939" s="5"/>
     </row>
     <row r="940" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C940" s="7"/>
+      <c r="C940" s="5"/>
     </row>
     <row r="941" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C941" s="7"/>
+      <c r="C941" s="5"/>
     </row>
     <row r="942" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C942" s="7"/>
+      <c r="C942" s="5"/>
     </row>
     <row r="943" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C943" s="7"/>
+      <c r="C943" s="5"/>
     </row>
     <row r="944" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C944" s="7"/>
+      <c r="C944" s="5"/>
     </row>
     <row r="945" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C945" s="7"/>
+      <c r="C945" s="5"/>
     </row>
     <row r="946" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C946" s="7"/>
+      <c r="C946" s="5"/>
     </row>
     <row r="947" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C947" s="7"/>
+      <c r="C947" s="5"/>
     </row>
     <row r="948" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C948" s="7"/>
+      <c r="C948" s="5"/>
     </row>
     <row r="949" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C949" s="7"/>
+      <c r="C949" s="5"/>
     </row>
     <row r="950" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C950" s="7"/>
+      <c r="C950" s="5"/>
     </row>
     <row r="951" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C951" s="7"/>
+      <c r="C951" s="5"/>
     </row>
     <row r="952" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C952" s="7"/>
+      <c r="C952" s="5"/>
     </row>
     <row r="953" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C953" s="7"/>
+      <c r="C953" s="5"/>
     </row>
     <row r="954" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C954" s="7"/>
+      <c r="C954" s="5"/>
     </row>
     <row r="955" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C955" s="7"/>
+      <c r="C955" s="5"/>
     </row>
     <row r="956" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C956" s="7"/>
+      <c r="C956" s="5"/>
     </row>
     <row r="957" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C957" s="7"/>
+      <c r="C957" s="5"/>
     </row>
     <row r="958" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C958" s="7"/>
+      <c r="C958" s="5"/>
     </row>
     <row r="959" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C959" s="7"/>
+      <c r="C959" s="5"/>
     </row>
     <row r="960" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C960" s="7"/>
+      <c r="C960" s="5"/>
     </row>
     <row r="961" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C961" s="7"/>
+      <c r="C961" s="5"/>
     </row>
     <row r="962" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C962" s="7"/>
+      <c r="C962" s="5"/>
     </row>
     <row r="963" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C963" s="7"/>
+      <c r="C963" s="5"/>
     </row>
     <row r="964" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C964" s="7"/>
+      <c r="C964" s="5"/>
     </row>
     <row r="965" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C965" s="7"/>
+      <c r="C965" s="5"/>
     </row>
     <row r="966" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C966" s="7"/>
+      <c r="C966" s="5"/>
     </row>
     <row r="967" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C967" s="7"/>
+      <c r="C967" s="5"/>
     </row>
     <row r="968" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C968" s="7"/>
+      <c r="C968" s="5"/>
     </row>
     <row r="969" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C969" s="7"/>
+      <c r="C969" s="5"/>
     </row>
     <row r="970" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C970" s="7"/>
+      <c r="C970" s="5"/>
     </row>
     <row r="971" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C971" s="7"/>
+      <c r="C971" s="5"/>
     </row>
     <row r="972" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C972" s="7"/>
+      <c r="C972" s="5"/>
     </row>
     <row r="973" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C973" s="7"/>
+      <c r="C973" s="5"/>
     </row>
     <row r="974" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C974" s="7"/>
+      <c r="C974" s="5"/>
     </row>
     <row r="975" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C975" s="7"/>
+      <c r="C975" s="5"/>
     </row>
     <row r="976" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C976" s="7"/>
+      <c r="C976" s="5"/>
     </row>
     <row r="977" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C977" s="7"/>
+      <c r="C977" s="5"/>
     </row>
     <row r="978" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C978" s="7"/>
+      <c r="C978" s="5"/>
     </row>
     <row r="979" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C979" s="7"/>
+      <c r="C979" s="5"/>
     </row>
     <row r="980" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C980" s="7"/>
+      <c r="C980" s="5"/>
     </row>
     <row r="981" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C981" s="7"/>
+      <c r="C981" s="5"/>
     </row>
     <row r="982" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C982" s="7"/>
+      <c r="C982" s="5"/>
     </row>
     <row r="983" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C983" s="7"/>
+      <c r="C983" s="5"/>
     </row>
     <row r="984" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C984" s="7"/>
+      <c r="C984" s="5"/>
     </row>
     <row r="985" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C985" s="7"/>
+      <c r="C985" s="5"/>
     </row>
     <row r="986" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C986" s="7"/>
+      <c r="C986" s="5"/>
     </row>
     <row r="987" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C987" s="7"/>
+      <c r="C987" s="5"/>
     </row>
     <row r="988" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C988" s="7"/>
+      <c r="C988" s="5"/>
     </row>
     <row r="989" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C989" s="7"/>
+      <c r="C989" s="5"/>
     </row>
     <row r="990" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C990" s="7"/>
+      <c r="C990" s="5"/>
     </row>
     <row r="991" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C991" s="7"/>
+      <c r="C991" s="5"/>
     </row>
     <row r="992" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C992" s="7"/>
+      <c r="C992" s="5"/>
     </row>
     <row r="993" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C993" s="7"/>
+      <c r="C993" s="5"/>
     </row>
     <row r="994" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C994" s="7"/>
+      <c r="C994" s="5"/>
     </row>
     <row r="995" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C995" s="7"/>
+      <c r="C995" s="5"/>
     </row>
     <row r="996" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C996" s="7"/>
+      <c r="C996" s="5"/>
     </row>
     <row r="997" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C997" s="7"/>
+      <c r="C997" s="5"/>
     </row>
     <row r="998" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C998" s="7"/>
+      <c r="C998" s="5"/>
     </row>
     <row r="999" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C999" s="7"/>
+      <c r="C999" s="5"/>
     </row>
     <row r="1000" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1000" s="7"/>
+      <c r="C1000" s="5"/>
     </row>
     <row r="1001" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1001" s="7"/>
+      <c r="C1001" s="5"/>
     </row>
     <row r="1002" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1002" s="7"/>
+      <c r="C1002" s="5"/>
     </row>
     <row r="1003" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1003" s="7"/>
+      <c r="C1003" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{D693E6EE-5BE5-4DA3-9FC2-42DD4F637343}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latni\PycharmProjects\bot\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320FE7A-C1C1-4586-8B44-616AB409C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9236B79-791B-4297-B6D4-97A644130E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
   <si>
     <t>tech_button_name</t>
   </si>
@@ -487,6 +487,9 @@
 Первая каменная гражданская постройка на Урале (возведена в 1724 году).
 В этих стенах принимались решения, влиявшие на экономику всей России XVIII-XIX вв.
 Яркий пример русского барокко с элементами петровского зодчества.</t>
+  </si>
+  <si>
+    <t>btn_about</t>
   </si>
 </sst>
 </file>
@@ -804,8 +807,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -813,7 +816,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -823,19 +825,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1075,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1106,84 +1105,86 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="1:5" ht="126.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="31" t="s">
+    <row r="3" spans="1:5" ht="101.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="85.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="94.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1197,10 +1198,10 @@
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1214,10 +1215,10 @@
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1225,13 +1226,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1242,10 +1243,10 @@
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1253,19 +1254,19 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1276,10 +1277,10 @@
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1293,10 +1294,10 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1310,10 +1311,10 @@
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1321,124 +1322,124 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1449,10 +1450,10 @@
       <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1466,10 +1467,10 @@
       <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1477,13 +1478,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1494,10 +1495,10 @@
       <c r="B28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1505,68 +1506,68 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="20" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
@@ -1575,10 +1576,10 @@
       <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1592,10 +1593,10 @@
       <c r="B34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1603,27 +1604,27 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1637,24 +1638,24 @@
       <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1662,27 +1663,27 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -1690,24 +1691,27 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1718,2890 +1722,2890 @@
       <c r="B43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="5"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="5"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="5"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="5"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="5"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="5"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="5"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="5"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="5"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="5"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="5"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="5"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="5"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="5"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="5"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="5"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="5"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="5"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="5"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="5"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="5"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="5"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="5"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="5"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="5"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="5"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="5"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="5"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="5"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="5"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="5"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="5"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="5"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="5"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="5"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="5"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="5"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="5"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="5"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="5"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="5"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="5"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="5"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="5"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="5"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="5"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="5"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="5"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="5"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="5"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="5"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="5"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="5"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="5"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="5"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="5"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="5"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="5"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="5"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="5"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="5"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="5"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="5"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="5"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="5"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="5"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="5"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="5"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="5"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="5"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="5"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="5"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="5"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="5"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="5"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="5"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="5"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="5"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="5"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="5"/>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="5"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="5"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="5"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="5"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="5"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="5"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="5"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="5"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="5"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="5"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="5"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="5"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="5"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="5"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="5"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="5"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="5"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="5"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="5"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="5"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="5"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="5"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="5"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="5"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="5"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="5"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="5"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="5"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="5"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="5"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="5"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="5"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="5"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="5"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="5"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="5"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="5"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="5"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="5"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="5"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="5"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="5"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="5"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="5"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="5"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="5"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="5"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="5"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="5"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="5"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="5"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="5"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="5"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="5"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="5"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C180" s="5"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="5"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="5"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="5"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="5"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C185" s="5"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C186" s="5"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C187" s="5"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="5"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C189" s="5"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C190" s="5"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C191" s="5"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C192" s="5"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="5"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C194" s="5"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C195" s="5"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C196" s="5"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="5"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C198" s="5"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="5"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C200" s="5"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C201" s="5"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="5"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C203" s="5"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C204" s="5"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C205" s="5"/>
+      <c r="C205" s="4"/>
     </row>
     <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C206" s="5"/>
+      <c r="C206" s="4"/>
     </row>
     <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C207" s="5"/>
+      <c r="C207" s="4"/>
     </row>
     <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C208" s="5"/>
+      <c r="C208" s="4"/>
     </row>
     <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="5"/>
+      <c r="C209" s="4"/>
     </row>
     <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C210" s="5"/>
+      <c r="C210" s="4"/>
     </row>
     <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="5"/>
+      <c r="C211" s="4"/>
     </row>
     <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C212" s="5"/>
+      <c r="C212" s="4"/>
     </row>
     <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C213" s="5"/>
+      <c r="C213" s="4"/>
     </row>
     <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="5"/>
+      <c r="C214" s="4"/>
     </row>
     <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="5"/>
+      <c r="C215" s="4"/>
     </row>
     <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="5"/>
+      <c r="C216" s="4"/>
     </row>
     <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C217" s="5"/>
+      <c r="C217" s="4"/>
     </row>
     <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C218" s="5"/>
+      <c r="C218" s="4"/>
     </row>
     <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C219" s="5"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C220" s="5"/>
+      <c r="C220" s="4"/>
     </row>
     <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C221" s="5"/>
+      <c r="C221" s="4"/>
     </row>
     <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C222" s="5"/>
+      <c r="C222" s="4"/>
     </row>
     <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C223" s="5"/>
+      <c r="C223" s="4"/>
     </row>
     <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C224" s="5"/>
+      <c r="C224" s="4"/>
     </row>
     <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C225" s="5"/>
+      <c r="C225" s="4"/>
     </row>
     <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C226" s="5"/>
+      <c r="C226" s="4"/>
     </row>
     <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C227" s="5"/>
+      <c r="C227" s="4"/>
     </row>
     <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C228" s="5"/>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C229" s="5"/>
+      <c r="C229" s="4"/>
     </row>
     <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C230" s="5"/>
+      <c r="C230" s="4"/>
     </row>
     <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C231" s="5"/>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="5"/>
+      <c r="C232" s="4"/>
     </row>
     <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C233" s="5"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C234" s="5"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C235" s="5"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C236" s="5"/>
+      <c r="C236" s="4"/>
     </row>
     <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C237" s="5"/>
+      <c r="C237" s="4"/>
     </row>
     <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C238" s="5"/>
+      <c r="C238" s="4"/>
     </row>
     <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C239" s="5"/>
+      <c r="C239" s="4"/>
     </row>
     <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C240" s="5"/>
+      <c r="C240" s="4"/>
     </row>
     <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C241" s="5"/>
+      <c r="C241" s="4"/>
     </row>
     <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C242" s="5"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C243" s="5"/>
+      <c r="C243" s="4"/>
     </row>
     <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C244" s="5"/>
+      <c r="C244" s="4"/>
     </row>
     <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C245" s="5"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C246" s="5"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C247" s="5"/>
+      <c r="C247" s="4"/>
     </row>
     <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C248" s="5"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C249" s="5"/>
+      <c r="C249" s="4"/>
     </row>
     <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C250" s="5"/>
+      <c r="C250" s="4"/>
     </row>
     <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C251" s="5"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C252" s="5"/>
+      <c r="C252" s="4"/>
     </row>
     <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C253" s="5"/>
+      <c r="C253" s="4"/>
     </row>
     <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C254" s="5"/>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C255" s="5"/>
+      <c r="C255" s="4"/>
     </row>
     <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C256" s="5"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C257" s="5"/>
+      <c r="C257" s="4"/>
     </row>
     <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C258" s="5"/>
+      <c r="C258" s="4"/>
     </row>
     <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C259" s="5"/>
+      <c r="C259" s="4"/>
     </row>
     <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C260" s="5"/>
+      <c r="C260" s="4"/>
     </row>
     <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C261" s="5"/>
+      <c r="C261" s="4"/>
     </row>
     <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C262" s="5"/>
+      <c r="C262" s="4"/>
     </row>
     <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C263" s="5"/>
+      <c r="C263" s="4"/>
     </row>
     <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C264" s="5"/>
+      <c r="C264" s="4"/>
     </row>
     <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C265" s="5"/>
+      <c r="C265" s="4"/>
     </row>
     <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C266" s="5"/>
+      <c r="C266" s="4"/>
     </row>
     <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C267" s="5"/>
+      <c r="C267" s="4"/>
     </row>
     <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="5"/>
+      <c r="C268" s="4"/>
     </row>
     <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C269" s="5"/>
+      <c r="C269" s="4"/>
     </row>
     <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C270" s="5"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C271" s="5"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C272" s="5"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C273" s="5"/>
+      <c r="C273" s="4"/>
     </row>
     <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C274" s="5"/>
+      <c r="C274" s="4"/>
     </row>
     <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C275" s="5"/>
+      <c r="C275" s="4"/>
     </row>
     <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C276" s="5"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C277" s="5"/>
+      <c r="C277" s="4"/>
     </row>
     <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C278" s="5"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C279" s="5"/>
+      <c r="C279" s="4"/>
     </row>
     <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C280" s="5"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C281" s="5"/>
+      <c r="C281" s="4"/>
     </row>
     <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C282" s="5"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C283" s="5"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C284" s="5"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C285" s="5"/>
+      <c r="C285" s="4"/>
     </row>
     <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C286" s="5"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C287" s="5"/>
+      <c r="C287" s="4"/>
     </row>
     <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C288" s="5"/>
+      <c r="C288" s="4"/>
     </row>
     <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C289" s="5"/>
+      <c r="C289" s="4"/>
     </row>
     <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C290" s="5"/>
+      <c r="C290" s="4"/>
     </row>
     <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C291" s="5"/>
+      <c r="C291" s="4"/>
     </row>
     <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C292" s="5"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C293" s="5"/>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C294" s="5"/>
+      <c r="C294" s="4"/>
     </row>
     <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C295" s="5"/>
+      <c r="C295" s="4"/>
     </row>
     <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C296" s="5"/>
+      <c r="C296" s="4"/>
     </row>
     <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C297" s="5"/>
+      <c r="C297" s="4"/>
     </row>
     <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C298" s="5"/>
+      <c r="C298" s="4"/>
     </row>
     <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C299" s="5"/>
+      <c r="C299" s="4"/>
     </row>
     <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C300" s="5"/>
+      <c r="C300" s="4"/>
     </row>
     <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C301" s="5"/>
+      <c r="C301" s="4"/>
     </row>
     <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C302" s="5"/>
+      <c r="C302" s="4"/>
     </row>
     <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C303" s="5"/>
+      <c r="C303" s="4"/>
     </row>
     <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C304" s="5"/>
+      <c r="C304" s="4"/>
     </row>
     <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C305" s="5"/>
+      <c r="C305" s="4"/>
     </row>
     <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C306" s="5"/>
+      <c r="C306" s="4"/>
     </row>
     <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C307" s="5"/>
+      <c r="C307" s="4"/>
     </row>
     <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C308" s="5"/>
+      <c r="C308" s="4"/>
     </row>
     <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C309" s="5"/>
+      <c r="C309" s="4"/>
     </row>
     <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C310" s="5"/>
+      <c r="C310" s="4"/>
     </row>
     <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C311" s="5"/>
+      <c r="C311" s="4"/>
     </row>
     <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C312" s="5"/>
+      <c r="C312" s="4"/>
     </row>
     <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C313" s="5"/>
+      <c r="C313" s="4"/>
     </row>
     <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C314" s="5"/>
+      <c r="C314" s="4"/>
     </row>
     <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C315" s="5"/>
+      <c r="C315" s="4"/>
     </row>
     <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C316" s="5"/>
+      <c r="C316" s="4"/>
     </row>
     <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C317" s="5"/>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C318" s="5"/>
+      <c r="C318" s="4"/>
     </row>
     <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C319" s="5"/>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C320" s="5"/>
+      <c r="C320" s="4"/>
     </row>
     <row r="321" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C321" s="5"/>
+      <c r="C321" s="4"/>
     </row>
     <row r="322" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C322" s="5"/>
+      <c r="C322" s="4"/>
     </row>
     <row r="323" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C323" s="5"/>
+      <c r="C323" s="4"/>
     </row>
     <row r="324" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C324" s="5"/>
+      <c r="C324" s="4"/>
     </row>
     <row r="325" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C325" s="5"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C326" s="5"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C327" s="5"/>
+      <c r="C327" s="4"/>
     </row>
     <row r="328" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C328" s="5"/>
+      <c r="C328" s="4"/>
     </row>
     <row r="329" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C329" s="5"/>
+      <c r="C329" s="4"/>
     </row>
     <row r="330" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C330" s="5"/>
+      <c r="C330" s="4"/>
     </row>
     <row r="331" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C331" s="5"/>
+      <c r="C331" s="4"/>
     </row>
     <row r="332" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C332" s="5"/>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C333" s="5"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C334" s="5"/>
+      <c r="C334" s="4"/>
     </row>
     <row r="335" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C335" s="5"/>
+      <c r="C335" s="4"/>
     </row>
     <row r="336" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C336" s="5"/>
+      <c r="C336" s="4"/>
     </row>
     <row r="337" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C337" s="5"/>
+      <c r="C337" s="4"/>
     </row>
     <row r="338" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C338" s="5"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C339" s="5"/>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C340" s="5"/>
+      <c r="C340" s="4"/>
     </row>
     <row r="341" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C341" s="5"/>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C342" s="5"/>
+      <c r="C342" s="4"/>
     </row>
     <row r="343" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C343" s="5"/>
+      <c r="C343" s="4"/>
     </row>
     <row r="344" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C344" s="5"/>
+      <c r="C344" s="4"/>
     </row>
     <row r="345" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C345" s="5"/>
+      <c r="C345" s="4"/>
     </row>
     <row r="346" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C346" s="5"/>
+      <c r="C346" s="4"/>
     </row>
     <row r="347" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C347" s="5"/>
+      <c r="C347" s="4"/>
     </row>
     <row r="348" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C348" s="5"/>
+      <c r="C348" s="4"/>
     </row>
     <row r="349" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C349" s="5"/>
+      <c r="C349" s="4"/>
     </row>
     <row r="350" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C350" s="5"/>
+      <c r="C350" s="4"/>
     </row>
     <row r="351" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C351" s="5"/>
+      <c r="C351" s="4"/>
     </row>
     <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C352" s="5"/>
+      <c r="C352" s="4"/>
     </row>
     <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C353" s="5"/>
+      <c r="C353" s="4"/>
     </row>
     <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C354" s="5"/>
+      <c r="C354" s="4"/>
     </row>
     <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C355" s="5"/>
+      <c r="C355" s="4"/>
     </row>
     <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C356" s="5"/>
+      <c r="C356" s="4"/>
     </row>
     <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C357" s="5"/>
+      <c r="C357" s="4"/>
     </row>
     <row r="358" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C358" s="5"/>
+      <c r="C358" s="4"/>
     </row>
     <row r="359" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C359" s="5"/>
+      <c r="C359" s="4"/>
     </row>
     <row r="360" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C360" s="5"/>
+      <c r="C360" s="4"/>
     </row>
     <row r="361" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C361" s="5"/>
+      <c r="C361" s="4"/>
     </row>
     <row r="362" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C362" s="5"/>
+      <c r="C362" s="4"/>
     </row>
     <row r="363" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C363" s="5"/>
+      <c r="C363" s="4"/>
     </row>
     <row r="364" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C364" s="5"/>
+      <c r="C364" s="4"/>
     </row>
     <row r="365" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C365" s="5"/>
+      <c r="C365" s="4"/>
     </row>
     <row r="366" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C366" s="5"/>
+      <c r="C366" s="4"/>
     </row>
     <row r="367" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C367" s="5"/>
+      <c r="C367" s="4"/>
     </row>
     <row r="368" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C368" s="5"/>
+      <c r="C368" s="4"/>
     </row>
     <row r="369" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C369" s="5"/>
+      <c r="C369" s="4"/>
     </row>
     <row r="370" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C370" s="5"/>
+      <c r="C370" s="4"/>
     </row>
     <row r="371" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C371" s="5"/>
+      <c r="C371" s="4"/>
     </row>
     <row r="372" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C372" s="5"/>
+      <c r="C372" s="4"/>
     </row>
     <row r="373" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C373" s="5"/>
+      <c r="C373" s="4"/>
     </row>
     <row r="374" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C374" s="5"/>
+      <c r="C374" s="4"/>
     </row>
     <row r="375" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C375" s="5"/>
+      <c r="C375" s="4"/>
     </row>
     <row r="376" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C376" s="5"/>
+      <c r="C376" s="4"/>
     </row>
     <row r="377" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C377" s="5"/>
+      <c r="C377" s="4"/>
     </row>
     <row r="378" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C378" s="5"/>
+      <c r="C378" s="4"/>
     </row>
     <row r="379" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C379" s="5"/>
+      <c r="C379" s="4"/>
     </row>
     <row r="380" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C380" s="5"/>
+      <c r="C380" s="4"/>
     </row>
     <row r="381" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C381" s="5"/>
+      <c r="C381" s="4"/>
     </row>
     <row r="382" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C382" s="5"/>
+      <c r="C382" s="4"/>
     </row>
     <row r="383" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C383" s="5"/>
+      <c r="C383" s="4"/>
     </row>
     <row r="384" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C384" s="5"/>
+      <c r="C384" s="4"/>
     </row>
     <row r="385" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C385" s="5"/>
+      <c r="C385" s="4"/>
     </row>
     <row r="386" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C386" s="5"/>
+      <c r="C386" s="4"/>
     </row>
     <row r="387" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C387" s="5"/>
+      <c r="C387" s="4"/>
     </row>
     <row r="388" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C388" s="5"/>
+      <c r="C388" s="4"/>
     </row>
     <row r="389" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C389" s="5"/>
+      <c r="C389" s="4"/>
     </row>
     <row r="390" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C390" s="5"/>
+      <c r="C390" s="4"/>
     </row>
     <row r="391" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C391" s="5"/>
+      <c r="C391" s="4"/>
     </row>
     <row r="392" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C392" s="5"/>
+      <c r="C392" s="4"/>
     </row>
     <row r="393" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C393" s="5"/>
+      <c r="C393" s="4"/>
     </row>
     <row r="394" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C394" s="5"/>
+      <c r="C394" s="4"/>
     </row>
     <row r="395" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C395" s="5"/>
+      <c r="C395" s="4"/>
     </row>
     <row r="396" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C396" s="5"/>
+      <c r="C396" s="4"/>
     </row>
     <row r="397" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C397" s="5"/>
+      <c r="C397" s="4"/>
     </row>
     <row r="398" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C398" s="5"/>
+      <c r="C398" s="4"/>
     </row>
     <row r="399" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C399" s="5"/>
+      <c r="C399" s="4"/>
     </row>
     <row r="400" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C400" s="5"/>
+      <c r="C400" s="4"/>
     </row>
     <row r="401" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C401" s="5"/>
+      <c r="C401" s="4"/>
     </row>
     <row r="402" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C402" s="5"/>
+      <c r="C402" s="4"/>
     </row>
     <row r="403" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C403" s="5"/>
+      <c r="C403" s="4"/>
     </row>
     <row r="404" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C404" s="5"/>
+      <c r="C404" s="4"/>
     </row>
     <row r="405" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C405" s="5"/>
+      <c r="C405" s="4"/>
     </row>
     <row r="406" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C406" s="5"/>
+      <c r="C406" s="4"/>
     </row>
     <row r="407" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C407" s="5"/>
+      <c r="C407" s="4"/>
     </row>
     <row r="408" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C408" s="5"/>
+      <c r="C408" s="4"/>
     </row>
     <row r="409" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C409" s="5"/>
+      <c r="C409" s="4"/>
     </row>
     <row r="410" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C410" s="5"/>
+      <c r="C410" s="4"/>
     </row>
     <row r="411" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C411" s="5"/>
+      <c r="C411" s="4"/>
     </row>
     <row r="412" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C412" s="5"/>
+      <c r="C412" s="4"/>
     </row>
     <row r="413" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C413" s="5"/>
+      <c r="C413" s="4"/>
     </row>
     <row r="414" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C414" s="5"/>
+      <c r="C414" s="4"/>
     </row>
     <row r="415" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C415" s="5"/>
+      <c r="C415" s="4"/>
     </row>
     <row r="416" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C416" s="5"/>
+      <c r="C416" s="4"/>
     </row>
     <row r="417" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C417" s="5"/>
+      <c r="C417" s="4"/>
     </row>
     <row r="418" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C418" s="5"/>
+      <c r="C418" s="4"/>
     </row>
     <row r="419" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C419" s="5"/>
+      <c r="C419" s="4"/>
     </row>
     <row r="420" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C420" s="5"/>
+      <c r="C420" s="4"/>
     </row>
     <row r="421" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C421" s="5"/>
+      <c r="C421" s="4"/>
     </row>
     <row r="422" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C422" s="5"/>
+      <c r="C422" s="4"/>
     </row>
     <row r="423" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C423" s="5"/>
+      <c r="C423" s="4"/>
     </row>
     <row r="424" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C424" s="5"/>
+      <c r="C424" s="4"/>
     </row>
     <row r="425" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C425" s="5"/>
+      <c r="C425" s="4"/>
     </row>
     <row r="426" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C426" s="5"/>
+      <c r="C426" s="4"/>
     </row>
     <row r="427" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C427" s="5"/>
+      <c r="C427" s="4"/>
     </row>
     <row r="428" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C428" s="5"/>
+      <c r="C428" s="4"/>
     </row>
     <row r="429" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C429" s="5"/>
+      <c r="C429" s="4"/>
     </row>
     <row r="430" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C430" s="5"/>
+      <c r="C430" s="4"/>
     </row>
     <row r="431" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C431" s="5"/>
+      <c r="C431" s="4"/>
     </row>
     <row r="432" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C432" s="5"/>
+      <c r="C432" s="4"/>
     </row>
     <row r="433" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C433" s="5"/>
+      <c r="C433" s="4"/>
     </row>
     <row r="434" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C434" s="5"/>
+      <c r="C434" s="4"/>
     </row>
     <row r="435" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C435" s="5"/>
+      <c r="C435" s="4"/>
     </row>
     <row r="436" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C436" s="5"/>
+      <c r="C436" s="4"/>
     </row>
     <row r="437" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C437" s="5"/>
+      <c r="C437" s="4"/>
     </row>
     <row r="438" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C438" s="5"/>
+      <c r="C438" s="4"/>
     </row>
     <row r="439" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C439" s="5"/>
+      <c r="C439" s="4"/>
     </row>
     <row r="440" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C440" s="5"/>
+      <c r="C440" s="4"/>
     </row>
     <row r="441" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C441" s="5"/>
+      <c r="C441" s="4"/>
     </row>
     <row r="442" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C442" s="5"/>
+      <c r="C442" s="4"/>
     </row>
     <row r="443" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C443" s="5"/>
+      <c r="C443" s="4"/>
     </row>
     <row r="444" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C444" s="5"/>
+      <c r="C444" s="4"/>
     </row>
     <row r="445" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C445" s="5"/>
+      <c r="C445" s="4"/>
     </row>
     <row r="446" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C446" s="5"/>
+      <c r="C446" s="4"/>
     </row>
     <row r="447" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C447" s="5"/>
+      <c r="C447" s="4"/>
     </row>
     <row r="448" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C448" s="5"/>
+      <c r="C448" s="4"/>
     </row>
     <row r="449" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C449" s="5"/>
+      <c r="C449" s="4"/>
     </row>
     <row r="450" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C450" s="5"/>
+      <c r="C450" s="4"/>
     </row>
     <row r="451" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C451" s="5"/>
+      <c r="C451" s="4"/>
     </row>
     <row r="452" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C452" s="5"/>
+      <c r="C452" s="4"/>
     </row>
     <row r="453" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C453" s="5"/>
+      <c r="C453" s="4"/>
     </row>
     <row r="454" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C454" s="5"/>
+      <c r="C454" s="4"/>
     </row>
     <row r="455" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C455" s="5"/>
+      <c r="C455" s="4"/>
     </row>
     <row r="456" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C456" s="5"/>
+      <c r="C456" s="4"/>
     </row>
     <row r="457" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C457" s="5"/>
+      <c r="C457" s="4"/>
     </row>
     <row r="458" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C458" s="5"/>
+      <c r="C458" s="4"/>
     </row>
     <row r="459" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C459" s="5"/>
+      <c r="C459" s="4"/>
     </row>
     <row r="460" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C460" s="5"/>
+      <c r="C460" s="4"/>
     </row>
     <row r="461" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C461" s="5"/>
+      <c r="C461" s="4"/>
     </row>
     <row r="462" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C462" s="5"/>
+      <c r="C462" s="4"/>
     </row>
     <row r="463" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C463" s="5"/>
+      <c r="C463" s="4"/>
     </row>
     <row r="464" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C464" s="5"/>
+      <c r="C464" s="4"/>
     </row>
     <row r="465" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C465" s="5"/>
+      <c r="C465" s="4"/>
     </row>
     <row r="466" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C466" s="5"/>
+      <c r="C466" s="4"/>
     </row>
     <row r="467" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C467" s="5"/>
+      <c r="C467" s="4"/>
     </row>
     <row r="468" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C468" s="5"/>
+      <c r="C468" s="4"/>
     </row>
     <row r="469" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C469" s="5"/>
+      <c r="C469" s="4"/>
     </row>
     <row r="470" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C470" s="5"/>
+      <c r="C470" s="4"/>
     </row>
     <row r="471" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C471" s="5"/>
+      <c r="C471" s="4"/>
     </row>
     <row r="472" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C472" s="5"/>
+      <c r="C472" s="4"/>
     </row>
     <row r="473" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C473" s="5"/>
+      <c r="C473" s="4"/>
     </row>
     <row r="474" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C474" s="5"/>
+      <c r="C474" s="4"/>
     </row>
     <row r="475" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C475" s="5"/>
+      <c r="C475" s="4"/>
     </row>
     <row r="476" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C476" s="5"/>
+      <c r="C476" s="4"/>
     </row>
     <row r="477" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C477" s="5"/>
+      <c r="C477" s="4"/>
     </row>
     <row r="478" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C478" s="5"/>
+      <c r="C478" s="4"/>
     </row>
     <row r="479" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C479" s="5"/>
+      <c r="C479" s="4"/>
     </row>
     <row r="480" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C480" s="5"/>
+      <c r="C480" s="4"/>
     </row>
     <row r="481" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C481" s="5"/>
+      <c r="C481" s="4"/>
     </row>
     <row r="482" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C482" s="5"/>
+      <c r="C482" s="4"/>
     </row>
     <row r="483" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C483" s="5"/>
+      <c r="C483" s="4"/>
     </row>
     <row r="484" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C484" s="5"/>
+      <c r="C484" s="4"/>
     </row>
     <row r="485" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C485" s="5"/>
+      <c r="C485" s="4"/>
     </row>
     <row r="486" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C486" s="5"/>
+      <c r="C486" s="4"/>
     </row>
     <row r="487" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C487" s="5"/>
+      <c r="C487" s="4"/>
     </row>
     <row r="488" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C488" s="5"/>
+      <c r="C488" s="4"/>
     </row>
     <row r="489" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C489" s="5"/>
+      <c r="C489" s="4"/>
     </row>
     <row r="490" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C490" s="5"/>
+      <c r="C490" s="4"/>
     </row>
     <row r="491" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C491" s="5"/>
+      <c r="C491" s="4"/>
     </row>
     <row r="492" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C492" s="5"/>
+      <c r="C492" s="4"/>
     </row>
     <row r="493" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C493" s="5"/>
+      <c r="C493" s="4"/>
     </row>
     <row r="494" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C494" s="5"/>
+      <c r="C494" s="4"/>
     </row>
     <row r="495" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C495" s="5"/>
+      <c r="C495" s="4"/>
     </row>
     <row r="496" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C496" s="5"/>
+      <c r="C496" s="4"/>
     </row>
     <row r="497" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C497" s="5"/>
+      <c r="C497" s="4"/>
     </row>
     <row r="498" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C498" s="5"/>
+      <c r="C498" s="4"/>
     </row>
     <row r="499" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C499" s="5"/>
+      <c r="C499" s="4"/>
     </row>
     <row r="500" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C500" s="5"/>
+      <c r="C500" s="4"/>
     </row>
     <row r="501" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C501" s="5"/>
+      <c r="C501" s="4"/>
     </row>
     <row r="502" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C502" s="5"/>
+      <c r="C502" s="4"/>
     </row>
     <row r="503" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C503" s="5"/>
+      <c r="C503" s="4"/>
     </row>
     <row r="504" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C504" s="5"/>
+      <c r="C504" s="4"/>
     </row>
     <row r="505" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C505" s="5"/>
+      <c r="C505" s="4"/>
     </row>
     <row r="506" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C506" s="5"/>
+      <c r="C506" s="4"/>
     </row>
     <row r="507" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C507" s="5"/>
+      <c r="C507" s="4"/>
     </row>
     <row r="508" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C508" s="5"/>
+      <c r="C508" s="4"/>
     </row>
     <row r="509" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C509" s="5"/>
+      <c r="C509" s="4"/>
     </row>
     <row r="510" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C510" s="5"/>
+      <c r="C510" s="4"/>
     </row>
     <row r="511" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C511" s="5"/>
+      <c r="C511" s="4"/>
     </row>
     <row r="512" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C512" s="5"/>
+      <c r="C512" s="4"/>
     </row>
     <row r="513" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C513" s="5"/>
+      <c r="C513" s="4"/>
     </row>
     <row r="514" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C514" s="5"/>
+      <c r="C514" s="4"/>
     </row>
     <row r="515" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C515" s="5"/>
+      <c r="C515" s="4"/>
     </row>
     <row r="516" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C516" s="5"/>
+      <c r="C516" s="4"/>
     </row>
     <row r="517" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C517" s="5"/>
+      <c r="C517" s="4"/>
     </row>
     <row r="518" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C518" s="5"/>
+      <c r="C518" s="4"/>
     </row>
     <row r="519" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C519" s="5"/>
+      <c r="C519" s="4"/>
     </row>
     <row r="520" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C520" s="5"/>
+      <c r="C520" s="4"/>
     </row>
     <row r="521" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C521" s="5"/>
+      <c r="C521" s="4"/>
     </row>
     <row r="522" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C522" s="5"/>
+      <c r="C522" s="4"/>
     </row>
     <row r="523" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C523" s="5"/>
+      <c r="C523" s="4"/>
     </row>
     <row r="524" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C524" s="5"/>
+      <c r="C524" s="4"/>
     </row>
     <row r="525" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C525" s="5"/>
+      <c r="C525" s="4"/>
     </row>
     <row r="526" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C526" s="5"/>
+      <c r="C526" s="4"/>
     </row>
     <row r="527" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C527" s="5"/>
+      <c r="C527" s="4"/>
     </row>
     <row r="528" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C528" s="5"/>
+      <c r="C528" s="4"/>
     </row>
     <row r="529" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C529" s="5"/>
+      <c r="C529" s="4"/>
     </row>
     <row r="530" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C530" s="5"/>
+      <c r="C530" s="4"/>
     </row>
     <row r="531" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C531" s="5"/>
+      <c r="C531" s="4"/>
     </row>
     <row r="532" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C532" s="5"/>
+      <c r="C532" s="4"/>
     </row>
     <row r="533" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C533" s="5"/>
+      <c r="C533" s="4"/>
     </row>
     <row r="534" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C534" s="5"/>
+      <c r="C534" s="4"/>
     </row>
     <row r="535" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C535" s="5"/>
+      <c r="C535" s="4"/>
     </row>
     <row r="536" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C536" s="5"/>
+      <c r="C536" s="4"/>
     </row>
     <row r="537" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C537" s="5"/>
+      <c r="C537" s="4"/>
     </row>
     <row r="538" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C538" s="5"/>
+      <c r="C538" s="4"/>
     </row>
     <row r="539" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C539" s="5"/>
+      <c r="C539" s="4"/>
     </row>
     <row r="540" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C540" s="5"/>
+      <c r="C540" s="4"/>
     </row>
     <row r="541" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C541" s="5"/>
+      <c r="C541" s="4"/>
     </row>
     <row r="542" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C542" s="5"/>
+      <c r="C542" s="4"/>
     </row>
     <row r="543" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C543" s="5"/>
+      <c r="C543" s="4"/>
     </row>
     <row r="544" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C544" s="5"/>
+      <c r="C544" s="4"/>
     </row>
     <row r="545" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C545" s="5"/>
+      <c r="C545" s="4"/>
     </row>
     <row r="546" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C546" s="5"/>
+      <c r="C546" s="4"/>
     </row>
     <row r="547" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C547" s="5"/>
+      <c r="C547" s="4"/>
     </row>
     <row r="548" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C548" s="5"/>
+      <c r="C548" s="4"/>
     </row>
     <row r="549" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C549" s="5"/>
+      <c r="C549" s="4"/>
     </row>
     <row r="550" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C550" s="5"/>
+      <c r="C550" s="4"/>
     </row>
     <row r="551" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C551" s="5"/>
+      <c r="C551" s="4"/>
     </row>
     <row r="552" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C552" s="5"/>
+      <c r="C552" s="4"/>
     </row>
     <row r="553" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C553" s="5"/>
+      <c r="C553" s="4"/>
     </row>
     <row r="554" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C554" s="5"/>
+      <c r="C554" s="4"/>
     </row>
     <row r="555" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C555" s="5"/>
+      <c r="C555" s="4"/>
     </row>
     <row r="556" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C556" s="5"/>
+      <c r="C556" s="4"/>
     </row>
     <row r="557" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C557" s="5"/>
+      <c r="C557" s="4"/>
     </row>
     <row r="558" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C558" s="5"/>
+      <c r="C558" s="4"/>
     </row>
     <row r="559" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C559" s="5"/>
+      <c r="C559" s="4"/>
     </row>
     <row r="560" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C560" s="5"/>
+      <c r="C560" s="4"/>
     </row>
     <row r="561" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C561" s="5"/>
+      <c r="C561" s="4"/>
     </row>
     <row r="562" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C562" s="5"/>
+      <c r="C562" s="4"/>
     </row>
     <row r="563" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C563" s="5"/>
+      <c r="C563" s="4"/>
     </row>
     <row r="564" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C564" s="5"/>
+      <c r="C564" s="4"/>
     </row>
     <row r="565" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C565" s="5"/>
+      <c r="C565" s="4"/>
     </row>
     <row r="566" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C566" s="5"/>
+      <c r="C566" s="4"/>
     </row>
     <row r="567" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C567" s="5"/>
+      <c r="C567" s="4"/>
     </row>
     <row r="568" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C568" s="5"/>
+      <c r="C568" s="4"/>
     </row>
     <row r="569" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C569" s="5"/>
+      <c r="C569" s="4"/>
     </row>
     <row r="570" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C570" s="5"/>
+      <c r="C570" s="4"/>
     </row>
     <row r="571" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C571" s="5"/>
+      <c r="C571" s="4"/>
     </row>
     <row r="572" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C572" s="5"/>
+      <c r="C572" s="4"/>
     </row>
     <row r="573" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C573" s="5"/>
+      <c r="C573" s="4"/>
     </row>
     <row r="574" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C574" s="5"/>
+      <c r="C574" s="4"/>
     </row>
     <row r="575" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C575" s="5"/>
+      <c r="C575" s="4"/>
     </row>
     <row r="576" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C576" s="5"/>
+      <c r="C576" s="4"/>
     </row>
     <row r="577" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C577" s="5"/>
+      <c r="C577" s="4"/>
     </row>
     <row r="578" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C578" s="5"/>
+      <c r="C578" s="4"/>
     </row>
     <row r="579" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C579" s="5"/>
+      <c r="C579" s="4"/>
     </row>
     <row r="580" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C580" s="5"/>
+      <c r="C580" s="4"/>
     </row>
     <row r="581" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C581" s="5"/>
+      <c r="C581" s="4"/>
     </row>
     <row r="582" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C582" s="5"/>
+      <c r="C582" s="4"/>
     </row>
     <row r="583" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C583" s="5"/>
+      <c r="C583" s="4"/>
     </row>
     <row r="584" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C584" s="5"/>
+      <c r="C584" s="4"/>
     </row>
     <row r="585" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C585" s="5"/>
+      <c r="C585" s="4"/>
     </row>
     <row r="586" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C586" s="5"/>
+      <c r="C586" s="4"/>
     </row>
     <row r="587" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C587" s="5"/>
+      <c r="C587" s="4"/>
     </row>
     <row r="588" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C588" s="5"/>
+      <c r="C588" s="4"/>
     </row>
     <row r="589" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C589" s="5"/>
+      <c r="C589" s="4"/>
     </row>
     <row r="590" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C590" s="5"/>
+      <c r="C590" s="4"/>
     </row>
     <row r="591" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C591" s="5"/>
+      <c r="C591" s="4"/>
     </row>
     <row r="592" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C592" s="5"/>
+      <c r="C592" s="4"/>
     </row>
     <row r="593" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C593" s="5"/>
+      <c r="C593" s="4"/>
     </row>
     <row r="594" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C594" s="5"/>
+      <c r="C594" s="4"/>
     </row>
     <row r="595" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C595" s="5"/>
+      <c r="C595" s="4"/>
     </row>
     <row r="596" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C596" s="5"/>
+      <c r="C596" s="4"/>
     </row>
     <row r="597" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C597" s="5"/>
+      <c r="C597" s="4"/>
     </row>
     <row r="598" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C598" s="5"/>
+      <c r="C598" s="4"/>
     </row>
     <row r="599" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C599" s="5"/>
+      <c r="C599" s="4"/>
     </row>
     <row r="600" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C600" s="5"/>
+      <c r="C600" s="4"/>
     </row>
     <row r="601" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C601" s="5"/>
+      <c r="C601" s="4"/>
     </row>
     <row r="602" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C602" s="5"/>
+      <c r="C602" s="4"/>
     </row>
     <row r="603" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C603" s="5"/>
+      <c r="C603" s="4"/>
     </row>
     <row r="604" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C604" s="5"/>
+      <c r="C604" s="4"/>
     </row>
     <row r="605" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C605" s="5"/>
+      <c r="C605" s="4"/>
     </row>
     <row r="606" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C606" s="5"/>
+      <c r="C606" s="4"/>
     </row>
     <row r="607" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C607" s="5"/>
+      <c r="C607" s="4"/>
     </row>
     <row r="608" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C608" s="5"/>
+      <c r="C608" s="4"/>
     </row>
     <row r="609" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C609" s="5"/>
+      <c r="C609" s="4"/>
     </row>
     <row r="610" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C610" s="5"/>
+      <c r="C610" s="4"/>
     </row>
     <row r="611" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C611" s="5"/>
+      <c r="C611" s="4"/>
     </row>
     <row r="612" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C612" s="5"/>
+      <c r="C612" s="4"/>
     </row>
     <row r="613" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C613" s="5"/>
+      <c r="C613" s="4"/>
     </row>
     <row r="614" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C614" s="5"/>
+      <c r="C614" s="4"/>
     </row>
     <row r="615" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C615" s="5"/>
+      <c r="C615" s="4"/>
     </row>
     <row r="616" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C616" s="5"/>
+      <c r="C616" s="4"/>
     </row>
     <row r="617" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C617" s="5"/>
+      <c r="C617" s="4"/>
     </row>
     <row r="618" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C618" s="5"/>
+      <c r="C618" s="4"/>
     </row>
     <row r="619" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C619" s="5"/>
+      <c r="C619" s="4"/>
     </row>
     <row r="620" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C620" s="5"/>
+      <c r="C620" s="4"/>
     </row>
     <row r="621" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C621" s="5"/>
+      <c r="C621" s="4"/>
     </row>
     <row r="622" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C622" s="5"/>
+      <c r="C622" s="4"/>
     </row>
     <row r="623" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C623" s="5"/>
+      <c r="C623" s="4"/>
     </row>
     <row r="624" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C624" s="5"/>
+      <c r="C624" s="4"/>
     </row>
     <row r="625" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C625" s="5"/>
+      <c r="C625" s="4"/>
     </row>
     <row r="626" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C626" s="5"/>
+      <c r="C626" s="4"/>
     </row>
     <row r="627" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C627" s="5"/>
+      <c r="C627" s="4"/>
     </row>
     <row r="628" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C628" s="5"/>
+      <c r="C628" s="4"/>
     </row>
     <row r="629" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C629" s="5"/>
+      <c r="C629" s="4"/>
     </row>
     <row r="630" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C630" s="5"/>
+      <c r="C630" s="4"/>
     </row>
     <row r="631" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C631" s="5"/>
+      <c r="C631" s="4"/>
     </row>
     <row r="632" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C632" s="5"/>
+      <c r="C632" s="4"/>
     </row>
     <row r="633" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C633" s="5"/>
+      <c r="C633" s="4"/>
     </row>
     <row r="634" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C634" s="5"/>
+      <c r="C634" s="4"/>
     </row>
     <row r="635" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C635" s="5"/>
+      <c r="C635" s="4"/>
     </row>
     <row r="636" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C636" s="5"/>
+      <c r="C636" s="4"/>
     </row>
     <row r="637" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C637" s="5"/>
+      <c r="C637" s="4"/>
     </row>
     <row r="638" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C638" s="5"/>
+      <c r="C638" s="4"/>
     </row>
     <row r="639" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C639" s="5"/>
+      <c r="C639" s="4"/>
     </row>
     <row r="640" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C640" s="5"/>
+      <c r="C640" s="4"/>
     </row>
     <row r="641" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C641" s="5"/>
+      <c r="C641" s="4"/>
     </row>
     <row r="642" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C642" s="5"/>
+      <c r="C642" s="4"/>
     </row>
     <row r="643" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C643" s="5"/>
+      <c r="C643" s="4"/>
     </row>
     <row r="644" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C644" s="5"/>
+      <c r="C644" s="4"/>
     </row>
     <row r="645" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C645" s="5"/>
+      <c r="C645" s="4"/>
     </row>
     <row r="646" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C646" s="5"/>
+      <c r="C646" s="4"/>
     </row>
     <row r="647" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C647" s="5"/>
+      <c r="C647" s="4"/>
     </row>
     <row r="648" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C648" s="5"/>
+      <c r="C648" s="4"/>
     </row>
     <row r="649" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C649" s="5"/>
+      <c r="C649" s="4"/>
     </row>
     <row r="650" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C650" s="5"/>
+      <c r="C650" s="4"/>
     </row>
     <row r="651" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C651" s="5"/>
+      <c r="C651" s="4"/>
     </row>
     <row r="652" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C652" s="5"/>
+      <c r="C652" s="4"/>
     </row>
     <row r="653" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C653" s="5"/>
+      <c r="C653" s="4"/>
     </row>
     <row r="654" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C654" s="5"/>
+      <c r="C654" s="4"/>
     </row>
     <row r="655" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C655" s="5"/>
+      <c r="C655" s="4"/>
     </row>
     <row r="656" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C656" s="5"/>
+      <c r="C656" s="4"/>
     </row>
     <row r="657" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C657" s="5"/>
+      <c r="C657" s="4"/>
     </row>
     <row r="658" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C658" s="5"/>
+      <c r="C658" s="4"/>
     </row>
     <row r="659" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C659" s="5"/>
+      <c r="C659" s="4"/>
     </row>
     <row r="660" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C660" s="5"/>
+      <c r="C660" s="4"/>
     </row>
     <row r="661" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C661" s="5"/>
+      <c r="C661" s="4"/>
     </row>
     <row r="662" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C662" s="5"/>
+      <c r="C662" s="4"/>
     </row>
     <row r="663" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C663" s="5"/>
+      <c r="C663" s="4"/>
     </row>
     <row r="664" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C664" s="5"/>
+      <c r="C664" s="4"/>
     </row>
     <row r="665" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C665" s="5"/>
+      <c r="C665" s="4"/>
     </row>
     <row r="666" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C666" s="5"/>
+      <c r="C666" s="4"/>
     </row>
     <row r="667" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C667" s="5"/>
+      <c r="C667" s="4"/>
     </row>
     <row r="668" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C668" s="5"/>
+      <c r="C668" s="4"/>
     </row>
     <row r="669" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C669" s="5"/>
+      <c r="C669" s="4"/>
     </row>
     <row r="670" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C670" s="5"/>
+      <c r="C670" s="4"/>
     </row>
     <row r="671" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C671" s="5"/>
+      <c r="C671" s="4"/>
     </row>
     <row r="672" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C672" s="5"/>
+      <c r="C672" s="4"/>
     </row>
     <row r="673" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C673" s="5"/>
+      <c r="C673" s="4"/>
     </row>
     <row r="674" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C674" s="5"/>
+      <c r="C674" s="4"/>
     </row>
     <row r="675" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C675" s="5"/>
+      <c r="C675" s="4"/>
     </row>
     <row r="676" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C676" s="5"/>
+      <c r="C676" s="4"/>
     </row>
     <row r="677" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C677" s="5"/>
+      <c r="C677" s="4"/>
     </row>
     <row r="678" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C678" s="5"/>
+      <c r="C678" s="4"/>
     </row>
     <row r="679" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C679" s="5"/>
+      <c r="C679" s="4"/>
     </row>
     <row r="680" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C680" s="5"/>
+      <c r="C680" s="4"/>
     </row>
     <row r="681" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C681" s="5"/>
+      <c r="C681" s="4"/>
     </row>
     <row r="682" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C682" s="5"/>
+      <c r="C682" s="4"/>
     </row>
     <row r="683" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C683" s="5"/>
+      <c r="C683" s="4"/>
     </row>
     <row r="684" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C684" s="5"/>
+      <c r="C684" s="4"/>
     </row>
     <row r="685" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C685" s="5"/>
+      <c r="C685" s="4"/>
     </row>
     <row r="686" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C686" s="5"/>
+      <c r="C686" s="4"/>
     </row>
     <row r="687" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C687" s="5"/>
+      <c r="C687" s="4"/>
     </row>
     <row r="688" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C688" s="5"/>
+      <c r="C688" s="4"/>
     </row>
     <row r="689" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C689" s="5"/>
+      <c r="C689" s="4"/>
     </row>
     <row r="690" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C690" s="5"/>
+      <c r="C690" s="4"/>
     </row>
     <row r="691" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C691" s="5"/>
+      <c r="C691" s="4"/>
     </row>
     <row r="692" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C692" s="5"/>
+      <c r="C692" s="4"/>
     </row>
     <row r="693" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C693" s="5"/>
+      <c r="C693" s="4"/>
     </row>
     <row r="694" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C694" s="5"/>
+      <c r="C694" s="4"/>
     </row>
     <row r="695" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C695" s="5"/>
+      <c r="C695" s="4"/>
     </row>
     <row r="696" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C696" s="5"/>
+      <c r="C696" s="4"/>
     </row>
     <row r="697" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C697" s="5"/>
+      <c r="C697" s="4"/>
     </row>
     <row r="698" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C698" s="5"/>
+      <c r="C698" s="4"/>
     </row>
     <row r="699" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C699" s="5"/>
+      <c r="C699" s="4"/>
     </row>
     <row r="700" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C700" s="5"/>
+      <c r="C700" s="4"/>
     </row>
     <row r="701" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C701" s="5"/>
+      <c r="C701" s="4"/>
     </row>
     <row r="702" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C702" s="5"/>
+      <c r="C702" s="4"/>
     </row>
     <row r="703" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C703" s="5"/>
+      <c r="C703" s="4"/>
     </row>
     <row r="704" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C704" s="5"/>
+      <c r="C704" s="4"/>
     </row>
     <row r="705" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C705" s="5"/>
+      <c r="C705" s="4"/>
     </row>
     <row r="706" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C706" s="5"/>
+      <c r="C706" s="4"/>
     </row>
     <row r="707" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C707" s="5"/>
+      <c r="C707" s="4"/>
     </row>
     <row r="708" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C708" s="5"/>
+      <c r="C708" s="4"/>
     </row>
     <row r="709" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C709" s="5"/>
+      <c r="C709" s="4"/>
     </row>
     <row r="710" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C710" s="5"/>
+      <c r="C710" s="4"/>
     </row>
     <row r="711" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C711" s="5"/>
+      <c r="C711" s="4"/>
     </row>
     <row r="712" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C712" s="5"/>
+      <c r="C712" s="4"/>
     </row>
     <row r="713" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C713" s="5"/>
+      <c r="C713" s="4"/>
     </row>
     <row r="714" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C714" s="5"/>
+      <c r="C714" s="4"/>
     </row>
     <row r="715" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C715" s="5"/>
+      <c r="C715" s="4"/>
     </row>
     <row r="716" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C716" s="5"/>
+      <c r="C716" s="4"/>
     </row>
     <row r="717" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C717" s="5"/>
+      <c r="C717" s="4"/>
     </row>
     <row r="718" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C718" s="5"/>
+      <c r="C718" s="4"/>
     </row>
     <row r="719" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C719" s="5"/>
+      <c r="C719" s="4"/>
     </row>
     <row r="720" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C720" s="5"/>
+      <c r="C720" s="4"/>
     </row>
     <row r="721" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C721" s="5"/>
+      <c r="C721" s="4"/>
     </row>
     <row r="722" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C722" s="5"/>
+      <c r="C722" s="4"/>
     </row>
     <row r="723" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C723" s="5"/>
+      <c r="C723" s="4"/>
     </row>
     <row r="724" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C724" s="5"/>
+      <c r="C724" s="4"/>
     </row>
     <row r="725" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C725" s="5"/>
+      <c r="C725" s="4"/>
     </row>
     <row r="726" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C726" s="5"/>
+      <c r="C726" s="4"/>
     </row>
     <row r="727" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C727" s="5"/>
+      <c r="C727" s="4"/>
     </row>
     <row r="728" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C728" s="5"/>
+      <c r="C728" s="4"/>
     </row>
     <row r="729" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C729" s="5"/>
+      <c r="C729" s="4"/>
     </row>
     <row r="730" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C730" s="5"/>
+      <c r="C730" s="4"/>
     </row>
     <row r="731" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C731" s="5"/>
+      <c r="C731" s="4"/>
     </row>
     <row r="732" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C732" s="5"/>
+      <c r="C732" s="4"/>
     </row>
     <row r="733" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C733" s="5"/>
+      <c r="C733" s="4"/>
     </row>
     <row r="734" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C734" s="5"/>
+      <c r="C734" s="4"/>
     </row>
     <row r="735" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C735" s="5"/>
+      <c r="C735" s="4"/>
     </row>
     <row r="736" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C736" s="5"/>
+      <c r="C736" s="4"/>
     </row>
     <row r="737" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C737" s="5"/>
+      <c r="C737" s="4"/>
     </row>
     <row r="738" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C738" s="5"/>
+      <c r="C738" s="4"/>
     </row>
     <row r="739" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C739" s="5"/>
+      <c r="C739" s="4"/>
     </row>
     <row r="740" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C740" s="5"/>
+      <c r="C740" s="4"/>
     </row>
     <row r="741" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C741" s="5"/>
+      <c r="C741" s="4"/>
     </row>
     <row r="742" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C742" s="5"/>
+      <c r="C742" s="4"/>
     </row>
     <row r="743" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C743" s="5"/>
+      <c r="C743" s="4"/>
     </row>
     <row r="744" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C744" s="5"/>
+      <c r="C744" s="4"/>
     </row>
     <row r="745" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C745" s="5"/>
+      <c r="C745" s="4"/>
     </row>
     <row r="746" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C746" s="5"/>
+      <c r="C746" s="4"/>
     </row>
     <row r="747" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C747" s="5"/>
+      <c r="C747" s="4"/>
     </row>
     <row r="748" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C748" s="5"/>
+      <c r="C748" s="4"/>
     </row>
     <row r="749" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C749" s="5"/>
+      <c r="C749" s="4"/>
     </row>
     <row r="750" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C750" s="5"/>
+      <c r="C750" s="4"/>
     </row>
     <row r="751" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C751" s="5"/>
+      <c r="C751" s="4"/>
     </row>
     <row r="752" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C752" s="5"/>
+      <c r="C752" s="4"/>
     </row>
     <row r="753" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C753" s="5"/>
+      <c r="C753" s="4"/>
     </row>
     <row r="754" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C754" s="5"/>
+      <c r="C754" s="4"/>
     </row>
     <row r="755" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C755" s="5"/>
+      <c r="C755" s="4"/>
     </row>
     <row r="756" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C756" s="5"/>
+      <c r="C756" s="4"/>
     </row>
     <row r="757" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C757" s="5"/>
+      <c r="C757" s="4"/>
     </row>
     <row r="758" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C758" s="5"/>
+      <c r="C758" s="4"/>
     </row>
     <row r="759" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C759" s="5"/>
+      <c r="C759" s="4"/>
     </row>
     <row r="760" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C760" s="5"/>
+      <c r="C760" s="4"/>
     </row>
     <row r="761" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C761" s="5"/>
+      <c r="C761" s="4"/>
     </row>
     <row r="762" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C762" s="5"/>
+      <c r="C762" s="4"/>
     </row>
     <row r="763" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C763" s="5"/>
+      <c r="C763" s="4"/>
     </row>
     <row r="764" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C764" s="5"/>
+      <c r="C764" s="4"/>
     </row>
     <row r="765" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C765" s="5"/>
+      <c r="C765" s="4"/>
     </row>
     <row r="766" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C766" s="5"/>
+      <c r="C766" s="4"/>
     </row>
     <row r="767" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C767" s="5"/>
+      <c r="C767" s="4"/>
     </row>
     <row r="768" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C768" s="5"/>
+      <c r="C768" s="4"/>
     </row>
     <row r="769" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C769" s="5"/>
+      <c r="C769" s="4"/>
     </row>
     <row r="770" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C770" s="5"/>
+      <c r="C770" s="4"/>
     </row>
     <row r="771" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C771" s="5"/>
+      <c r="C771" s="4"/>
     </row>
     <row r="772" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C772" s="5"/>
+      <c r="C772" s="4"/>
     </row>
     <row r="773" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C773" s="5"/>
+      <c r="C773" s="4"/>
     </row>
     <row r="774" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C774" s="5"/>
+      <c r="C774" s="4"/>
     </row>
     <row r="775" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C775" s="5"/>
+      <c r="C775" s="4"/>
     </row>
     <row r="776" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C776" s="5"/>
+      <c r="C776" s="4"/>
     </row>
     <row r="777" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C777" s="5"/>
+      <c r="C777" s="4"/>
     </row>
     <row r="778" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C778" s="5"/>
+      <c r="C778" s="4"/>
     </row>
     <row r="779" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C779" s="5"/>
+      <c r="C779" s="4"/>
     </row>
     <row r="780" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C780" s="5"/>
+      <c r="C780" s="4"/>
     </row>
     <row r="781" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C781" s="5"/>
+      <c r="C781" s="4"/>
     </row>
     <row r="782" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C782" s="5"/>
+      <c r="C782" s="4"/>
     </row>
     <row r="783" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C783" s="5"/>
+      <c r="C783" s="4"/>
     </row>
     <row r="784" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C784" s="5"/>
+      <c r="C784" s="4"/>
     </row>
     <row r="785" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C785" s="5"/>
+      <c r="C785" s="4"/>
     </row>
     <row r="786" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C786" s="5"/>
+      <c r="C786" s="4"/>
     </row>
     <row r="787" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C787" s="5"/>
+      <c r="C787" s="4"/>
     </row>
     <row r="788" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C788" s="5"/>
+      <c r="C788" s="4"/>
     </row>
     <row r="789" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C789" s="5"/>
+      <c r="C789" s="4"/>
     </row>
     <row r="790" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C790" s="5"/>
+      <c r="C790" s="4"/>
     </row>
     <row r="791" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C791" s="5"/>
+      <c r="C791" s="4"/>
     </row>
     <row r="792" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C792" s="5"/>
+      <c r="C792" s="4"/>
     </row>
     <row r="793" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C793" s="5"/>
+      <c r="C793" s="4"/>
     </row>
     <row r="794" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C794" s="5"/>
+      <c r="C794" s="4"/>
     </row>
     <row r="795" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C795" s="5"/>
+      <c r="C795" s="4"/>
     </row>
     <row r="796" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C796" s="5"/>
+      <c r="C796" s="4"/>
     </row>
     <row r="797" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C797" s="5"/>
+      <c r="C797" s="4"/>
     </row>
     <row r="798" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C798" s="5"/>
+      <c r="C798" s="4"/>
     </row>
     <row r="799" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C799" s="5"/>
+      <c r="C799" s="4"/>
     </row>
     <row r="800" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C800" s="5"/>
+      <c r="C800" s="4"/>
     </row>
     <row r="801" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C801" s="5"/>
+      <c r="C801" s="4"/>
     </row>
     <row r="802" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C802" s="5"/>
+      <c r="C802" s="4"/>
     </row>
     <row r="803" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C803" s="5"/>
+      <c r="C803" s="4"/>
     </row>
     <row r="804" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C804" s="5"/>
+      <c r="C804" s="4"/>
     </row>
     <row r="805" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C805" s="5"/>
+      <c r="C805" s="4"/>
     </row>
     <row r="806" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C806" s="5"/>
+      <c r="C806" s="4"/>
     </row>
     <row r="807" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C807" s="5"/>
+      <c r="C807" s="4"/>
     </row>
     <row r="808" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C808" s="5"/>
+      <c r="C808" s="4"/>
     </row>
     <row r="809" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C809" s="5"/>
+      <c r="C809" s="4"/>
     </row>
     <row r="810" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C810" s="5"/>
+      <c r="C810" s="4"/>
     </row>
     <row r="811" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C811" s="5"/>
+      <c r="C811" s="4"/>
     </row>
     <row r="812" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C812" s="5"/>
+      <c r="C812" s="4"/>
     </row>
     <row r="813" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C813" s="5"/>
+      <c r="C813" s="4"/>
     </row>
     <row r="814" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C814" s="5"/>
+      <c r="C814" s="4"/>
     </row>
     <row r="815" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C815" s="5"/>
+      <c r="C815" s="4"/>
     </row>
     <row r="816" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C816" s="5"/>
+      <c r="C816" s="4"/>
     </row>
     <row r="817" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C817" s="5"/>
+      <c r="C817" s="4"/>
     </row>
     <row r="818" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C818" s="5"/>
+      <c r="C818" s="4"/>
     </row>
     <row r="819" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C819" s="5"/>
+      <c r="C819" s="4"/>
     </row>
     <row r="820" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C820" s="5"/>
+      <c r="C820" s="4"/>
     </row>
     <row r="821" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C821" s="5"/>
+      <c r="C821" s="4"/>
     </row>
     <row r="822" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C822" s="5"/>
+      <c r="C822" s="4"/>
     </row>
     <row r="823" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C823" s="5"/>
+      <c r="C823" s="4"/>
     </row>
     <row r="824" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C824" s="5"/>
+      <c r="C824" s="4"/>
     </row>
     <row r="825" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C825" s="5"/>
+      <c r="C825" s="4"/>
     </row>
     <row r="826" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C826" s="5"/>
+      <c r="C826" s="4"/>
     </row>
     <row r="827" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C827" s="5"/>
+      <c r="C827" s="4"/>
     </row>
     <row r="828" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C828" s="5"/>
+      <c r="C828" s="4"/>
     </row>
     <row r="829" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C829" s="5"/>
+      <c r="C829" s="4"/>
     </row>
     <row r="830" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C830" s="5"/>
+      <c r="C830" s="4"/>
     </row>
     <row r="831" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C831" s="5"/>
+      <c r="C831" s="4"/>
     </row>
     <row r="832" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C832" s="5"/>
+      <c r="C832" s="4"/>
     </row>
     <row r="833" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C833" s="5"/>
+      <c r="C833" s="4"/>
     </row>
     <row r="834" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C834" s="5"/>
+      <c r="C834" s="4"/>
     </row>
     <row r="835" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C835" s="5"/>
+      <c r="C835" s="4"/>
     </row>
     <row r="836" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C836" s="5"/>
+      <c r="C836" s="4"/>
     </row>
     <row r="837" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C837" s="5"/>
+      <c r="C837" s="4"/>
     </row>
     <row r="838" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C838" s="5"/>
+      <c r="C838" s="4"/>
     </row>
     <row r="839" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C839" s="5"/>
+      <c r="C839" s="4"/>
     </row>
     <row r="840" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C840" s="5"/>
+      <c r="C840" s="4"/>
     </row>
     <row r="841" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C841" s="5"/>
+      <c r="C841" s="4"/>
     </row>
     <row r="842" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C842" s="5"/>
+      <c r="C842" s="4"/>
     </row>
     <row r="843" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C843" s="5"/>
+      <c r="C843" s="4"/>
     </row>
     <row r="844" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C844" s="5"/>
+      <c r="C844" s="4"/>
     </row>
     <row r="845" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C845" s="5"/>
+      <c r="C845" s="4"/>
     </row>
     <row r="846" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C846" s="5"/>
+      <c r="C846" s="4"/>
     </row>
     <row r="847" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C847" s="5"/>
+      <c r="C847" s="4"/>
     </row>
     <row r="848" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C848" s="5"/>
+      <c r="C848" s="4"/>
     </row>
     <row r="849" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C849" s="5"/>
+      <c r="C849" s="4"/>
     </row>
     <row r="850" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C850" s="5"/>
+      <c r="C850" s="4"/>
     </row>
     <row r="851" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C851" s="5"/>
+      <c r="C851" s="4"/>
     </row>
     <row r="852" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C852" s="5"/>
+      <c r="C852" s="4"/>
     </row>
     <row r="853" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C853" s="5"/>
+      <c r="C853" s="4"/>
     </row>
     <row r="854" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C854" s="5"/>
+      <c r="C854" s="4"/>
     </row>
     <row r="855" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C855" s="5"/>
+      <c r="C855" s="4"/>
     </row>
     <row r="856" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C856" s="5"/>
+      <c r="C856" s="4"/>
     </row>
     <row r="857" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C857" s="5"/>
+      <c r="C857" s="4"/>
     </row>
     <row r="858" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C858" s="5"/>
+      <c r="C858" s="4"/>
     </row>
     <row r="859" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C859" s="5"/>
+      <c r="C859" s="4"/>
     </row>
     <row r="860" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C860" s="5"/>
+      <c r="C860" s="4"/>
     </row>
     <row r="861" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C861" s="5"/>
+      <c r="C861" s="4"/>
     </row>
     <row r="862" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C862" s="5"/>
+      <c r="C862" s="4"/>
     </row>
     <row r="863" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C863" s="5"/>
+      <c r="C863" s="4"/>
     </row>
     <row r="864" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C864" s="5"/>
+      <c r="C864" s="4"/>
     </row>
     <row r="865" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C865" s="5"/>
+      <c r="C865" s="4"/>
     </row>
     <row r="866" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C866" s="5"/>
+      <c r="C866" s="4"/>
     </row>
     <row r="867" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C867" s="5"/>
+      <c r="C867" s="4"/>
     </row>
     <row r="868" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C868" s="5"/>
+      <c r="C868" s="4"/>
     </row>
     <row r="869" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C869" s="5"/>
+      <c r="C869" s="4"/>
     </row>
     <row r="870" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C870" s="5"/>
+      <c r="C870" s="4"/>
     </row>
     <row r="871" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C871" s="5"/>
+      <c r="C871" s="4"/>
     </row>
     <row r="872" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C872" s="5"/>
+      <c r="C872" s="4"/>
     </row>
     <row r="873" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C873" s="5"/>
+      <c r="C873" s="4"/>
     </row>
     <row r="874" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C874" s="5"/>
+      <c r="C874" s="4"/>
     </row>
     <row r="875" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C875" s="5"/>
+      <c r="C875" s="4"/>
     </row>
     <row r="876" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C876" s="5"/>
+      <c r="C876" s="4"/>
     </row>
     <row r="877" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C877" s="5"/>
+      <c r="C877" s="4"/>
     </row>
     <row r="878" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C878" s="5"/>
+      <c r="C878" s="4"/>
     </row>
     <row r="879" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C879" s="5"/>
+      <c r="C879" s="4"/>
     </row>
     <row r="880" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C880" s="5"/>
+      <c r="C880" s="4"/>
     </row>
     <row r="881" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C881" s="5"/>
+      <c r="C881" s="4"/>
     </row>
     <row r="882" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C882" s="5"/>
+      <c r="C882" s="4"/>
     </row>
     <row r="883" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C883" s="5"/>
+      <c r="C883" s="4"/>
     </row>
     <row r="884" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C884" s="5"/>
+      <c r="C884" s="4"/>
     </row>
     <row r="885" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C885" s="5"/>
+      <c r="C885" s="4"/>
     </row>
     <row r="886" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C886" s="5"/>
+      <c r="C886" s="4"/>
     </row>
     <row r="887" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C887" s="5"/>
+      <c r="C887" s="4"/>
     </row>
     <row r="888" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C888" s="5"/>
+      <c r="C888" s="4"/>
     </row>
     <row r="889" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C889" s="5"/>
+      <c r="C889" s="4"/>
     </row>
     <row r="890" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C890" s="5"/>
+      <c r="C890" s="4"/>
     </row>
     <row r="891" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C891" s="5"/>
+      <c r="C891" s="4"/>
     </row>
     <row r="892" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C892" s="5"/>
+      <c r="C892" s="4"/>
     </row>
     <row r="893" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C893" s="5"/>
+      <c r="C893" s="4"/>
     </row>
     <row r="894" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C894" s="5"/>
+      <c r="C894" s="4"/>
     </row>
     <row r="895" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C895" s="5"/>
+      <c r="C895" s="4"/>
     </row>
     <row r="896" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C896" s="5"/>
+      <c r="C896" s="4"/>
     </row>
     <row r="897" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C897" s="5"/>
+      <c r="C897" s="4"/>
     </row>
     <row r="898" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C898" s="5"/>
+      <c r="C898" s="4"/>
     </row>
     <row r="899" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C899" s="5"/>
+      <c r="C899" s="4"/>
     </row>
     <row r="900" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C900" s="5"/>
+      <c r="C900" s="4"/>
     </row>
     <row r="901" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C901" s="5"/>
+      <c r="C901" s="4"/>
     </row>
     <row r="902" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C902" s="5"/>
+      <c r="C902" s="4"/>
     </row>
     <row r="903" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C903" s="5"/>
+      <c r="C903" s="4"/>
     </row>
     <row r="904" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C904" s="5"/>
+      <c r="C904" s="4"/>
     </row>
     <row r="905" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C905" s="5"/>
+      <c r="C905" s="4"/>
     </row>
     <row r="906" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C906" s="5"/>
+      <c r="C906" s="4"/>
     </row>
     <row r="907" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C907" s="5"/>
+      <c r="C907" s="4"/>
     </row>
     <row r="908" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C908" s="5"/>
+      <c r="C908" s="4"/>
     </row>
     <row r="909" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C909" s="5"/>
+      <c r="C909" s="4"/>
     </row>
     <row r="910" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C910" s="5"/>
+      <c r="C910" s="4"/>
     </row>
     <row r="911" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C911" s="5"/>
+      <c r="C911" s="4"/>
     </row>
     <row r="912" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C912" s="5"/>
+      <c r="C912" s="4"/>
     </row>
     <row r="913" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C913" s="5"/>
+      <c r="C913" s="4"/>
     </row>
     <row r="914" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C914" s="5"/>
+      <c r="C914" s="4"/>
     </row>
     <row r="915" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C915" s="5"/>
+      <c r="C915" s="4"/>
     </row>
     <row r="916" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C916" s="5"/>
+      <c r="C916" s="4"/>
     </row>
     <row r="917" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C917" s="5"/>
+      <c r="C917" s="4"/>
     </row>
     <row r="918" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C918" s="5"/>
+      <c r="C918" s="4"/>
     </row>
     <row r="919" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C919" s="5"/>
+      <c r="C919" s="4"/>
     </row>
     <row r="920" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C920" s="5"/>
+      <c r="C920" s="4"/>
     </row>
     <row r="921" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C921" s="5"/>
+      <c r="C921" s="4"/>
     </row>
     <row r="922" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C922" s="5"/>
+      <c r="C922" s="4"/>
     </row>
     <row r="923" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C923" s="5"/>
+      <c r="C923" s="4"/>
     </row>
     <row r="924" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C924" s="5"/>
+      <c r="C924" s="4"/>
     </row>
     <row r="925" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C925" s="5"/>
+      <c r="C925" s="4"/>
     </row>
     <row r="926" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C926" s="5"/>
+      <c r="C926" s="4"/>
     </row>
     <row r="927" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C927" s="5"/>
+      <c r="C927" s="4"/>
     </row>
     <row r="928" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C928" s="5"/>
+      <c r="C928" s="4"/>
     </row>
     <row r="929" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C929" s="5"/>
+      <c r="C929" s="4"/>
     </row>
     <row r="930" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C930" s="5"/>
+      <c r="C930" s="4"/>
     </row>
     <row r="931" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C931" s="5"/>
+      <c r="C931" s="4"/>
     </row>
     <row r="932" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C932" s="5"/>
+      <c r="C932" s="4"/>
     </row>
     <row r="933" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C933" s="5"/>
+      <c r="C933" s="4"/>
     </row>
     <row r="934" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C934" s="5"/>
+      <c r="C934" s="4"/>
     </row>
     <row r="935" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C935" s="5"/>
+      <c r="C935" s="4"/>
     </row>
     <row r="936" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C936" s="5"/>
+      <c r="C936" s="4"/>
     </row>
     <row r="937" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C937" s="5"/>
+      <c r="C937" s="4"/>
     </row>
     <row r="938" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C938" s="5"/>
+      <c r="C938" s="4"/>
     </row>
     <row r="939" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C939" s="5"/>
+      <c r="C939" s="4"/>
     </row>
     <row r="940" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C940" s="5"/>
+      <c r="C940" s="4"/>
     </row>
     <row r="941" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C941" s="5"/>
+      <c r="C941" s="4"/>
     </row>
     <row r="942" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C942" s="5"/>
+      <c r="C942" s="4"/>
     </row>
     <row r="943" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C943" s="5"/>
+      <c r="C943" s="4"/>
     </row>
     <row r="944" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C944" s="5"/>
+      <c r="C944" s="4"/>
     </row>
     <row r="945" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C945" s="5"/>
+      <c r="C945" s="4"/>
     </row>
     <row r="946" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C946" s="5"/>
+      <c r="C946" s="4"/>
     </row>
     <row r="947" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C947" s="5"/>
+      <c r="C947" s="4"/>
     </row>
     <row r="948" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C948" s="5"/>
+      <c r="C948" s="4"/>
     </row>
     <row r="949" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C949" s="5"/>
+      <c r="C949" s="4"/>
     </row>
     <row r="950" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C950" s="5"/>
+      <c r="C950" s="4"/>
     </row>
     <row r="951" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C951" s="5"/>
+      <c r="C951" s="4"/>
     </row>
     <row r="952" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C952" s="5"/>
+      <c r="C952" s="4"/>
     </row>
     <row r="953" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C953" s="5"/>
+      <c r="C953" s="4"/>
     </row>
     <row r="954" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C954" s="5"/>
+      <c r="C954" s="4"/>
     </row>
     <row r="955" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C955" s="5"/>
+      <c r="C955" s="4"/>
     </row>
     <row r="956" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C956" s="5"/>
+      <c r="C956" s="4"/>
     </row>
     <row r="957" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C957" s="5"/>
+      <c r="C957" s="4"/>
     </row>
     <row r="958" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C958" s="5"/>
+      <c r="C958" s="4"/>
     </row>
     <row r="959" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C959" s="5"/>
+      <c r="C959" s="4"/>
     </row>
     <row r="960" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C960" s="5"/>
+      <c r="C960" s="4"/>
     </row>
     <row r="961" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C961" s="5"/>
+      <c r="C961" s="4"/>
     </row>
     <row r="962" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C962" s="5"/>
+      <c r="C962" s="4"/>
     </row>
     <row r="963" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C963" s="5"/>
+      <c r="C963" s="4"/>
     </row>
     <row r="964" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C964" s="5"/>
+      <c r="C964" s="4"/>
     </row>
     <row r="965" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C965" s="5"/>
+      <c r="C965" s="4"/>
     </row>
     <row r="966" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C966" s="5"/>
+      <c r="C966" s="4"/>
     </row>
     <row r="967" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C967" s="5"/>
+      <c r="C967" s="4"/>
     </row>
     <row r="968" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C968" s="5"/>
+      <c r="C968" s="4"/>
     </row>
     <row r="969" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C969" s="5"/>
+      <c r="C969" s="4"/>
     </row>
     <row r="970" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C970" s="5"/>
+      <c r="C970" s="4"/>
     </row>
     <row r="971" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C971" s="5"/>
+      <c r="C971" s="4"/>
     </row>
     <row r="972" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C972" s="5"/>
+      <c r="C972" s="4"/>
     </row>
     <row r="973" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C973" s="5"/>
+      <c r="C973" s="4"/>
     </row>
     <row r="974" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C974" s="5"/>
+      <c r="C974" s="4"/>
     </row>
     <row r="975" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C975" s="5"/>
+      <c r="C975" s="4"/>
     </row>
     <row r="976" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C976" s="5"/>
+      <c r="C976" s="4"/>
     </row>
     <row r="977" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C977" s="5"/>
+      <c r="C977" s="4"/>
     </row>
     <row r="978" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C978" s="5"/>
+      <c r="C978" s="4"/>
     </row>
     <row r="979" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C979" s="5"/>
+      <c r="C979" s="4"/>
     </row>
     <row r="980" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C980" s="5"/>
+      <c r="C980" s="4"/>
     </row>
     <row r="981" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C981" s="5"/>
+      <c r="C981" s="4"/>
     </row>
     <row r="982" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C982" s="5"/>
+      <c r="C982" s="4"/>
     </row>
     <row r="983" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C983" s="5"/>
+      <c r="C983" s="4"/>
     </row>
     <row r="984" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C984" s="5"/>
+      <c r="C984" s="4"/>
     </row>
     <row r="985" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C985" s="5"/>
+      <c r="C985" s="4"/>
     </row>
     <row r="986" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C986" s="5"/>
+      <c r="C986" s="4"/>
     </row>
     <row r="987" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C987" s="5"/>
+      <c r="C987" s="4"/>
     </row>
     <row r="988" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C988" s="5"/>
+      <c r="C988" s="4"/>
     </row>
     <row r="989" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C989" s="5"/>
+      <c r="C989" s="4"/>
     </row>
     <row r="990" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C990" s="5"/>
+      <c r="C990" s="4"/>
     </row>
     <row r="991" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C991" s="5"/>
+      <c r="C991" s="4"/>
     </row>
     <row r="992" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C992" s="5"/>
+      <c r="C992" s="4"/>
     </row>
     <row r="993" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C993" s="5"/>
+      <c r="C993" s="4"/>
     </row>
     <row r="994" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C994" s="5"/>
+      <c r="C994" s="4"/>
     </row>
     <row r="995" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C995" s="5"/>
+      <c r="C995" s="4"/>
     </row>
     <row r="996" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C996" s="5"/>
+      <c r="C996" s="4"/>
     </row>
     <row r="997" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C997" s="5"/>
+      <c r="C997" s="4"/>
     </row>
     <row r="998" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C998" s="5"/>
+      <c r="C998" s="4"/>
     </row>
     <row r="999" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C999" s="5"/>
+      <c r="C999" s="4"/>
     </row>
     <row r="1000" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1000" s="5"/>
+      <c r="C1000" s="4"/>
     </row>
     <row r="1001" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1001" s="5"/>
+      <c r="C1001" s="4"/>
     </row>
     <row r="1002" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1002" s="5"/>
+      <c r="C1002" s="4"/>
     </row>
     <row r="1003" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1003" s="5"/>
+      <c r="C1003" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latni\PycharmProjects\bot\usolye_stroganov_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9236B79-791B-4297-B6D4-97A644130E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABC61C-E076-4371-8438-DD34BDF9C5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
   <si>
     <t>tech_button_name</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>https://vk.com/stroganovland</t>
-  </si>
-  <si>
-    <t>информация о боте</t>
   </si>
   <si>
     <t>btn_back</t>
@@ -490,6 +487,18 @@
   </si>
   <si>
     <t>btn_about</t>
+  </si>
+  <si>
+    <t>Информация о боте</t>
+  </si>
+  <si>
+    <t>btn_quest</t>
+  </si>
+  <si>
+    <t>Для составления анкеты пройди задания в прогулке</t>
+  </si>
+  <si>
+    <t>Квест</t>
   </si>
 </sst>
 </file>
@@ -807,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -856,6 +865,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1074,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1118,7 @@
     </row>
     <row r="2" spans="1:5" ht="126.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -1141,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -1149,13 +1160,13 @@
     </row>
     <row r="6" spans="1:5" ht="85.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -1185,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -1216,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
@@ -1247,7 +1258,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
@@ -1278,10 +1289,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1295,7 +1306,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>38</v>
@@ -1312,7 +1323,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>41</v>
@@ -1340,7 +1351,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>46</v>
@@ -1355,7 +1366,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>5</v>
@@ -1373,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>47</v>
@@ -1390,7 +1401,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>47</v>
@@ -1417,7 +1428,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>59</v>
@@ -1434,7 +1445,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>62</v>
@@ -1471,7 +1482,7 @@
         <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>70</v>
@@ -1513,7 +1524,7 @@
         <v>78</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>79</v>
@@ -1530,7 +1541,7 @@
         <v>82</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>83</v>
@@ -1547,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>86</v>
@@ -1577,7 +1588,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>46</v>
@@ -1594,7 +1605,7 @@
         <v>92</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>93</v>
@@ -1608,7 +1619,7 @@
         <v>94</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>5</v>
@@ -1622,10 +1633,10 @@
         <v>96</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>17</v>
@@ -1639,7 +1650,7 @@
         <v>98</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -1653,10 +1664,10 @@
         <v>100</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
@@ -1667,7 +1678,7 @@
         <v>101</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -1681,7 +1692,7 @@
         <v>103</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>104</v>
@@ -1703,24 +1714,24 @@
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C42" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
@@ -1728,7 +1739,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="4"/>
+      <c r="A44" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>

--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABC61C-E076-4371-8438-DD34BDF9C5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78061D-6002-4635-8097-1CE5DC9CCC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="152">
   <si>
     <t>tech_button_name</t>
   </si>
@@ -499,6 +499,40 @@
   </si>
   <si>
     <t>Квест</t>
+  </si>
+  <si>
+    <t>btn_light_quest</t>
+  </si>
+  <si>
+    <t>btn_hard_quest</t>
+  </si>
+  <si>
+    <t>Квест light</t>
+  </si>
+  <si>
+    <t>Квест hard</t>
+  </si>
+  <si>
+    <t>Путь соленоса:
+1. Строгановы платят честно, но не по прейскуранту — каждому по труду и заслугам. Найди камни-якоря, которыми когда-то крепили баржи с солью. Посчитай, сколько таких камней ты видишь и к полученному числу прибавь свой возраст. Первая цифра — рубли, вторая цифра — копейки. Например: 7 камней + 15 лет = 22 → зарплата 2 рубля 2 копейки. 
+2. На соляных промыслах не было близко: от амбара — к кузнице, от кузницы — к варнице, от варницы — к скважине. Каждый день соляной мастер проходил немало, и всё — по делу. Представь, что тебе нужно пройти от амбара до кузницы, чтобы получить молот и наковальню. Сосчитай шаги, но знай: в старину одна сажень приравнивалась примерно к трём шагам. Сколько саженей от амбара до кузницы?
+3. Кузницу Господа Строгановы построили после большой беды в 1809 году.  Проверить свой ответ ты сможешь, прочитав информацию со стенда.
+4. В Нижних промыслах соль проходила путь от рассола до кристалла: через башню, варницу, ларь и амбар. Но в каком порядке? Расставь здания в правильной последовательности: как шла соль по технологической цепи. Подсказки: Амбар — не первый и не второй. Соляной ларь стоит сразу после Рассольной башни. Варница находится перед Амбаром, но не на втором месте. Какое здание было третьим?
+5. У каждого рода — свой знак, и он оставлен в камне. Подойди к фасаду Строгановских палат и внимательно рассмотри остатки лепнины на стенах — над окнами, в углах, на карнизах. Найди повторяющийся элемент узора, похожий на букву русского алфавита, и определите её порядковый номер.</t>
+  </si>
+  <si>
+    <t>Путь варничного мастера:
+1. Строгановы платят честно, но не по прейскуранту — каждому по труду и заслугам. Найди камни-якоря, которыми когда-то крепили баржи с солью. Посчитай, сколько таких камней ты видишь и к полученному числу прибавь свой возраст. Первая цифра — рубли, вторая цифра — копейки. Например: 7 камней + 15 лет = 22 → зарплата 2 рубля 2 копейки. 
+2. На соляных промыслах не было близко: от амбара — к кузнице, от кузницы — к варнице, от варницы — к скважине. Каждый день соляной мастер проходил немало, и всё — по делу. Представь, что тебе нужно пройти от амбара до кузницы, чтобы получить молот и наковальню. Сосчитай шаги, но знай: в старину одна сажень приравнивалась примерно к трём шагам. Сколько саженей от амбара до кузницы?
+3. Кузницу Господа Строгановы построили после большой беды в 1809 году.  Проверить свой ответ ты сможешь, прочитав информацию со стенда.
+4. В Нижних промыслах соль проходила путь от рассола до кристалла: через башню, варницу, ларь и амбар. Но в каком порядке? Расставь здания в правильной последовательности: как шла соль по технологической цепи. Подсказки: Амбар — не первый и не второй. Соляной ларь стоит сразу после Рассольной башни. Варница находится перед Амбаром, но не на втором месте. Какое здание было третьим?
+5. У каждого рода — свой знак, и он оставлен в камне. Подойди к фасаду Строгановских палат и внимательно рассмотри остатки лепнины на стенах — над окнами, в углах, на карнизах. Найди повторяющийся элемент узора, похожий на букву русского алфавита, и определите её порядковый номер.
+6. У Строгановых был порядок, но не всегда — достаток. В середине XVIII века они столкнулись с финансовыми трудностями и были вынуждены продать доли своих промыслов. Так на соляных варнях появились новые семьи — и каждая внесла свое имя в историю. Найди на стендах информацию о семьях, владевших Нижними соляными промыслами к началу XIX века. Подсчитай, сколько семей упоминается как владельцы в этот период. 
+7. Дела у них всегда шли вперед. Найди корпус паровой машины Строгановых — одно из первых промышленных зданий, где на смену ручному труду пришла сила пара. Рассмотри цвет стен снаружи. Какой цвет преобладает в облике этого здания?
+8. Иван IV дал грамоту для развития земель Усолья: Строгановы построили промыслы, а на благословенной земле вскоре выросла часовня — знак покрова над трудом соляных мастеров. Найди Покровскую часовню-ротонду неподалеку от корпусов паровых машин.  Рассмотри здание и посчитай, сколько у него граней. Вспомни имя, в котором столько же букв, сколько граней ты насчитал.</t>
+  </si>
+  <si>
+    <t>map.png</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1753,10 +1787,32 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="4"/>
+      <c r="A45" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="4"/>
+      <c r="A46" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>

--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78061D-6002-4635-8097-1CE5DC9CCC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003371A-46BA-4491-A36E-888C79A6B1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chorny\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003371A-46BA-4491-A36E-888C79A6B1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C4A6E4-FB40-47E2-AC70-7C7C30F9ED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,14 +513,6 @@
     <t>Квест hard</t>
   </si>
   <si>
-    <t>Путь соленоса:
-1. Строгановы платят честно, но не по прейскуранту — каждому по труду и заслугам. Найди камни-якоря, которыми когда-то крепили баржи с солью. Посчитай, сколько таких камней ты видишь и к полученному числу прибавь свой возраст. Первая цифра — рубли, вторая цифра — копейки. Например: 7 камней + 15 лет = 22 → зарплата 2 рубля 2 копейки. 
-2. На соляных промыслах не было близко: от амбара — к кузнице, от кузницы — к варнице, от варницы — к скважине. Каждый день соляной мастер проходил немало, и всё — по делу. Представь, что тебе нужно пройти от амбара до кузницы, чтобы получить молот и наковальню. Сосчитай шаги, но знай: в старину одна сажень приравнивалась примерно к трём шагам. Сколько саженей от амбара до кузницы?
-3. Кузницу Господа Строгановы построили после большой беды в 1809 году.  Проверить свой ответ ты сможешь, прочитав информацию со стенда.
-4. В Нижних промыслах соль проходила путь от рассола до кристалла: через башню, варницу, ларь и амбар. Но в каком порядке? Расставь здания в правильной последовательности: как шла соль по технологической цепи. Подсказки: Амбар — не первый и не второй. Соляной ларь стоит сразу после Рассольной башни. Варница находится перед Амбаром, но не на втором месте. Какое здание было третьим?
-5. У каждого рода — свой знак, и он оставлен в камне. Подойди к фасаду Строгановских палат и внимательно рассмотри остатки лепнины на стенах — над окнами, в углах, на карнизах. Найди повторяющийся элемент узора, похожий на букву русского алфавита, и определите её порядковый номер.</t>
-  </si>
-  <si>
     <t>Путь варничного мастера:
 1. Строгановы платят честно, но не по прейскуранту — каждому по труду и заслугам. Найди камни-якоря, которыми когда-то крепили баржи с солью. Посчитай, сколько таких камней ты видишь и к полученному числу прибавь свой возраст. Первая цифра — рубли, вторая цифра — копейки. Например: 7 камней + 15 лет = 22 → зарплата 2 рубля 2 копейки. 
 2. На соляных промыслах не было близко: от амбара — к кузнице, от кузницы — к варнице, от варницы — к скважине. Каждый день соляной мастер проходил немало, и всё — по делу. Представь, что тебе нужно пройти от амбара до кузницы, чтобы получить молот и наковальню. Сосчитай шаги, но знай: в старину одна сажень приравнивалась примерно к трём шагам. Сколько саженей от амбара до кузницы?
@@ -533,6 +525,13 @@
   </si>
   <si>
     <t>map.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путь соленоса:
+1. Строгановы платят честно, но не по прейскуранту — каждому по труду и заслугам. Найди камни-якоря, которыми когда-то крепили баржи с солью. Посчитай, сколько таких камней ты видишь и к полученному числу прибавь свой возраст. Первая цифра — рубли, вторая цифра — копейки. Например: 7 камней + 15 лет = 22 → зарплата 2 рубля 2 копейки. 
+2. На соляных промыслах не было близко: от амбара — к кузнице, от кузницы — к варнице, от варницы — к скважине. Каждый день соляной мастер проходил немало, и всё — по делу. Представь, что тебе нужно пройти от амбара до кузницы, чтобы получить молот и наковальню. Сосчитай шаги, но знай: в старину одна сажень приравнивалась примерно к трём шагам. Сколько саженей от амбара до кузницы?
+3. Кузницу Господа Строгановы построили после большой беды в 1809 году.  Проверить свой ответ ты сможешь, прочитав информацию со стенда.
+</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1794,10 +1793,10 @@
         <v>147</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1808,10 +1807,10 @@
         <v>148</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
         <v>150</v>
-      </c>
-      <c r="D46" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
